--- a/500all/speech_level/speeches_CHRG-114hhrg94686.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg94686.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="244">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>400652</t>
   </si>
   <si>
-    <t>Ted Poe</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Poe. This subcommittee will come to order. Without objection, all members will have 5 days to submit statements, questions, and extraneous materials for the record, subject to the length limitation and the rules.    I will now make my opening statement. Trade is critical to the national economy of the U.S. For example, manufacturing jobs related to trade pay 18 percent more than manufacturing jobs that are not. Trade plays a key role in new jobs. If a company wants to expand, it has to reach new customers because 95 percent of the customers are outside the United States.    Trade is the lifeblood of my hometown of Houston, Texas. Over half of Houston's economy depends on trade. Houston has one of the largest ports in the world and it is the only gas capital of the world. Overall, trade supports more than one out of five jobs in Texas and Texas has been the top exporting state for 12 consecutive years. This is not just for large businesses either. Ninety-three percent of Texas exporters are small- and medium-size businesses. Texas is the number one state and Houston, Texas is the number one city when it comes to receiving support from EXIM.    There is no question about the importance of trade. We need trade to grow. What we are looking at today is the Federal Government's role in trade. Before us today we have three agencies in the Federal Government that promote trade and investment.    The Export-Import Bank is the official U.S. export credit agency. It provides direct loans, loan guaranties and export credit insurance to help finance U.S. exports of goods and services.    The Overseas Private Investment Corporation, or OPIC, is the official U.S. development finance institution. OPIC seeks to promote economic growth and developing economies by providing political risk insurance, project and investment fund financing, and other services to U.S. firms investing in those countries.    The U.S. Trade and Development Agency, or TDA, seeks to link U.S. businesses to export opportunities overseas that lead to economic growth and development in middle income countries by funding a range of pre-export activities.    The question before us today is do we need these agencies? Sixty other countries have export credit agencies of their own. Supporters of reauthorizing EXIM Bank argue that if Congress allows the EXIM Bank to expire, then these 60 other countries will be happy to jump in, put our American companies at a competitive disadvantage, and take business away from the U.S.    Some users of EXIM say they will go out of business without EXIM. Critics of the bank respond that subsidizing companies has no place in a free market system. But some of these same critics support government subsidies for terrorism risk insurance, flood insurance, they support the FDIC, and the National Credit Union Share Insurance Fund.    There is also substantial disagreement about exactly what this costs the taxpayer. Critics say due to some tricky accounting standards, taxpayers are left holding the bag, while the agencies themselves argue they return a surplus to the U.S. Treasury every year. Critics argue that Congress enacted reforms during the EXIM Bank's 2012 reauthorization, but claimed that these reforms were never implemented. EXIM disagrees, saying that it has completed and implemented all reforms.    While trade promotion agencies are supposed to promote trade that helps the U.S., many Americans have questions about helping foreign companies that are in the U.S. economy. Do big State Owned Enterprises, or SOEs, deserve taxpayer dollars on top of the money they get from their own governments? And what about American companies that are trying to compete against these industries?    At the same time, these agencies have a special focus on helping small business. Twenty-five percent of EXIM authorized money went to small businesses last year, exceeding its 20 percent requirement. Over the past 5 years, 75 percent of OPIC's supported projects have involved a U.S. small- or medium-size business.    Just last month, a former Export-Import Bank loan officer pled guilty to taking more than $78,000 in bribes for fast tracking unqualified loan applications. OPIC has similar examples of fraud. This is a good sign that fraud is identified and perpetrators are punished, but there seems to me that more could be done to prevent fraud in the first place.    So my hope is that this hearing can bring some clarity to this debate.    The American companies just need a level playing field to compete. No one innovates as well as the U.S. from the iPhone to hydraulic fracturing the United States is the world's leader in coming up with new ideas that create new jobs and a higher standard of living for everyone. For example, if you add up the 20 countries the United States has a trade agreement with, American manufacturers run a $50 billion trade surplus with them. That is what happens when we combine the strength of American spirit with a level playing field. American companies win.    Before turning to the ranking member for his opening remarks, I would like to submit to the record the testimonies in support of reauthorizing EXIM Bank from the Nuclear Energy Institute, Texas Association of Business, Texas Association of Manufacturers, and over 300 businesses in Texas. Hearing no objection, all of these testimonials from these 300 different groups in support of the EXIM Bank will be made part of the record.    Now I will turn to the ranking member, Mr. Keating, and the gentleman from Massachusetts may give his opening statement.</t>
   </si>
   <si>
     <t>412435</t>
   </si>
   <si>
-    <t>William R. Keating</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Keating. Thank you, Mr. Chairman, for conducting this timely and bipartisan-spirited hearing. And thank you to our witnesses for taking the time to testify here today.    The agencies that are the subject of this hearing, the Export-Import Bank, the Overseas Private Investment Corporation, and the Trade and Development Agency each serve vital U.S. interests. Since its founding over eight decades ago, the EXIM Bank has helped finance U.S. exports of goods and services and contribute to U.S. employment where alternative financing is unavailable or to counter government backed export financing by foreign competitors.    It is estimated that the EXIM Bank helped to finance approximately $27.5 billion worth of American exports and supported more than 164,000 American jobs in Fiscal Year 2014 alone.    Small- and medium-size U.S. business benefit greatly from EXIM Bank's products, particularly its working capital guarantee, which enables small businesses to obtain loans, to purchase raw materials and supplies, and its export credit insurance, which covers the risk of nonpayment by international buyers and extends credit to qualified foreign customers.    The businesses that use these products aren't Fortune 100 companies. They are companies like Decas Cranberry Products, Inc., a family owned, small business in Carver, Massachusetts, in my district, that sells cranberries and cranberry products to Europe, Canada, Mexico, South America, and Asia as a direct result of the support provided by EXIM. Since using EXIM Bank's export credit insurance, Decas cranberry sales have reached $60 million, approximately 15 percent of which is export related.    The companies like Resin Technology of Groton, Mass., whose vice president, Carly Seidewand, is attempting to be here today and to share in how EXIM's working capital guarantee has helped her company, the company founded by her father. It increased sales and it expanded its workforce as a result.    As our economy continues to grow, it is essential that the EXIM Bank continue to provide its valuable services to thousands of American exporters and their families. For this reason, I am the co-sponsor of H.R. 1031, Promoting U.S. Jobs Through Export Act of 2015 which would reauthorize the EXIM Bank charter through 2022.    I am often intrigued by the answers I receive when I ask my peers and colleagues which company they believe is the largest American auto exporter? In today's ever connected global economy the answer should not surprise you. It is BMW Manufacturing Company. In 2014 alone, BMW exported $9.2 billion worth of passenger vehicles through the Port of Charleston, accounting for more than 260,000 vehicles. BMW's facility in Spartanburg, South Carolina remains the largest U.S. automobile exporter another year running. Last year, this facility announced $1 billion investments in production capacity increased to 450,000 vehicles, making it the largest BMW plant in the world.    In this increasingly global economy, it would be irresponsible for this Congress to fail to reauthorize the EXIM Bank which pays for itself and enables U.S. manufacturers to sell more products abroad and create new good jobs here at home.    Thank you, Mr. Chairman, and I yield back.</t>
   </si>
   <si>
@@ -73,9 +67,6 @@
     <t>400433</t>
   </si>
   <si>
-    <t>Joe Wilson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Wilson. Thank you, Mr. Chairman, for holding this important and timely bipartisan hearing. Within the 2nd Congressional District of South Carolina which I represent, is Zeus Corporation of Orangeburg, Prysmian Cable of Lexington, and HEY of Aiken. These three companies share a common bond. They all produce parts for the Boeing 787 Dreamliner which is currently being built outside of Charleston, South Carolina. And in just in the last 5 years, they now have 8,000 employees at the facility in Charleston. Zeus Corporation manufactures the tubing for the aircraft. Prysmian Cable makes the internal cable. And HEY produces the key interior components of the Dreamliner. Additionally, Thermal Engineering of Columbia provides composite painting of the Dreamliners creating jobs.    As we continue to debate reauthorization, I hope we can focus on the fact of jobs and that there are more than 60 competing international export credit agencies that undercut and destroy American jobs daily. In a perfect work, the Export-Import Bank would not not be needed, but unfortunately, Mr. Chairman, we do not live in a perfect world.    I am really grateful to hear my colleague from Massachusetts. We share a real appreciation of BMW. It is the largest single facility of BMW and South Carolina is the leading export of cars. We are also the leading manufacturer and exporter of tires. And so with Michelon, with Bridgestone, Continental, Giti, our state has made such progress and I am particularly grateful to find out that our friends and neighbors of Massachusetts appreciate this too. I yield back.</t>
   </si>
   <si>
@@ -85,9 +76,6 @@
     <t>400371</t>
   </si>
   <si>
-    <t>Brad Sherman</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Sherman. Mr. Chairman, thank you for holding this hearing. I have been very involved in export administration agencies. When I sat in that chair, this subcommittee wrote a new charter for OPIC which passed the House of Representatives, and of course, the full committee overwhelmingly. Unfortunately, for reasons that escape me, there is the United States Senate. But I want to commend you, Ms. Littlefield, for following through regulation many of the policy provisions that were in the bill that passed this committee and the full committee by an overwhelming vote.    The hot issue now is EXIM. Mr. Chairman, unlike you, I gave 100 speeches in favor of the candidacy of George McGovern. But even I don't believe----</t>
   </si>
   <si>
@@ -103,9 +91,6 @@
     <t>412569</t>
   </si>
   <si>
-    <t>Scott Perry</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Perry. Thank you, Mr. Chairman. Folks, thanks for being here. President Roosevelt created the Export-Import Bank in 1934 to promote U.S. sales overseas by providing loans to foreign entities looking to purchase American goods. Sounds like a good deal. However, when the government subsidizes an export for one company, other companies in the same sector might not get the same benefit and oftentimes hurts their sales and job creation.    The EXIM Bank may help a few American businesses, but at times it is definitely at the expense and hurting of others and we have heard from them. Some people categorize this as corporate welfare programs and pick winners and losers and have no rightful place in U.S. trade policy agenda. Although I think that unilateral disarmament as has already been stated is concerning, I think we should also be focusing on reducing the burden of domestic regulations and taxes which will spur productivity and employment while reducing the role and the necessary role of the Federal Government in the U.S. economy and understanding that 98 percent of sales abroad are done without the EXIM and I yield back.</t>
   </si>
   <si>
@@ -115,9 +100,6 @@
     <t>400641</t>
   </si>
   <si>
-    <t>Brian Higgins</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Higgins. Thank you, Mr. Chairman, for holding this hearing. The U.S. trade promotion agencies play a critical role in boosting U.S. exports. They provide the bulwark against foreign governments that heavily subsidize their own domestic industries. In my western New York community, the Export-Import Bank has supported over $100 million in exports and more than 600 jobs.    Furthermore, the Export-Import Bank is self-sustaining and has generated more than $7 billion in excess revenues to the United States Treasury. Failing to undertake a long-term reauthorization of the Bank would only serve to hurt American businesses and workers. I look forward to the discussion today. Thank you for being here.</t>
   </si>
   <si>
@@ -127,27 +109,18 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Hochberg</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Hochberg. Chairman, Ranking Member, and distinguished members of the subcommittee, thank you for inviting me to testify about the role that EXIM plays in promoting commercial diplomacy, a critical component of American foreign policy.    In May 2012, EXIM was reauthorized with overwhelming bipartisan support, 330 members in the House and 78 in the Senate. The 2012 Reauthorization all put in place a number of reforms. And let me underscore, each and every one of those reforms has been implemented.    Since then, the Bank has continued to support U.S. private sector job growth including 164,000 jobs last year alone. We have also generated as has been stated, billions of dollars for the taxpayers including $675 million sent to the Treasury for deficit reduction in 2014.    EXIM fully believes and works with the private sector to support U.S. job growth. We do this in two ways. One, when the private sector is unwilling or unable to provide financing to exporters; and secondly, when U.S. exporters face foreign competition backed by other governments, EXIM works to level the playing field for U.S. businesses and their workers.    At one time, EXIM financed defense exports. However, since 1968, Congress has prohibited the Bank from financing most military sales. While almost all of EXIM's financing is commercial, U.S. companies with a defense presence can still benefit from EXIM nonetheless.    W.S. Darley is a fire equipment producer, headquartered in Illinois that manufactures in both Wisconsin and Iowa with a supply chain throughout America. Darley is a company that works in both the commercial and defense sectors. One way that Darley keeps its workforce fully deployed is by balancing between the two with roughly half their business being commercial.    Recently, EXIM financing empowered them to sell 32 fire trucks to Nigeria supporting 100 jobs. On top of that, the sale included training services for public service employees in Lagos. This transaction is but one example of how when countries build things together, they often form lasting bonds that go far beyond the commercial to serve our national interests.    In addition, as directed by Congress, the Bank requires some of our larger transactions to be shipped on U.S. flagged vessels, thereby supporting a strong merchant marine. Over the past 2 years alone, more than $90 million in shipping fees have been paid by foreign buyers to the U.S. Merchant Marine.    U.S. businesses operate in the global economy. American businesses and workers aren't simply competing against Chinese, Russian, or French counterparts. Often, they are competing against whole nations.    Last week, I met with my foreign counterparts, discussed the future of export credits. Congress has made it clear they would like the Treasury Secretary to ratchet down export credits. However, what I heard from Europe to Asia to South America was just the opposite. Our foreign counterparts intend to accelerate financial backing for their exporters as well as serving as a much-needed backstop.    When commercial banks withdraw from regions or sectors that are experiencing downturns, export credit agencies step forward and fill the gap so that domestic exporters don't lose sales or workers. In some way, EXIM is like a fire truck. You don't sell of a fire truck just because you haven't had a fire in the past few years.    We appreciate the widespread support, bipartisan support of EXIM and we are eager to continue to support American jobs as the Bank has done effectively and efficiently for over eight decades, providing long-term certainty to U.S. businesses, seeking to compete in overseas markets is imperative. Businesses need to make long-term plans to grow global sales, hire more workers, and invest in innovation. Those sales, in turn, lead to greater economic stability, both in the U.S. and abroad. And for all nations, economic stability is the foundation of security and peace.    In closing, as Congress considers reauthorization of EXIM Bank, I trust this committee will keep American competitiveness at the forefront. We appreciate the subcommittee's interest. We look forward to working with you to empower your constituents to export more, hire more American workers, and strengthen America's economic resilience to the global age ahead.    Thank you and I look forward to answering your questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Poe. Thank you, Mr. Hochberg. The Chair recognizes Ms. Littlefield for her opening statement.</t>
   </si>
   <si>
-    <t>Littlefield</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Littlefield. Mr. Chairman, Ranking Member Keating and members of the committee, thank you for inviting me here to testify before you today.    I am Elizabeth Littlefield, the President and CEO of the Overseas Private Investment Corporation (OPIC). OPIC is the U.S. Government's development finance institution. It mobilizes private capital investment flows into poor and developing countries to help solve critical development challenges and in so doing, it advances U.S. foreign policy and national security objectives. We do this by providing long-term loans, guarantees and political risk insurance to businesses investing much needed capital into these developing countries, capital that would not be invested there without OPIC's financing and risk-mitigating services.    And because businesses are willing to pay the full cost of our services and more, OPIC generates income for the taxpayer and has done so reliably for 37 straight years.    Since the end of World War II, a strong, bipartisan consensus has recognized the fundamental link between poverty, economic instability, and conflict. In conflict, vulnerable nations, foreign direct investment helps to create jobs, opportunity, hope, and stability. At the same time, OPIC support helps our U.S. clients, a large majority of whom are small businesses, to tap into those fast growing, dynamic, emerging markets creating jobs both at home and abroad.    Today, OPIC manages just under 600 long term investment projects in over 100 developing countries, principally in critical infrastructure, in power, private education, private healthcare, low-income housing, and microfinance and other financial services, all of these being sectors that contribute powerfully to sustainable economic development.    In every one of these projects, our private investors also have their capital at risk. Every one of these projects is centered on achieving positive and measurable development impact and every one of those aims to be commercially viable. So OPIC uses the power of the markets and business to tangibly deliver American development and foreign policy goals. The Agency provides an effective development that pays for itself and more.    More than one third of OPIC's entire portfolio is invested in post-conflict nations or nations currently vulnerable to conflict. My own work at OPIC reflects these national security priorities. While I have been at OPIC, I have been on the ground in Haiti, Liberia, South Sudan, Afghanistan, Jordan, Egypt, Tunisia, and others to help draw investments into those fragile countries.    In Afghanistan, OPIC's large portfolio of investments includes a cashmere processing facility, a state-of-the-art water bottling facility, and a highly successful small and medium enterprise lending facility, created in partnership with USAID which now supports successful job creating businesses in and around Kabul.    In Iraq, OPIC's investment portfolio supported the reconstruction of that country in many, many ways, ranging from microfinance lending to low-income housing to a dredging project to clear Iraq's water ways.    In Haiti, OPIC worked with USAID and a U.S. company to deliver micromortgages and housing reconstruction loans after that earthquake.    Even South Sudan. I traveled to Juba immediately following the initial peace agreement to identify critical infrastructure projects that could potentially be financed, taxpayer-free, with the private sector investment.    So in closing, OPIC's goal is to help fragile market economies grow and stabilize so that the odds of conflict are reduced or to help restore the foundation of the market economy after a conflict as our troops begin to come home. As former Secretary of Defense Robert Gates once put it, ``Development is one of America's great giant force multipliers.'' We agree.    Every single dollar that OPIC extends has a multiplier effect for national security. It has a multiplier effect for development and it has a multiplier effect for the taxpayer, as every $1 into OPIC's operations has generated up to $8 back to the Treasury, back in that deficit reduction.    Mr. Chairman, this is why we believe that OPIC is smart, lean, and market-driven development. Thank you very much and I welcome your questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Poe. Thank you, Ms. Littlefield. The Chair recognizes Ms. Zak for opening statement.</t>
   </si>
   <si>
-    <t>Zak</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Zak. Chairman Poe, Ranking Member Keating, and members of the subcommittee, thank you for your interest in USTDA's work to help U.S. companies create jobs here at home while promoting sustainable development abroad.    As we were preparing for today, my staff came across a quote. It was incredibly relevant to the topic of this hearing. It is from former Secretary of State Cordell Hull who said, ``When goods and products cross borders, armies don't.'' Secretary Hull understood what we at USTDA strongly believe, that robust, diplomatic trade relationships mean resilient economies and secure nations.    Now more than ever, given the impact of globalization, America's prosperity depends on trade with strong, stable states. Establishing secure markets and fostering trade ties is exactly what we do. In fact, it is part of the unique dual mandate that Congress gave us. That is to promote U.S. private sector participation in development projects in emerging markets with an emphasis on sectors with significant U.S. exports.    USTDA approaches this mission in three important ways. First, we help to build infrastructure for economic development, stable markets for U.S. exports, and secure routes for global trade. Colombia, for example, has been a strategic focus of U.S. engagement in Latin America for decades. As part of this engagement, USTDA maintained an active portfolio to not only build the infrastructure in Colombia, but also to strengthen diplomatic and economic ties. During the negotiations of the U.S.-Colombia Trade Promotion Agreement, USTDA helped the Port of Cartagena comply with the U.S. Customs Container Security Initiative. The port implemented changes from USTDA's technical assistance with the help of goods and services from several states. Moreover, Cartagena's designation as a CSI port strengthened commercial relations while enhancing the safety and security of cargo.    Second, our activities facilitate strategic partnerships to build long term trade ties. USTDA's public/private partnerships help U.S. industry establish long-lasting connections with leaders from the world's fastest growing markets. In fact, for those of you who have traveled to India, you probably didn't realize you were benefitting from the Agency's U.S.-India Aviation Cooperation Program. The ACP has enabled U.S. and Indian officials to collaborate in several critical areas, including safety and security. Because of the relationships that the ACP has developed, the Government of India asked USTDA for help in successfully restoring their Category 1 safety rating from the FAA. They have also asked us to help them develop the technical capacity to test, certify, and procure state-of-the-art aviation security equipment.    These projects present a significant opportunity for U.S. industry to provide India with the solutions necessary to achieve international standards and to meet its security needs. The India ACP is critical to the success of these efforts. That is because they, like our other PPPs, foster person-to-person connections, provide access to key stakeholders, and strengthen bilateral trade ties.    Third, and finally, I could not agree more with the chairman's statement regarding leveling the playing field and U.S. business doing the rest. That is why USTDA helps level the playing field for U.S. firms competing in international tenders.    Both our U.S. and foreign partners have told us about challenges presented by low cost procurement systems. I know at first blush this doesn't sound exciting, but relying on lowest cost often means that a host country is forced to acquire poor quality goods and services which is not in their long-term interest. We believe there is nothing low cost about buying something twice. Because we pride ourselves on listening to the needs of our stakeholders, we responded to this challenge by partnering with George Washington Law School to launch our Global Procurement Initiative. The GPI delivers customized solutions that target specific procurement issues.    One of our first GPI countries was Vietnam, a long-term partner of USTDA. They asked for our help in implementing their national procurement law which they revised to include low cost.    The GPI embodies our Agency's mandate. It responds to our partner countries' efforts to develop sustainable infrastructure projects. It also answers U.S. industry's call to level the playing field for greater international competition. Activities like these produce results for our foreign partners and for U.S. industry. And they provide a demonstrable return on taxpayer investments.    USTDA's current multiplier, $76 in exports for every $1 programmed is the highest in the Agency's history.</t>
   </si>
   <si>
@@ -418,9 +391,6 @@
     <t>412576</t>
   </si>
   <si>
-    <t>Joaquin Castro</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Castro. Thank you, chairman. And thank each of the witnesses for your testimony today.    I want to pick up where the congressman left off, Mr. Hochberg. Can you describe some of the infrastructure for financing that foreign countries use that are comparable to EXIM? What are we competing against basically?</t>
   </si>
   <si>
@@ -454,9 +424,6 @@
     <t>412489</t>
   </si>
   <si>
-    <t>Reid J. Ribble</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Ribble. Thank you, Mr. Chairman. Mr. Hochberg, I will go ahead and start with you and then go on to Ms. Littlefield. Just to kind of give you my own historical perspective, I am a former business owner and I have voted in support of reauthorizing EXIM in the past. I am a little bit more sanguine today than I was 2 or 3 years ago and in part I am sanguine because of the CBO's fair value accounting method to determine the actual cost to the taxpayer.    I am going to quote from the CBO's 2014 report: ``For Fiscal Years 2015 to 2024, CBO found that EXIM Bank's six largest credit programs would generate budgetary savings of about $14 billion under FCRA accounting, but costs about $2 billion on a fair value basis.'' They then go on to say later in the report, ``In CBO's view, fair value estimates provide a more comprehensive measure of the cost of Federal credit programs and CBO has provided fair value estimates for many programs to help lawmakers more fully understand the tradeoffs between certain policies.'' That is a big swing, $14 billion plus to $2 billion negative over a decade. Would you care to comment on that?</t>
   </si>
   <si>
@@ -496,9 +463,6 @@
     <t>412595</t>
   </si>
   <si>
-    <t>Robin L. Kelly</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Kelly. Thank you. I would say most of us in this room recognize the importance of trade to the future of our economy. Accordingly, as we consider future trade deals, we must engage in a deeper, broader, and more inclusive dialogue about its impact on American families. This stated objective of U.S. trade policy is to liberalize markets by reducing trade and investment barriers, creating a rules-based trading system, enforcing commitments under trade agreements, and supporting economic growth.    What role do EXIM Bank, OPIC, and TDA play in supporting U.S. trade policy goals?</t>
   </si>
   <si>
@@ -520,9 +484,6 @@
     <t xml:space="preserve">    Mr. Poe. I thank the gentlelady. Just for Mr. Rohrabacher's information, there is a vote in another committee, not on the floor. And with unanimous consent, unless there is an objection, the Chair will allow a member of the full committee, but not a member of this committee to ask questions, the chairman of the European Subcommittee, Mr. Rohrabacher from California.</t>
   </si>
   <si>
-    <t>Rohrabacher</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Rohrabacher. Thank you very much, Mr. Chairman. There is a lot of discussion about trade going on on Capitol Hill these days. I am glad that you are here. And just a couple of items just for--in terms of OPIC. Is OPIC policy--there has been an on-going problem with a constituent that I have had that his family owned a major company in Ethiopia and frankly, they have been offering like a pittance as compensation for this very expensive piece of property and business. OPIC has decided not to fund that situation. Not to be involved in Ethiopia until situations like that are corrected. Is that still the policy that if a government like Ethiopia is engaged in these type of activities that are denying the U.S. citizens the right to compensation for property that they have confiscated, do we still have that policy that we are not providing loans in that country?</t>
   </si>
   <si>
@@ -604,9 +565,6 @@
     <t xml:space="preserve">    Mr. Poe. I thank the gentleman. I thank the witnesses for being here. I want to advise the witnesses that all members have the opportunity to present written questions to the witnesses. Several members were not here, could not be here and I would encourage the members to put those questions in writing as soon as possible regardless of where they are on this issue that we have been discussing today. With that, I thank the witnesses for being here and we will begin with our second panel as soon as they are seated.    The Chair is ready to begin the second panel if the witnesses will be seated. The Chair will introduce the next four witnesses. I want to thank the witnesses for waiting all morning to give their testimony. It is appreciated.    Mr. Daniel Ikenson is director of the Herbert Stiefel Center for Trade Policy at the Cato Institute. Mr. Ikenson has held several positions focusing on international trade planning, and is widely published in the area of trade policy.    General Jim Jones is the founder of the Jones Group International and previously has served as the National Security Advisor to the President of the United States. General Jones has served our country with a long, distinguished military career including leading NATO military operations as Commander of the United States European Command and Supreme Allied Commander in Europe.    Ms. Susan Jaime is the founder of Ferra Coffee International in San Antonio. In addition to roasting coffee, she has joined with Texas A&amp;M's AgriLife projects to teach coffee growers around the globe how to grade, roast, and market their coffee beans.    Carly Seidewand is vice president of the Global Sales and Administration of Resin Technology, LLC. Ms. Seidewand took over the global petrochemical trading and compounding company from her father, an entrepreneur chemist.    We will begin with Mr. Ikenson. You have 5 minutes.</t>
   </si>
   <si>
-    <t>Ikenson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Ikenson. Thank you, sir. Good morning, Chairman Poe, Ranking Member Keating, and members of the subcommittee. I am Dan Ikenson, Director of the Herbert A. Stiefel Center for Trade Policy Studies at the Cato Institute. Thank you for the invitation to share my views with you today concerning trade promotion agencies and the U.S. foreign policy. The views I express are my own and should not be construed as representing any official positions of the Cato Institute. To the extent today's hearing will help clarify some of these issues and prompt a serious effort to reform and retire some of the redundant, distortionary, and frankly, scandal-prone agencies among the panoply of Federal offerings, I am pleased to be of assistance.    U.S. trade promotion agencies are in the business of promoting exports, not trade, in the more inclusive sense. That is worth noting because despite some of the wrong-headed merchantilist assumptions that undergird U.S. trade policy that exports are good and imports are bad, the fact is that the real benefits of trade are transmitted through imports, not through exports.    In January 2010, President Obama set a national goal of doubling U.S. exports in 5 years and prominent net plan was a larger role for government in promoting exports including expanded non-market lending programs to finance export activity and increase in the number of Commerce Department foreign outposts to promote U.S. business and an increase in Federal agency chaperoned marketing trips. But the NEI neglected a broad swath of worthy reforms by ignoring the domestic laws, regulations, taxes, and other policies that handicap U.S. businesses and their competition for sales in the United States and abroad. For example, nearly 60 percent of the value of U.S. imports in 2014 consisted of intermediate goods, capital goods, and other raw materials. Those are the purchases of U.S. businesses, not consumers. Yet many of those imports are subject to Customs duties which raise the cost of production for the U.S.-based companies that need them, making less competitive at home and abroad.    U.S. duties on products like sugar, steel, magnesium, polyvinyl chloride, and other crucial manufacturing inputs have chased companies to foreign shores where those imports are less expensive and they have deterred foreign companies from setting up shop stateside.    Policy makers should stop conflating the interests of exporters with the national interest and commit to policies that reduce frictions throughout the supply chain from product conception to consumption. Why should U.S. taxpayers underwrite and U.S. policymakers promote the interest of exporters anyway when the benefits of those exports accrues primarily to the shareholders the companies enjoin the subsidized marketing or matchmaking? There is no national ownership of private export revenues.    If policymakers seek a more appropriate target for economic policy, it should be to attract and retain direct investment which is the seed of all economic activity including exports. Given the exalted status of exports in Washington's economic policy narrative, it is understandable why agencies would want to portray themselves as indispensable to U.S. export success. But on that metric, none of the subject agencies is scarcely relevant. EXIM supported $27.4 billion in exports in 2014. USTDA supports approximately $2.5 billion per year. And OPIC less than $2 billion. In aggregate, these agencies support less than 2 percent of all U.S. exports.    But the relevant economic question concerns the cost and benefits of these agencies to the U.S. economy. So let me focus a little bit on EXIM. EXIM financing helps two sets of companies, U.S. firms whose exports are subsidized through direct loans or loan guarantees and the foreign firms who purchase those subsidized exports. But those same transactions impose costs on two different sets of companies, competing U.S. firms in the same industry who do not get EXIM banking and U.S. firms in downstream industries whose foreign competition is now benefitting from reduced capital costs courtesy of the U.S. Government.    EXIM financing reduces the cost of doing business for the lucky U.S. exporter and reduces the cost of capital for his foreign customer. But it hurts U.S. competitors of the U.S. exporter, as well as U.S. competitors of his foreign customer, by putting them at relative cost disadvantages. According to the findings by a recent CATO Institute study, the downstream cost alone amount to a tax of approximately $2.8 billion every year and the victims include companies in each of the 21 broad U.S. manufacturing sectors.    The notion that because Beijing, Brasilia, and Brussels subsidize their exporters, Washington must too sweeps under the rug the fact that the United States is a major export credit subsidizer that has been engaged in doling out such largess since 1934 well before the founding of the People's Republic of China.    To say that U.S. exporters need assistance with financing to level the playing fields suggest that they lack advantages among the multitude of considerations that inform the purchasing decision. Moreover, the fact that less than 2 percent of U.S. export value goes through export promotion agencies, suggest this rationale for EXIM is bogus. Congress should allow EXIM to expire at the end of next month and the administration should announce plans to bring cases to the WTO against governments operating their export credit agencies in violation of agreed-upon limits under the Agreement on Subsidies and Countervailing Measures.    The combination of the carrot of U.S. withdrawal from the business of export credit financing and the stick of WTO litigation would likely incent other governments to reduce and possibly eliminate their own subsidy programs. For better or worse, at different times and for different purposes over the years, the U.S. trade policy has been a tool of U.S. foreign policy, trade preference programs, trade agreements, the trade Trans-Pacific Partnership, investment treaties, trade sanctions, infrastructure funding and trade financing of all bid pursuit or deployed for reasons not entirely economic in nature. Pursuing strategic objectives through trade policy has a long history.    The State Department's mission is to shape and sustain a peaceful, prosperous, just, and democratic world and foster conditions for stability and progress for the benefit of the American people and people everywhere. That broad mission may justify one or two export promotion agencies, but according to the CRS, the Congressional Research Service, there are at least 20 such agencies within the U.S. Government with overlapping responsibilities and in some cases working at cross purposes. Thirty seconds.    EXIM's Inspector General----</t>
   </si>
   <si>
@@ -622,16 +580,10 @@
     <t xml:space="preserve">    Mr. Poe. Thank you, General Jones. The Chair recognizes Ms. Jaime.</t>
   </si>
   <si>
-    <t>Jaime</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Jaime. Mr. Chairman and Trade Subcommittee of the House of Representatives, thank you for inviting me to share my perspective on the importance of the EXIM Bank.    I have been working in the coffee industry for more than 18 years, and started my own company, Ferra Coffee International, in 2009 with $50 in the bank and a passion for international trade and soft commodities. From the start, the heart, soul, and goal of my business has always been to help coffee growers worldwide. I learned very quickly that the coffee grower is the last one in the chain of the coffee trade business to get a fair price for their product and the last, if ever, to get training to properly assess the quality of their coffee or effectively negotiate a fair price with international buyers.    To make a lasting difference in the lives of those coffee growers, by paying them fairly and according to the quality of their coffee, to prevent families from being broken apart because parents or young adults must leave their home countries and families to come to the United States to work illegally, my business plan had to change.    If Ferra Coffee sold only to distributors in the State of Texas or any other domestic state, we could only expect to sell one or two pallets of approximately 1200 pounds at a time. In contrast, when we are able to secure an international contract with an international distributor, orders are generally for at least one full container, which is 48,000 pounds average. It is easy to see the advantage.    Behind each bag of Ferra Organic Flavor Coffee, or each bag of Ferra Liquid Coffee, there are seven U.S. small businesses that supply products and services contributing to our finished product, that is labeled USDA organic, roasted, Q graded, and manufactured in San Antonio, Texas.    Ferra Coffee has successfully started offering our roasted specialty coffees internationally, thanks to the support that the EXIM Bank has provided. By their doing due diligence in checking that the distributors with whom we establish relationships and make contracts are legitimate, and that we do not get involved with dubious, unreliable, or criminal groups while conducting international trade, the EXIM Bank has truly ensured our success.    The EXIM Bank also literally insures payment of our shipments, and has given my company the peace of mind of knowing that the value of the product shipped is secure and legally insured. The EXIM Bank also allows me the ability to offer products that have a higher quality for the gourmet market.    Ferra Coffee International, along with the other small companies that are our partners, completely depends for our growth and survival on our ability to sell internationally. Internationally, there is no market saturation, and USA made and USDA organic products have a great deal of value to the consumer.    The EXIM Bank is the one and only entity that we can rely on to help us continue to grow, be competitive in markets that are not available to us in our own country, and to give us the necessary competitive edge in international trade.    My small company, by purchasing coffee directly from the growers is contributing to stopping illegal immigration and the displacement of family units. We also help seven other small U.S. businesses with opportunities to hire more workers and increase their revenue by purchasing more products for international contracts.    Without the EXIM Bank offering their services that allow my company to engage in this type of international trade contracts, I will not be able to grow my business beyond the saturated coffee market that we have in the U.S.A.    The EXIM Bank can also do so much more. It can help me, and other companies like mine which conduct businesses that are usually not funded by the regular bank system because we have contracts in international markets. By not acting as a conventional bank to qualify exporters like me for financial low interest loans. Instead of using only a credit score to qualify a company for funding, EXIM Bank could look at, and assess the overall potential, growth, and increased revenue that can be achieved by additional funding. That is the vision that is needed, and that what we are asking for.    My company is not able to get loans from conventional banks because all of my products are bought in cash. That is the way the majority of specialty coffee and tea companies operate. We do not have a history of loan payments or credit with coffee or tea growers. We need the EXIM Bank's support.    The EXIM Bank is a crucial, vital and important entity that I and many other U.S. exporting companies depend on for survival, growth, and the ability to compete successfully in business. Every U.S.A. company that has the capability to export and do business internationally, whether that company is small or large, contributes to the health of our national economy and our country's leadership in innovation, in the development of more qualified and competitive businesses, and of individuals who see our potential markets as global opportunities for the kind of success that is indeed, the greater good.    Every aspect of the EXIM Bank has the potential to create positive and strong advancement for the good of all of us, and the good of U.S.A.    Thank you for your time, kind attention, and for inviting to share my story on behalf of all exporters in the U.S.A.    [The prepared statement of Ms. Jaime &lt;greek-l&gt;Jones deg.follows:]                              ----------                              </t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Poe. Thank you, Ms. Jaime. Ms. Seidewand.</t>
-  </si>
-  <si>
-    <t>Seidewand</t>
   </si>
   <si>
     <t xml:space="preserve">    Ms. Seidewand. Thank you, Chairman Poe, Ranking Member Keating, and the other subcommittee members for inviting me. I hope that my story can actually point to the interconnection of small- and medium-size businesses across the United States as exporters, some direct, and some indirect.    Resin Technology is a now $100 million global petrochemical trading and compounding company. It has been in operation for close to 20 years. I am second generation of my family business. It was started by my parents and it is still a father-daughter run business today. We sell about 98 percent U.S.-made petrochemicals in Houston, Texas. It is an extremely important area for us. And we export into over 30 countries worldwide, some developing nations, and more mature economies. The majority of our sales go into vinyl construction products worldwide such as water pipe, windows, wire and cable, and even some more sophisticated engineered parts, all dependent on the level of development in those import countries.    Today, our largest export markets are Canada, Europe, very importantly, the Caribbean and Mexico, Latin and South America account for about 50 percent of 2014 sales. It should be noted that we started the business at about 70 percent U.S. sales and with the help of EXIM financing it is now over 70 percent export sales. So it has made a huge difference in sort of where our business has gone.    We have fierce competition from large commodity international trading firms and foreign producers, the largest ones being between Korea, China, and especially Japan where they sell very much on price and very low cost to no cost financing in markets where we have to compete.    Prior to the housing decline, we were solely focused in the U.S. and Canadian markets with over 70 percent sales in the U.S. We started exporting at the end of '06, doubled our sales, year on year for many years. And we didn't really have the idea that the housing boom would persist, so we knew that export needed to be a part of our future growth plan. And obviously, 2008, 2009 proved that point very clearly and we needed to compensate for those lower sales since everything really--the largest portion goes into construction projects.    In 2011, Bank of America suggested using Export-Import Bank to back our export receivables and inventory via a working capital guarantee program where domestic sales remain under their current structure. We had for probably 2 years tried to find other ways to finance our exports with Bank of America by increasing the size of our insurance policies. We looked at inventory appraisals to try and increase the advance rates. We do use an external credit insurance agency which is a big portion of our--what is underwritten. But it never could meet the size that we needed to really compete in the export market on the buy and on the sell side because a very important part of our business is being able to finance the supply side with these major Fortune 500 companies.    What we did was increase our advance rates up to 90 percent of receivables and 75 percent of export inventory, affording us to be able to compete with our Asian counterparts which is the most important part because oftentimes they have not only subsidies on their freight, but their financing seems almost zero to very low in comparison and offer extremely long terms where we normally try to finance 60 to 90 days. Sometimes they will finance 120, 270 days. It is a very different Wild West in certain areas of market. And since our product is a more commodity element, the 75 percent loan rate than inventory really isn't considered excessive and our credit that we do with customers is the Euler-Hermes credit insurance policy or via letters of credit all with Bank of America or with local banks in the United States.    In our view, the Working Capital Guarantee Program with EXIM has been more disciplined. They have audited us more often than even our domestic program has. They have very detailed, down to customer level on sales. We have to provide waiver letters for foreign currency transactions which is very important in our markets. There is tough management on credit overseas and we also have to have comprehensive marine and warehouse insurance policies.    EXIM financing is actually somewhat expensive but where we couldn't find any other options that didn't include factoring or discounting by the bank with letters of credit where none of customers can, there really was no other option for us to really increase to where we needed to be. And really, Bank of America said they just couldn't justify the export receivables because they didn't have the global infrastructure or for inventory if something did go wrong to actually collect on those receivables which is a very important point.    But the other point that I first brought up was how we partner with hundreds of small to medium size U.S. businesses across the United States. We are in the Boston market and obviously we have people there, but also we have a lot of people that are near the ports in Houston and Louisiana that do trucking, toll blending, packaging, warehousing, freight forwarding, ones that don't even realize how much they would be affected if trade by EXIM wasn't financed.    Three such firms that I have mentioned before, Fleur De Lis Worldwide, which is in Chairman Poe's area; TCI, a packaging and trucking firm in New Orleans, Louisiana; and JPI South in Pasadena, Texas, all have doubled and tripled their workforces from our loyalty in working and partnering together.    Now with the new boom that we may see in front of us, petrochemicals, it is even more important for us to capitalize on those. We personally have doubled our workforce from 4 to 12 people and we have actually opened an office in Houston because of the concentration that we need there.</t>
@@ -1192,11 +1144,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1216,13 +1166,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1244,11 +1192,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1268,13 +1214,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1296,11 +1240,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1320,13 +1262,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1348,11 +1288,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1372,13 +1310,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
         <v>22</v>
-      </c>
-      <c r="G9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1400,11 +1336,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1424,13 +1358,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1452,11 +1384,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1476,13 +1406,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" t="s">
-        <v>33</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1504,11 +1432,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1528,13 +1454,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>36</v>
-      </c>
-      <c r="G15" t="s">
-        <v>37</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1556,11 +1480,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1580,13 +1502,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>36</v>
-      </c>
-      <c r="G17" t="s">
-        <v>40</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1608,11 +1528,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1632,13 +1550,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>36</v>
-      </c>
-      <c r="G19" t="s">
-        <v>43</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1660,11 +1576,9 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1684,13 +1598,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>36</v>
-      </c>
-      <c r="G21" t="s">
-        <v>43</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1712,11 +1624,9 @@
       <c r="F22" t="s">
         <v>11</v>
       </c>
-      <c r="G22" t="s">
-        <v>12</v>
-      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1736,13 +1646,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>36</v>
-      </c>
-      <c r="G23" t="s">
-        <v>37</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1764,11 +1672,9 @@
       <c r="F24" t="s">
         <v>11</v>
       </c>
-      <c r="G24" t="s">
-        <v>12</v>
-      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1788,13 +1694,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>36</v>
-      </c>
-      <c r="G25" t="s">
-        <v>37</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1814,13 +1718,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>22</v>
-      </c>
-      <c r="G26" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1842,11 +1744,9 @@
       <c r="F27" t="s">
         <v>11</v>
       </c>
-      <c r="G27" t="s">
-        <v>12</v>
-      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1866,13 +1766,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>36</v>
-      </c>
-      <c r="G28" t="s">
-        <v>37</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1894,11 +1792,9 @@
       <c r="F29" t="s">
         <v>11</v>
       </c>
-      <c r="G29" t="s">
-        <v>12</v>
-      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1918,13 +1814,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>36</v>
-      </c>
-      <c r="G30" t="s">
-        <v>37</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1946,11 +1840,9 @@
       <c r="F31" t="s">
         <v>11</v>
       </c>
-      <c r="G31" t="s">
-        <v>12</v>
-      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1970,13 +1862,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>36</v>
-      </c>
-      <c r="G32" t="s">
-        <v>37</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1998,11 +1888,9 @@
       <c r="F33" t="s">
         <v>11</v>
       </c>
-      <c r="G33" t="s">
-        <v>12</v>
-      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2022,13 +1910,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>36</v>
-      </c>
-      <c r="G34" t="s">
-        <v>37</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2050,11 +1936,9 @@
       <c r="F35" t="s">
         <v>11</v>
       </c>
-      <c r="G35" t="s">
-        <v>12</v>
-      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2074,13 +1958,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>36</v>
-      </c>
-      <c r="G36" t="s">
-        <v>37</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2102,11 +1984,9 @@
       <c r="F37" t="s">
         <v>11</v>
       </c>
-      <c r="G37" t="s">
-        <v>12</v>
-      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2126,13 +2006,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>36</v>
-      </c>
-      <c r="G38" t="s">
-        <v>37</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2154,11 +2032,9 @@
       <c r="F39" t="s">
         <v>11</v>
       </c>
-      <c r="G39" t="s">
-        <v>12</v>
-      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2178,13 +2054,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>36</v>
-      </c>
-      <c r="G40" t="s">
-        <v>37</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2206,11 +2080,9 @@
       <c r="F41" t="s">
         <v>11</v>
       </c>
-      <c r="G41" t="s">
-        <v>12</v>
-      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2230,13 +2102,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>36</v>
-      </c>
-      <c r="G42" t="s">
-        <v>37</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2258,11 +2128,9 @@
       <c r="F43" t="s">
         <v>11</v>
       </c>
-      <c r="G43" t="s">
-        <v>12</v>
-      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2282,13 +2150,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>14</v>
-      </c>
-      <c r="G44" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2308,13 +2174,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>36</v>
-      </c>
-      <c r="G45" t="s">
-        <v>37</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2334,13 +2198,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>14</v>
-      </c>
-      <c r="G46" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2360,13 +2222,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>36</v>
-      </c>
-      <c r="G47" t="s">
-        <v>40</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2386,13 +2246,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>14</v>
-      </c>
-      <c r="G48" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2414,11 +2272,9 @@
       <c r="F49" t="s">
         <v>11</v>
       </c>
-      <c r="G49" t="s">
-        <v>12</v>
-      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2438,13 +2294,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>28</v>
-      </c>
-      <c r="G50" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2464,13 +2318,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>36</v>
-      </c>
-      <c r="G51" t="s">
-        <v>37</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2490,13 +2342,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>28</v>
-      </c>
-      <c r="G52" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2516,13 +2366,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>36</v>
-      </c>
-      <c r="G53" t="s">
-        <v>37</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2542,13 +2390,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>28</v>
-      </c>
-      <c r="G54" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2568,13 +2414,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>36</v>
-      </c>
-      <c r="G55" t="s">
-        <v>37</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2594,13 +2438,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>28</v>
-      </c>
-      <c r="G56" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2620,13 +2462,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>36</v>
-      </c>
-      <c r="G57" t="s">
-        <v>37</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2646,13 +2486,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>28</v>
-      </c>
-      <c r="G58" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2672,13 +2510,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>36</v>
-      </c>
-      <c r="G59" t="s">
-        <v>37</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2698,13 +2534,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>28</v>
-      </c>
-      <c r="G60" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2724,13 +2558,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>36</v>
-      </c>
-      <c r="G61" t="s">
-        <v>37</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2750,13 +2582,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>28</v>
-      </c>
-      <c r="G62" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2776,13 +2606,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>36</v>
-      </c>
-      <c r="G63" t="s">
-        <v>37</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2802,13 +2630,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>28</v>
-      </c>
-      <c r="G64" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2828,13 +2654,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>36</v>
-      </c>
-      <c r="G65" t="s">
-        <v>37</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2854,13 +2678,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>28</v>
-      </c>
-      <c r="G66" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2880,13 +2702,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>36</v>
-      </c>
-      <c r="G67" t="s">
-        <v>37</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2906,13 +2726,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>28</v>
-      </c>
-      <c r="G68" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2932,13 +2750,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>36</v>
-      </c>
-      <c r="G69" t="s">
-        <v>37</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2958,13 +2774,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>28</v>
-      </c>
-      <c r="G70" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2984,13 +2798,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>36</v>
-      </c>
-      <c r="G71" t="s">
-        <v>37</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3010,13 +2822,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>28</v>
-      </c>
-      <c r="G72" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3036,13 +2846,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>36</v>
-      </c>
-      <c r="G73" t="s">
-        <v>37</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3062,13 +2870,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>28</v>
-      </c>
-      <c r="G74" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3088,13 +2894,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>36</v>
-      </c>
-      <c r="G75" t="s">
-        <v>37</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3114,13 +2918,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>28</v>
-      </c>
-      <c r="G76" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3142,11 +2944,9 @@
       <c r="F77" t="s">
         <v>11</v>
       </c>
-      <c r="G77" t="s">
-        <v>12</v>
-      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3166,13 +2966,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>22</v>
-      </c>
-      <c r="G78" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3192,13 +2990,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>36</v>
-      </c>
-      <c r="G79" t="s">
-        <v>37</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3218,13 +3014,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>22</v>
-      </c>
-      <c r="G80" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3244,13 +3038,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>36</v>
-      </c>
-      <c r="G81" t="s">
-        <v>43</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3270,13 +3062,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>22</v>
-      </c>
-      <c r="G82" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3296,13 +3086,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>36</v>
-      </c>
-      <c r="G83" t="s">
-        <v>37</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3322,13 +3110,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>22</v>
-      </c>
-      <c r="G84" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3348,13 +3134,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>36</v>
-      </c>
-      <c r="G85" t="s">
-        <v>37</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3374,13 +3158,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>22</v>
-      </c>
-      <c r="G86" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3400,13 +3182,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>36</v>
-      </c>
-      <c r="G87" t="s">
-        <v>37</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3426,13 +3206,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>22</v>
-      </c>
-      <c r="G88" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3454,11 +3232,9 @@
       <c r="F89" t="s">
         <v>11</v>
       </c>
-      <c r="G89" t="s">
-        <v>12</v>
-      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3478,13 +3254,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>18</v>
-      </c>
-      <c r="G90" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3504,13 +3278,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>36</v>
-      </c>
-      <c r="G91" t="s">
-        <v>40</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3530,13 +3302,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>18</v>
-      </c>
-      <c r="G92" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3556,13 +3326,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>36</v>
-      </c>
-      <c r="G93" t="s">
-        <v>40</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3582,13 +3350,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>18</v>
-      </c>
-      <c r="G94" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3608,13 +3374,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>36</v>
-      </c>
-      <c r="G95" t="s">
-        <v>40</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3634,13 +3398,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>18</v>
-      </c>
-      <c r="G96" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3660,13 +3422,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>36</v>
-      </c>
-      <c r="G97" t="s">
-        <v>40</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3686,13 +3446,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>18</v>
-      </c>
-      <c r="G98" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3712,13 +3470,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>36</v>
-      </c>
-      <c r="G99" t="s">
-        <v>37</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3738,13 +3494,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>18</v>
-      </c>
-      <c r="G100" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3764,13 +3518,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>36</v>
-      </c>
-      <c r="G101" t="s">
-        <v>37</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3790,13 +3542,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>18</v>
-      </c>
-      <c r="G102" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3816,13 +3566,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>36</v>
-      </c>
-      <c r="G103" t="s">
-        <v>43</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3842,13 +3590,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>18</v>
-      </c>
-      <c r="G104" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3868,13 +3614,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>36</v>
-      </c>
-      <c r="G105" t="s">
-        <v>37</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3894,13 +3638,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>18</v>
-      </c>
-      <c r="G106" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3922,11 +3664,9 @@
       <c r="F107" t="s">
         <v>11</v>
       </c>
-      <c r="G107" t="s">
-        <v>12</v>
-      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3946,13 +3686,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>133</v>
-      </c>
-      <c r="G108" t="s">
-        <v>134</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3972,13 +3710,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>36</v>
-      </c>
-      <c r="G109" t="s">
-        <v>37</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3998,13 +3734,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>133</v>
-      </c>
-      <c r="G110" t="s">
-        <v>134</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4024,13 +3758,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>36</v>
-      </c>
-      <c r="G111" t="s">
-        <v>37</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4050,13 +3782,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>133</v>
-      </c>
-      <c r="G112" t="s">
-        <v>134</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4076,13 +3806,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>36</v>
-      </c>
-      <c r="G113" t="s">
-        <v>37</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4102,13 +3830,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>36</v>
-      </c>
-      <c r="G114" t="s">
-        <v>40</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4128,13 +3854,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>36</v>
-      </c>
-      <c r="G115" t="s">
-        <v>43</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4154,13 +3878,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
+        <v>124</v>
+      </c>
+      <c r="G116" t="s"/>
+      <c r="H116" t="s">
         <v>133</v>
-      </c>
-      <c r="G116" t="s">
-        <v>134</v>
-      </c>
-      <c r="H116" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4182,11 +3904,9 @@
       <c r="F117" t="s">
         <v>11</v>
       </c>
-      <c r="G117" t="s">
-        <v>12</v>
-      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4206,13 +3926,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>145</v>
-      </c>
-      <c r="G118" t="s">
-        <v>146</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4232,13 +3950,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>36</v>
-      </c>
-      <c r="G119" t="s">
-        <v>37</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4258,13 +3974,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>145</v>
-      </c>
-      <c r="G120" t="s">
-        <v>146</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4284,13 +3998,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>36</v>
-      </c>
-      <c r="G121" t="s">
-        <v>37</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4310,13 +4022,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>145</v>
-      </c>
-      <c r="G122" t="s">
-        <v>146</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4336,13 +4046,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>36</v>
-      </c>
-      <c r="G123" t="s">
-        <v>37</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4362,13 +4070,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>145</v>
-      </c>
-      <c r="G124" t="s">
-        <v>146</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4388,13 +4094,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>36</v>
-      </c>
-      <c r="G125" t="s">
-        <v>37</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4414,13 +4118,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>145</v>
-      </c>
-      <c r="G126" t="s">
-        <v>146</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4440,13 +4142,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>36</v>
-      </c>
-      <c r="G127" t="s">
-        <v>37</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4466,13 +4166,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>145</v>
-      </c>
-      <c r="G128" t="s">
+        <v>135</v>
+      </c>
+      <c r="G128" t="s"/>
+      <c r="H128" t="s">
         <v>146</v>
-      </c>
-      <c r="H128" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4494,11 +4192,9 @@
       <c r="F129" t="s">
         <v>11</v>
       </c>
-      <c r="G129" t="s">
-        <v>12</v>
-      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4518,13 +4214,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>159</v>
-      </c>
-      <c r="G130" t="s">
-        <v>160</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4544,13 +4238,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>36</v>
-      </c>
-      <c r="G131" t="s">
-        <v>37</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4570,13 +4262,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>159</v>
-      </c>
-      <c r="G132" t="s">
-        <v>160</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4596,13 +4286,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>36</v>
-      </c>
-      <c r="G133" t="s">
-        <v>40</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4622,13 +4310,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>36</v>
-      </c>
-      <c r="G134" t="s">
-        <v>43</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4648,13 +4334,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>159</v>
-      </c>
-      <c r="G135" t="s">
-        <v>160</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4676,11 +4360,9 @@
       <c r="F136" t="s">
         <v>11</v>
       </c>
-      <c r="G136" t="s">
-        <v>12</v>
-      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4700,13 +4382,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>36</v>
-      </c>
-      <c r="G137" t="s">
-        <v>168</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4726,13 +4406,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>36</v>
-      </c>
-      <c r="G138" t="s">
-        <v>40</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4752,13 +4430,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>36</v>
-      </c>
-      <c r="G139" t="s">
-        <v>168</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4778,13 +4454,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>36</v>
-      </c>
-      <c r="G140" t="s">
-        <v>40</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4804,13 +4478,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>36</v>
-      </c>
-      <c r="G141" t="s">
-        <v>168</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4830,13 +4502,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>36</v>
-      </c>
-      <c r="G142" t="s">
-        <v>40</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4856,13 +4526,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>36</v>
-      </c>
-      <c r="G143" t="s">
-        <v>168</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4882,13 +4550,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>36</v>
-      </c>
-      <c r="G144" t="s">
-        <v>40</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4908,13 +4574,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>36</v>
-      </c>
-      <c r="G145" t="s">
-        <v>168</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4934,13 +4598,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>36</v>
-      </c>
-      <c r="G146" t="s">
-        <v>40</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4960,13 +4622,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>36</v>
-      </c>
-      <c r="G147" t="s">
-        <v>168</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4986,13 +4646,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>36</v>
-      </c>
-      <c r="G148" t="s">
-        <v>37</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -5012,13 +4670,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>36</v>
-      </c>
-      <c r="G149" t="s">
+        <v>30</v>
+      </c>
+      <c r="G149" t="s"/>
+      <c r="H149" t="s">
         <v>168</v>
-      </c>
-      <c r="H149" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5038,13 +4694,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>36</v>
-      </c>
-      <c r="G150" t="s">
-        <v>37</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5064,13 +4718,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>36</v>
-      </c>
-      <c r="G151" t="s">
-        <v>168</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5090,13 +4742,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>36</v>
-      </c>
-      <c r="G152" t="s">
-        <v>37</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5116,13 +4766,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>36</v>
-      </c>
-      <c r="G153" t="s">
-        <v>168</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5142,13 +4790,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>36</v>
-      </c>
-      <c r="G154" t="s">
-        <v>37</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5168,13 +4814,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>36</v>
-      </c>
-      <c r="G155" t="s">
-        <v>168</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5194,13 +4838,11 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>36</v>
-      </c>
-      <c r="G156" t="s">
-        <v>37</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5220,13 +4862,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>36</v>
-      </c>
-      <c r="G157" t="s">
-        <v>168</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5246,13 +4886,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>36</v>
-      </c>
-      <c r="G158" t="s">
-        <v>37</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5272,13 +4910,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>36</v>
-      </c>
-      <c r="G159" t="s">
-        <v>168</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5298,13 +4934,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>36</v>
-      </c>
-      <c r="G160" t="s">
-        <v>37</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5324,13 +4958,11 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>36</v>
-      </c>
-      <c r="G161" t="s">
-        <v>168</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5352,11 +4984,9 @@
       <c r="F162" t="s">
         <v>11</v>
       </c>
-      <c r="G162" t="s">
-        <v>12</v>
-      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5376,13 +5006,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>36</v>
-      </c>
-      <c r="G163" t="s">
-        <v>168</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5404,11 +5032,9 @@
       <c r="F164" t="s">
         <v>11</v>
       </c>
-      <c r="G164" t="s">
-        <v>12</v>
-      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5428,13 +5054,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>36</v>
-      </c>
-      <c r="G165" t="s">
-        <v>196</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5456,11 +5080,9 @@
       <c r="F166" t="s">
         <v>11</v>
       </c>
-      <c r="G166" t="s">
-        <v>12</v>
-      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5480,13 +5102,11 @@
         <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>36</v>
-      </c>
-      <c r="G167" t="s">
-        <v>196</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5508,11 +5128,9 @@
       <c r="F168" t="s">
         <v>11</v>
       </c>
-      <c r="G168" t="s">
-        <v>12</v>
-      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5534,11 +5152,9 @@
       <c r="F169" t="s">
         <v>11</v>
       </c>
-      <c r="G169" t="s">
-        <v>12</v>
-      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5558,13 +5174,11 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>36</v>
-      </c>
-      <c r="G170" t="s">
-        <v>202</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5586,11 +5200,9 @@
       <c r="F171" t="s">
         <v>11</v>
       </c>
-      <c r="G171" t="s">
-        <v>12</v>
-      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5610,13 +5222,11 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>36</v>
-      </c>
-      <c r="G172" t="s">
-        <v>205</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5638,11 +5248,9 @@
       <c r="F173" t="s">
         <v>11</v>
       </c>
-      <c r="G173" t="s">
-        <v>12</v>
-      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5662,13 +5270,11 @@
         <v>10</v>
       </c>
       <c r="F174" t="s">
-        <v>36</v>
-      </c>
-      <c r="G174" t="s">
-        <v>205</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5690,11 +5296,9 @@
       <c r="F175" t="s">
         <v>11</v>
       </c>
-      <c r="G175" t="s">
-        <v>12</v>
-      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5714,13 +5318,11 @@
         <v>10</v>
       </c>
       <c r="F176" t="s">
-        <v>36</v>
-      </c>
-      <c r="G176" t="s">
-        <v>205</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5742,11 +5344,9 @@
       <c r="F177" t="s">
         <v>11</v>
       </c>
-      <c r="G177" t="s">
-        <v>12</v>
-      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5766,13 +5366,11 @@
         <v>10</v>
       </c>
       <c r="F178" t="s">
-        <v>36</v>
-      </c>
-      <c r="G178" t="s">
-        <v>202</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5794,11 +5392,9 @@
       <c r="F179" t="s">
         <v>11</v>
       </c>
-      <c r="G179" t="s">
-        <v>12</v>
-      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5818,13 +5414,11 @@
         <v>10</v>
       </c>
       <c r="F180" t="s">
-        <v>36</v>
-      </c>
-      <c r="G180" t="s">
-        <v>202</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5846,11 +5440,9 @@
       <c r="F181" t="s">
         <v>11</v>
       </c>
-      <c r="G181" t="s">
-        <v>12</v>
-      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5870,13 +5462,11 @@
         <v>10</v>
       </c>
       <c r="F182" t="s">
-        <v>36</v>
-      </c>
-      <c r="G182" t="s">
-        <v>202</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5898,11 +5488,9 @@
       <c r="F183" t="s">
         <v>11</v>
       </c>
-      <c r="G183" t="s">
-        <v>12</v>
-      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5922,13 +5510,11 @@
         <v>10</v>
       </c>
       <c r="F184" t="s">
-        <v>36</v>
-      </c>
-      <c r="G184" t="s">
+        <v>30</v>
+      </c>
+      <c r="G184" t="s"/>
+      <c r="H184" t="s">
         <v>202</v>
-      </c>
-      <c r="H184" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5950,11 +5536,9 @@
       <c r="F185" t="s">
         <v>11</v>
       </c>
-      <c r="G185" t="s">
-        <v>12</v>
-      </c>
+      <c r="G185" t="s"/>
       <c r="H185" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5974,13 +5558,11 @@
         <v>10</v>
       </c>
       <c r="F186" t="s">
-        <v>36</v>
-      </c>
-      <c r="G186" t="s">
-        <v>202</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G186" t="s"/>
       <c r="H186" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6002,11 +5584,9 @@
       <c r="F187" t="s">
         <v>11</v>
       </c>
-      <c r="G187" t="s">
-        <v>12</v>
-      </c>
+      <c r="G187" t="s"/>
       <c r="H187" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6026,13 +5606,11 @@
         <v>10</v>
       </c>
       <c r="F188" t="s">
-        <v>36</v>
-      </c>
-      <c r="G188" t="s">
-        <v>202</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G188" t="s"/>
       <c r="H188" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6054,11 +5632,9 @@
       <c r="F189" t="s">
         <v>11</v>
       </c>
-      <c r="G189" t="s">
-        <v>12</v>
-      </c>
+      <c r="G189" t="s"/>
       <c r="H189" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6078,13 +5654,11 @@
         <v>10</v>
       </c>
       <c r="F190" t="s">
-        <v>36</v>
-      </c>
-      <c r="G190" t="s">
-        <v>202</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G190" t="s"/>
       <c r="H190" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6106,11 +5680,9 @@
       <c r="F191" t="s">
         <v>11</v>
       </c>
-      <c r="G191" t="s">
-        <v>12</v>
-      </c>
+      <c r="G191" t="s"/>
       <c r="H191" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6130,13 +5702,11 @@
         <v>10</v>
       </c>
       <c r="F192" t="s">
-        <v>36</v>
-      </c>
-      <c r="G192" t="s">
-        <v>205</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G192" t="s"/>
       <c r="H192" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6158,11 +5728,9 @@
       <c r="F193" t="s">
         <v>11</v>
       </c>
-      <c r="G193" t="s">
-        <v>12</v>
-      </c>
+      <c r="G193" t="s"/>
       <c r="H193" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6182,13 +5750,11 @@
         <v>10</v>
       </c>
       <c r="F194" t="s">
-        <v>36</v>
-      </c>
-      <c r="G194" t="s">
-        <v>205</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G194" t="s"/>
       <c r="H194" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6210,11 +5776,9 @@
       <c r="F195" t="s">
         <v>11</v>
       </c>
-      <c r="G195" t="s">
-        <v>12</v>
-      </c>
+      <c r="G195" t="s"/>
       <c r="H195" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6234,13 +5798,11 @@
         <v>10</v>
       </c>
       <c r="F196" t="s">
-        <v>36</v>
-      </c>
-      <c r="G196" t="s">
-        <v>205</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G196" t="s"/>
       <c r="H196" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6262,11 +5824,9 @@
       <c r="F197" t="s">
         <v>11</v>
       </c>
-      <c r="G197" t="s">
-        <v>12</v>
-      </c>
+      <c r="G197" t="s"/>
       <c r="H197" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6286,13 +5846,11 @@
         <v>10</v>
       </c>
       <c r="F198" t="s">
-        <v>36</v>
-      </c>
-      <c r="G198" t="s">
-        <v>205</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G198" t="s"/>
       <c r="H198" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6314,11 +5872,9 @@
       <c r="F199" t="s">
         <v>11</v>
       </c>
-      <c r="G199" t="s">
-        <v>12</v>
-      </c>
+      <c r="G199" t="s"/>
       <c r="H199" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6338,13 +5894,11 @@
         <v>10</v>
       </c>
       <c r="F200" t="s">
-        <v>36</v>
-      </c>
-      <c r="G200" t="s">
-        <v>205</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G200" t="s"/>
       <c r="H200" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -6366,11 +5920,9 @@
       <c r="F201" t="s">
         <v>11</v>
       </c>
-      <c r="G201" t="s">
-        <v>12</v>
-      </c>
+      <c r="G201" t="s"/>
       <c r="H201" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -6390,13 +5942,11 @@
         <v>10</v>
       </c>
       <c r="F202" t="s">
-        <v>14</v>
-      </c>
-      <c r="G202" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G202" t="s"/>
       <c r="H202" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -6416,13 +5966,11 @@
         <v>10</v>
       </c>
       <c r="F203" t="s">
-        <v>36</v>
-      </c>
-      <c r="G203" t="s">
-        <v>205</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G203" t="s"/>
       <c r="H203" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -6442,13 +5990,11 @@
         <v>10</v>
       </c>
       <c r="F204" t="s">
-        <v>14</v>
-      </c>
-      <c r="G204" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G204" t="s"/>
       <c r="H204" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -6468,13 +6014,11 @@
         <v>10</v>
       </c>
       <c r="F205" t="s">
-        <v>36</v>
-      </c>
-      <c r="G205" t="s">
-        <v>205</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G205" t="s"/>
       <c r="H205" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -6494,13 +6038,11 @@
         <v>10</v>
       </c>
       <c r="F206" t="s">
-        <v>14</v>
-      </c>
-      <c r="G206" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G206" t="s"/>
       <c r="H206" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -6520,13 +6062,11 @@
         <v>10</v>
       </c>
       <c r="F207" t="s">
-        <v>14</v>
-      </c>
-      <c r="G207" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G207" t="s"/>
       <c r="H207" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -6546,13 +6086,11 @@
         <v>10</v>
       </c>
       <c r="F208" t="s">
-        <v>14</v>
-      </c>
-      <c r="G208" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G208" t="s"/>
       <c r="H208" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -6572,13 +6110,11 @@
         <v>10</v>
       </c>
       <c r="F209" t="s">
-        <v>14</v>
-      </c>
-      <c r="G209" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G209" t="s"/>
       <c r="H209" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -6598,13 +6134,11 @@
         <v>10</v>
       </c>
       <c r="F210" t="s">
-        <v>14</v>
-      </c>
-      <c r="G210" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G210" t="s"/>
       <c r="H210" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -6624,13 +6158,11 @@
         <v>10</v>
       </c>
       <c r="F211" t="s">
-        <v>14</v>
-      </c>
-      <c r="G211" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G211" t="s"/>
       <c r="H211" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -6652,11 +6184,9 @@
       <c r="F212" t="s">
         <v>11</v>
       </c>
-      <c r="G212" t="s">
-        <v>12</v>
-      </c>
+      <c r="G212" t="s"/>
       <c r="H212" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -6676,13 +6206,11 @@
         <v>10</v>
       </c>
       <c r="F213" t="s">
-        <v>36</v>
-      </c>
-      <c r="G213" t="s">
-        <v>196</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G213" t="s"/>
       <c r="H213" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -6704,11 +6232,9 @@
       <c r="F214" t="s">
         <v>11</v>
       </c>
-      <c r="G214" t="s">
-        <v>12</v>
-      </c>
+      <c r="G214" t="s"/>
       <c r="H214" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -6728,13 +6254,11 @@
         <v>10</v>
       </c>
       <c r="F215" t="s">
-        <v>36</v>
-      </c>
-      <c r="G215" t="s">
-        <v>196</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G215" t="s"/>
       <c r="H215" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6756,11 +6280,9 @@
       <c r="F216" t="s">
         <v>11</v>
       </c>
-      <c r="G216" t="s">
-        <v>12</v>
-      </c>
+      <c r="G216" t="s"/>
       <c r="H216" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6780,13 +6302,11 @@
         <v>10</v>
       </c>
       <c r="F217" t="s">
-        <v>36</v>
-      </c>
-      <c r="G217" t="s">
-        <v>196</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G217" t="s"/>
       <c r="H217" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6808,11 +6328,9 @@
       <c r="F218" t="s">
         <v>11</v>
       </c>
-      <c r="G218" t="s">
-        <v>12</v>
-      </c>
+      <c r="G218" t="s"/>
       <c r="H218" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6832,13 +6350,11 @@
         <v>10</v>
       </c>
       <c r="F219" t="s">
-        <v>36</v>
-      </c>
-      <c r="G219" t="s">
-        <v>196</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G219" t="s"/>
       <c r="H219" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6860,11 +6376,9 @@
       <c r="F220" t="s">
         <v>11</v>
       </c>
-      <c r="G220" t="s">
-        <v>12</v>
-      </c>
+      <c r="G220" t="s"/>
       <c r="H220" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6886,11 +6400,9 @@
       <c r="F221" t="s">
         <v>11</v>
       </c>
-      <c r="G221" t="s">
-        <v>12</v>
-      </c>
+      <c r="G221" t="s"/>
       <c r="H221" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6910,13 +6422,11 @@
         <v>10</v>
       </c>
       <c r="F222" t="s">
-        <v>14</v>
-      </c>
-      <c r="G222" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G222" t="s"/>
       <c r="H222" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6936,13 +6446,11 @@
         <v>10</v>
       </c>
       <c r="F223" t="s">
-        <v>36</v>
-      </c>
-      <c r="G223" t="s">
-        <v>202</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G223" t="s"/>
       <c r="H223" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6962,13 +6470,11 @@
         <v>10</v>
       </c>
       <c r="F224" t="s">
-        <v>14</v>
-      </c>
-      <c r="G224" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G224" t="s"/>
       <c r="H224" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6990,11 +6496,9 @@
       <c r="F225" t="s">
         <v>11</v>
       </c>
-      <c r="G225" t="s">
-        <v>12</v>
-      </c>
+      <c r="G225" t="s"/>
       <c r="H225" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg94686.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg94686.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="270">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,24 @@
     <t>400652</t>
   </si>
   <si>
+    <t>Poe</t>
+  </si>
+  <si>
+    <t>Ted</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Poe. This subcommittee will come to order. Without objection, all members will have 5 days to submit statements, questions, and extraneous materials for the record, subject to the length limitation and the rules.    I will now make my opening statement. Trade is critical to the national economy of the U.S. For example, manufacturing jobs related to trade pay 18 percent more than manufacturing jobs that are not. Trade plays a key role in new jobs. If a company wants to expand, it has to reach new customers because 95 percent of the customers are outside the United States.    Trade is the lifeblood of my hometown of Houston, Texas. Over half of Houston's economy depends on trade. Houston has one of the largest ports in the world and it is the only gas capital of the world. Overall, trade supports more than one out of five jobs in Texas and Texas has been the top exporting state for 12 consecutive years. This is not just for large businesses either. Ninety-three percent of Texas exporters are small- and medium-size businesses. Texas is the number one state and Houston, Texas is the number one city when it comes to receiving support from EXIM.    There is no question about the importance of trade. We need trade to grow. What we are looking at today is the Federal Government's role in trade. Before us today we have three agencies in the Federal Government that promote trade and investment.    The Export-Import Bank is the official U.S. export credit agency. It provides direct loans, loan guaranties and export credit insurance to help finance U.S. exports of goods and services.    The Overseas Private Investment Corporation, or OPIC, is the official U.S. development finance institution. OPIC seeks to promote economic growth and developing economies by providing political risk insurance, project and investment fund financing, and other services to U.S. firms investing in those countries.    The U.S. Trade and Development Agency, or TDA, seeks to link U.S. businesses to export opportunities overseas that lead to economic growth and development in middle income countries by funding a range of pre-export activities.    The question before us today is do we need these agencies? Sixty other countries have export credit agencies of their own. Supporters of reauthorizing EXIM Bank argue that if Congress allows the EXIM Bank to expire, then these 60 other countries will be happy to jump in, put our American companies at a competitive disadvantage, and take business away from the U.S.    Some users of EXIM say they will go out of business without EXIM. Critics of the bank respond that subsidizing companies has no place in a free market system. But some of these same critics support government subsidies for terrorism risk insurance, flood insurance, they support the FDIC, and the National Credit Union Share Insurance Fund.    There is also substantial disagreement about exactly what this costs the taxpayer. Critics say due to some tricky accounting standards, taxpayers are left holding the bag, while the agencies themselves argue they return a surplus to the U.S. Treasury every year. Critics argue that Congress enacted reforms during the EXIM Bank's 2012 reauthorization, but claimed that these reforms were never implemented. EXIM disagrees, saying that it has completed and implemented all reforms.    While trade promotion agencies are supposed to promote trade that helps the U.S., many Americans have questions about helping foreign companies that are in the U.S. economy. Do big State Owned Enterprises, or SOEs, deserve taxpayer dollars on top of the money they get from their own governments? And what about American companies that are trying to compete against these industries?    At the same time, these agencies have a special focus on helping small business. Twenty-five percent of EXIM authorized money went to small businesses last year, exceeding its 20 percent requirement. Over the past 5 years, 75 percent of OPIC's supported projects have involved a U.S. small- or medium-size business.    Just last month, a former Export-Import Bank loan officer pled guilty to taking more than $78,000 in bribes for fast tracking unqualified loan applications. OPIC has similar examples of fraud. This is a good sign that fraud is identified and perpetrators are punished, but there seems to me that more could be done to prevent fraud in the first place.    So my hope is that this hearing can bring some clarity to this debate.    The American companies just need a level playing field to compete. No one innovates as well as the U.S. from the iPhone to hydraulic fracturing the United States is the world's leader in coming up with new ideas that create new jobs and a higher standard of living for everyone. For example, if you add up the 20 countries the United States has a trade agreement with, American manufacturers run a $50 billion trade surplus with them. That is what happens when we combine the strength of American spirit with a level playing field. American companies win.    Before turning to the ranking member for his opening remarks, I would like to submit to the record the testimonies in support of reauthorizing EXIM Bank from the Nuclear Energy Institute, Texas Association of Business, Texas Association of Manufacturers, and over 300 businesses in Texas. Hearing no objection, all of these testimonials from these 300 different groups in support of the EXIM Bank will be made part of the record.    Now I will turn to the ranking member, Mr. Keating, and the gentleman from Massachusetts may give his opening statement.</t>
   </si>
   <si>
     <t>412435</t>
   </si>
   <si>
+    <t>Keating</t>
+  </si>
+  <si>
+    <t>William</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Keating. Thank you, Mr. Chairman, for conducting this timely and bipartisan-spirited hearing. And thank you to our witnesses for taking the time to testify here today.    The agencies that are the subject of this hearing, the Export-Import Bank, the Overseas Private Investment Corporation, and the Trade and Development Agency each serve vital U.S. interests. Since its founding over eight decades ago, the EXIM Bank has helped finance U.S. exports of goods and services and contribute to U.S. employment where alternative financing is unavailable or to counter government backed export financing by foreign competitors.    It is estimated that the EXIM Bank helped to finance approximately $27.5 billion worth of American exports and supported more than 164,000 American jobs in Fiscal Year 2014 alone.    Small- and medium-size U.S. business benefit greatly from EXIM Bank's products, particularly its working capital guarantee, which enables small businesses to obtain loans, to purchase raw materials and supplies, and its export credit insurance, which covers the risk of nonpayment by international buyers and extends credit to qualified foreign customers.    The businesses that use these products aren't Fortune 100 companies. They are companies like Decas Cranberry Products, Inc., a family owned, small business in Carver, Massachusetts, in my district, that sells cranberries and cranberry products to Europe, Canada, Mexico, South America, and Asia as a direct result of the support provided by EXIM. Since using EXIM Bank's export credit insurance, Decas cranberry sales have reached $60 million, approximately 15 percent of which is export related.    The companies like Resin Technology of Groton, Mass., whose vice president, Carly Seidewand, is attempting to be here today and to share in how EXIM's working capital guarantee has helped her company, the company founded by her father. It increased sales and it expanded its workforce as a result.    As our economy continues to grow, it is essential that the EXIM Bank continue to provide its valuable services to thousands of American exporters and their families. For this reason, I am the co-sponsor of H.R. 1031, Promoting U.S. Jobs Through Export Act of 2015 which would reauthorize the EXIM Bank charter through 2022.    I am often intrigued by the answers I receive when I ask my peers and colleagues which company they believe is the largest American auto exporter? In today's ever connected global economy the answer should not surprise you. It is BMW Manufacturing Company. In 2014 alone, BMW exported $9.2 billion worth of passenger vehicles through the Port of Charleston, accounting for more than 260,000 vehicles. BMW's facility in Spartanburg, South Carolina remains the largest U.S. automobile exporter another year running. Last year, this facility announced $1 billion investments in production capacity increased to 450,000 vehicles, making it the largest BMW plant in the world.    In this increasingly global economy, it would be irresponsible for this Congress to fail to reauthorize the EXIM Bank which pays for itself and enables U.S. manufacturers to sell more products abroad and create new good jobs here at home.    Thank you, Mr. Chairman, and I yield back.</t>
   </si>
   <si>
@@ -67,6 +82,12 @@
     <t>400433</t>
   </si>
   <si>
+    <t>Wilson</t>
+  </si>
+  <si>
+    <t>Joe</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Wilson. Thank you, Mr. Chairman, for holding this important and timely bipartisan hearing. Within the 2nd Congressional District of South Carolina which I represent, is Zeus Corporation of Orangeburg, Prysmian Cable of Lexington, and HEY of Aiken. These three companies share a common bond. They all produce parts for the Boeing 787 Dreamliner which is currently being built outside of Charleston, South Carolina. And in just in the last 5 years, they now have 8,000 employees at the facility in Charleston. Zeus Corporation manufactures the tubing for the aircraft. Prysmian Cable makes the internal cable. And HEY produces the key interior components of the Dreamliner. Additionally, Thermal Engineering of Columbia provides composite painting of the Dreamliners creating jobs.    As we continue to debate reauthorization, I hope we can focus on the fact of jobs and that there are more than 60 competing international export credit agencies that undercut and destroy American jobs daily. In a perfect work, the Export-Import Bank would not not be needed, but unfortunately, Mr. Chairman, we do not live in a perfect world.    I am really grateful to hear my colleague from Massachusetts. We share a real appreciation of BMW. It is the largest single facility of BMW and South Carolina is the leading export of cars. We are also the leading manufacturer and exporter of tires. And so with Michelon, with Bridgestone, Continental, Giti, our state has made such progress and I am particularly grateful to find out that our friends and neighbors of Massachusetts appreciate this too. I yield back.</t>
   </si>
   <si>
@@ -76,6 +97,12 @@
     <t>400371</t>
   </si>
   <si>
+    <t>Sherman</t>
+  </si>
+  <si>
+    <t>Brad</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Sherman. Mr. Chairman, thank you for holding this hearing. I have been very involved in export administration agencies. When I sat in that chair, this subcommittee wrote a new charter for OPIC which passed the House of Representatives, and of course, the full committee overwhelmingly. Unfortunately, for reasons that escape me, there is the United States Senate. But I want to commend you, Ms. Littlefield, for following through regulation many of the policy provisions that were in the bill that passed this committee and the full committee by an overwhelming vote.    The hot issue now is EXIM. Mr. Chairman, unlike you, I gave 100 speeches in favor of the candidacy of George McGovern. But even I don't believe----</t>
   </si>
   <si>
@@ -91,6 +118,12 @@
     <t>412569</t>
   </si>
   <si>
+    <t>Perry</t>
+  </si>
+  <si>
+    <t>Scott</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Perry. Thank you, Mr. Chairman. Folks, thanks for being here. President Roosevelt created the Export-Import Bank in 1934 to promote U.S. sales overseas by providing loans to foreign entities looking to purchase American goods. Sounds like a good deal. However, when the government subsidizes an export for one company, other companies in the same sector might not get the same benefit and oftentimes hurts their sales and job creation.    The EXIM Bank may help a few American businesses, but at times it is definitely at the expense and hurting of others and we have heard from them. Some people categorize this as corporate welfare programs and pick winners and losers and have no rightful place in U.S. trade policy agenda. Although I think that unilateral disarmament as has already been stated is concerning, I think we should also be focusing on reducing the burden of domestic regulations and taxes which will spur productivity and employment while reducing the role and the necessary role of the Federal Government in the U.S. economy and understanding that 98 percent of sales abroad are done without the EXIM and I yield back.</t>
   </si>
   <si>
@@ -100,6 +133,12 @@
     <t>400641</t>
   </si>
   <si>
+    <t>Higgins</t>
+  </si>
+  <si>
+    <t>Brian</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Higgins. Thank you, Mr. Chairman, for holding this hearing. The U.S. trade promotion agencies play a critical role in boosting U.S. exports. They provide the bulwark against foreign governments that heavily subsidize their own domestic industries. In my western New York community, the Export-Import Bank has supported over $100 million in exports and more than 600 jobs.    Furthermore, the Export-Import Bank is self-sustaining and has generated more than $7 billion in excess revenues to the United States Treasury. Failing to undertake a long-term reauthorization of the Bank would only serve to hurt American businesses and workers. I look forward to the discussion today. Thank you for being here.</t>
   </si>
   <si>
@@ -109,18 +148,27 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Hochberg</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Hochberg. Chairman, Ranking Member, and distinguished members of the subcommittee, thank you for inviting me to testify about the role that EXIM plays in promoting commercial diplomacy, a critical component of American foreign policy.    In May 2012, EXIM was reauthorized with overwhelming bipartisan support, 330 members in the House and 78 in the Senate. The 2012 Reauthorization all put in place a number of reforms. And let me underscore, each and every one of those reforms has been implemented.    Since then, the Bank has continued to support U.S. private sector job growth including 164,000 jobs last year alone. We have also generated as has been stated, billions of dollars for the taxpayers including $675 million sent to the Treasury for deficit reduction in 2014.    EXIM fully believes and works with the private sector to support U.S. job growth. We do this in two ways. One, when the private sector is unwilling or unable to provide financing to exporters; and secondly, when U.S. exporters face foreign competition backed by other governments, EXIM works to level the playing field for U.S. businesses and their workers.    At one time, EXIM financed defense exports. However, since 1968, Congress has prohibited the Bank from financing most military sales. While almost all of EXIM's financing is commercial, U.S. companies with a defense presence can still benefit from EXIM nonetheless.    W.S. Darley is a fire equipment producer, headquartered in Illinois that manufactures in both Wisconsin and Iowa with a supply chain throughout America. Darley is a company that works in both the commercial and defense sectors. One way that Darley keeps its workforce fully deployed is by balancing between the two with roughly half their business being commercial.    Recently, EXIM financing empowered them to sell 32 fire trucks to Nigeria supporting 100 jobs. On top of that, the sale included training services for public service employees in Lagos. This transaction is but one example of how when countries build things together, they often form lasting bonds that go far beyond the commercial to serve our national interests.    In addition, as directed by Congress, the Bank requires some of our larger transactions to be shipped on U.S. flagged vessels, thereby supporting a strong merchant marine. Over the past 2 years alone, more than $90 million in shipping fees have been paid by foreign buyers to the U.S. Merchant Marine.    U.S. businesses operate in the global economy. American businesses and workers aren't simply competing against Chinese, Russian, or French counterparts. Often, they are competing against whole nations.    Last week, I met with my foreign counterparts, discussed the future of export credits. Congress has made it clear they would like the Treasury Secretary to ratchet down export credits. However, what I heard from Europe to Asia to South America was just the opposite. Our foreign counterparts intend to accelerate financial backing for their exporters as well as serving as a much-needed backstop.    When commercial banks withdraw from regions or sectors that are experiencing downturns, export credit agencies step forward and fill the gap so that domestic exporters don't lose sales or workers. In some way, EXIM is like a fire truck. You don't sell of a fire truck just because you haven't had a fire in the past few years.    We appreciate the widespread support, bipartisan support of EXIM and we are eager to continue to support American jobs as the Bank has done effectively and efficiently for over eight decades, providing long-term certainty to U.S. businesses, seeking to compete in overseas markets is imperative. Businesses need to make long-term plans to grow global sales, hire more workers, and invest in innovation. Those sales, in turn, lead to greater economic stability, both in the U.S. and abroad. And for all nations, economic stability is the foundation of security and peace.    In closing, as Congress considers reauthorization of EXIM Bank, I trust this committee will keep American competitiveness at the forefront. We appreciate the subcommittee's interest. We look forward to working with you to empower your constituents to export more, hire more American workers, and strengthen America's economic resilience to the global age ahead.    Thank you and I look forward to answering your questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Poe. Thank you, Mr. Hochberg. The Chair recognizes Ms. Littlefield for her opening statement.</t>
   </si>
   <si>
+    <t>Littlefield</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Littlefield. Mr. Chairman, Ranking Member Keating and members of the committee, thank you for inviting me here to testify before you today.    I am Elizabeth Littlefield, the President and CEO of the Overseas Private Investment Corporation (OPIC). OPIC is the U.S. Government's development finance institution. It mobilizes private capital investment flows into poor and developing countries to help solve critical development challenges and in so doing, it advances U.S. foreign policy and national security objectives. We do this by providing long-term loans, guarantees and political risk insurance to businesses investing much needed capital into these developing countries, capital that would not be invested there without OPIC's financing and risk-mitigating services.    And because businesses are willing to pay the full cost of our services and more, OPIC generates income for the taxpayer and has done so reliably for 37 straight years.    Since the end of World War II, a strong, bipartisan consensus has recognized the fundamental link between poverty, economic instability, and conflict. In conflict, vulnerable nations, foreign direct investment helps to create jobs, opportunity, hope, and stability. At the same time, OPIC support helps our U.S. clients, a large majority of whom are small businesses, to tap into those fast growing, dynamic, emerging markets creating jobs both at home and abroad.    Today, OPIC manages just under 600 long term investment projects in over 100 developing countries, principally in critical infrastructure, in power, private education, private healthcare, low-income housing, and microfinance and other financial services, all of these being sectors that contribute powerfully to sustainable economic development.    In every one of these projects, our private investors also have their capital at risk. Every one of these projects is centered on achieving positive and measurable development impact and every one of those aims to be commercially viable. So OPIC uses the power of the markets and business to tangibly deliver American development and foreign policy goals. The Agency provides an effective development that pays for itself and more.    More than one third of OPIC's entire portfolio is invested in post-conflict nations or nations currently vulnerable to conflict. My own work at OPIC reflects these national security priorities. While I have been at OPIC, I have been on the ground in Haiti, Liberia, South Sudan, Afghanistan, Jordan, Egypt, Tunisia, and others to help draw investments into those fragile countries.    In Afghanistan, OPIC's large portfolio of investments includes a cashmere processing facility, a state-of-the-art water bottling facility, and a highly successful small and medium enterprise lending facility, created in partnership with USAID which now supports successful job creating businesses in and around Kabul.    In Iraq, OPIC's investment portfolio supported the reconstruction of that country in many, many ways, ranging from microfinance lending to low-income housing to a dredging project to clear Iraq's water ways.    In Haiti, OPIC worked with USAID and a U.S. company to deliver micromortgages and housing reconstruction loans after that earthquake.    Even South Sudan. I traveled to Juba immediately following the initial peace agreement to identify critical infrastructure projects that could potentially be financed, taxpayer-free, with the private sector investment.    So in closing, OPIC's goal is to help fragile market economies grow and stabilize so that the odds of conflict are reduced or to help restore the foundation of the market economy after a conflict as our troops begin to come home. As former Secretary of Defense Robert Gates once put it, ``Development is one of America's great giant force multipliers.'' We agree.    Every single dollar that OPIC extends has a multiplier effect for national security. It has a multiplier effect for development and it has a multiplier effect for the taxpayer, as every $1 into OPIC's operations has generated up to $8 back to the Treasury, back in that deficit reduction.    Mr. Chairman, this is why we believe that OPIC is smart, lean, and market-driven development. Thank you very much and I welcome your questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Poe. Thank you, Ms. Littlefield. The Chair recognizes Ms. Zak for opening statement.</t>
   </si>
   <si>
+    <t>Zak</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Zak. Chairman Poe, Ranking Member Keating, and members of the subcommittee, thank you for your interest in USTDA's work to help U.S. companies create jobs here at home while promoting sustainable development abroad.    As we were preparing for today, my staff came across a quote. It was incredibly relevant to the topic of this hearing. It is from former Secretary of State Cordell Hull who said, ``When goods and products cross borders, armies don't.'' Secretary Hull understood what we at USTDA strongly believe, that robust, diplomatic trade relationships mean resilient economies and secure nations.    Now more than ever, given the impact of globalization, America's prosperity depends on trade with strong, stable states. Establishing secure markets and fostering trade ties is exactly what we do. In fact, it is part of the unique dual mandate that Congress gave us. That is to promote U.S. private sector participation in development projects in emerging markets with an emphasis on sectors with significant U.S. exports.    USTDA approaches this mission in three important ways. First, we help to build infrastructure for economic development, stable markets for U.S. exports, and secure routes for global trade. Colombia, for example, has been a strategic focus of U.S. engagement in Latin America for decades. As part of this engagement, USTDA maintained an active portfolio to not only build the infrastructure in Colombia, but also to strengthen diplomatic and economic ties. During the negotiations of the U.S.-Colombia Trade Promotion Agreement, USTDA helped the Port of Cartagena comply with the U.S. Customs Container Security Initiative. The port implemented changes from USTDA's technical assistance with the help of goods and services from several states. Moreover, Cartagena's designation as a CSI port strengthened commercial relations while enhancing the safety and security of cargo.    Second, our activities facilitate strategic partnerships to build long term trade ties. USTDA's public/private partnerships help U.S. industry establish long-lasting connections with leaders from the world's fastest growing markets. In fact, for those of you who have traveled to India, you probably didn't realize you were benefitting from the Agency's U.S.-India Aviation Cooperation Program. The ACP has enabled U.S. and Indian officials to collaborate in several critical areas, including safety and security. Because of the relationships that the ACP has developed, the Government of India asked USTDA for help in successfully restoring their Category 1 safety rating from the FAA. They have also asked us to help them develop the technical capacity to test, certify, and procure state-of-the-art aviation security equipment.    These projects present a significant opportunity for U.S. industry to provide India with the solutions necessary to achieve international standards and to meet its security needs. The India ACP is critical to the success of these efforts. That is because they, like our other PPPs, foster person-to-person connections, provide access to key stakeholders, and strengthen bilateral trade ties.    Third, and finally, I could not agree more with the chairman's statement regarding leveling the playing field and U.S. business doing the rest. That is why USTDA helps level the playing field for U.S. firms competing in international tenders.    Both our U.S. and foreign partners have told us about challenges presented by low cost procurement systems. I know at first blush this doesn't sound exciting, but relying on lowest cost often means that a host country is forced to acquire poor quality goods and services which is not in their long-term interest. We believe there is nothing low cost about buying something twice. Because we pride ourselves on listening to the needs of our stakeholders, we responded to this challenge by partnering with George Washington Law School to launch our Global Procurement Initiative. The GPI delivers customized solutions that target specific procurement issues.    One of our first GPI countries was Vietnam, a long-term partner of USTDA. They asked for our help in implementing their national procurement law which they revised to include low cost.    The GPI embodies our Agency's mandate. It responds to our partner countries' efforts to develop sustainable infrastructure projects. It also answers U.S. industry's call to level the playing field for greater international competition. Activities like these produce results for our foreign partners and for U.S. industry. And they provide a demonstrable return on taxpayer investments.    USTDA's current multiplier, $76 in exports for every $1 programmed is the highest in the Agency's history.</t>
   </si>
   <si>
@@ -391,6 +439,12 @@
     <t>412576</t>
   </si>
   <si>
+    <t>Castro</t>
+  </si>
+  <si>
+    <t>Joaquin</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Castro. Thank you, chairman. And thank each of the witnesses for your testimony today.    I want to pick up where the congressman left off, Mr. Hochberg. Can you describe some of the infrastructure for financing that foreign countries use that are comparable to EXIM? What are we competing against basically?</t>
   </si>
   <si>
@@ -424,6 +478,12 @@
     <t>412489</t>
   </si>
   <si>
+    <t>Ribble</t>
+  </si>
+  <si>
+    <t>Reid</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Ribble. Thank you, Mr. Chairman. Mr. Hochberg, I will go ahead and start with you and then go on to Ms. Littlefield. Just to kind of give you my own historical perspective, I am a former business owner and I have voted in support of reauthorizing EXIM in the past. I am a little bit more sanguine today than I was 2 or 3 years ago and in part I am sanguine because of the CBO's fair value accounting method to determine the actual cost to the taxpayer.    I am going to quote from the CBO's 2014 report: ``For Fiscal Years 2015 to 2024, CBO found that EXIM Bank's six largest credit programs would generate budgetary savings of about $14 billion under FCRA accounting, but costs about $2 billion on a fair value basis.'' They then go on to say later in the report, ``In CBO's view, fair value estimates provide a more comprehensive measure of the cost of Federal credit programs and CBO has provided fair value estimates for many programs to help lawmakers more fully understand the tradeoffs between certain policies.'' That is a big swing, $14 billion plus to $2 billion negative over a decade. Would you care to comment on that?</t>
   </si>
   <si>
@@ -463,6 +523,12 @@
     <t>412595</t>
   </si>
   <si>
+    <t>Kelly</t>
+  </si>
+  <si>
+    <t>Robin</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Kelly. Thank you. I would say most of us in this room recognize the importance of trade to the future of our economy. Accordingly, as we consider future trade deals, we must engage in a deeper, broader, and more inclusive dialogue about its impact on American families. This stated objective of U.S. trade policy is to liberalize markets by reducing trade and investment barriers, creating a rules-based trading system, enforcing commitments under trade agreements, and supporting economic growth.    What role do EXIM Bank, OPIC, and TDA play in supporting U.S. trade policy goals?</t>
   </si>
   <si>
@@ -484,6 +550,9 @@
     <t xml:space="preserve">    Mr. Poe. I thank the gentlelady. Just for Mr. Rohrabacher's information, there is a vote in another committee, not on the floor. And with unanimous consent, unless there is an objection, the Chair will allow a member of the full committee, but not a member of this committee to ask questions, the chairman of the European Subcommittee, Mr. Rohrabacher from California.</t>
   </si>
   <si>
+    <t>Rohrabacher</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Rohrabacher. Thank you very much, Mr. Chairman. There is a lot of discussion about trade going on on Capitol Hill these days. I am glad that you are here. And just a couple of items just for--in terms of OPIC. Is OPIC policy--there has been an on-going problem with a constituent that I have had that his family owned a major company in Ethiopia and frankly, they have been offering like a pittance as compensation for this very expensive piece of property and business. OPIC has decided not to fund that situation. Not to be involved in Ethiopia until situations like that are corrected. Is that still the policy that if a government like Ethiopia is engaged in these type of activities that are denying the U.S. citizens the right to compensation for property that they have confiscated, do we still have that policy that we are not providing loans in that country?</t>
   </si>
   <si>
@@ -565,6 +634,9 @@
     <t xml:space="preserve">    Mr. Poe. I thank the gentleman. I thank the witnesses for being here. I want to advise the witnesses that all members have the opportunity to present written questions to the witnesses. Several members were not here, could not be here and I would encourage the members to put those questions in writing as soon as possible regardless of where they are on this issue that we have been discussing today. With that, I thank the witnesses for being here and we will begin with our second panel as soon as they are seated.    The Chair is ready to begin the second panel if the witnesses will be seated. The Chair will introduce the next four witnesses. I want to thank the witnesses for waiting all morning to give their testimony. It is appreciated.    Mr. Daniel Ikenson is director of the Herbert Stiefel Center for Trade Policy at the Cato Institute. Mr. Ikenson has held several positions focusing on international trade planning, and is widely published in the area of trade policy.    General Jim Jones is the founder of the Jones Group International and previously has served as the National Security Advisor to the President of the United States. General Jones has served our country with a long, distinguished military career including leading NATO military operations as Commander of the United States European Command and Supreme Allied Commander in Europe.    Ms. Susan Jaime is the founder of Ferra Coffee International in San Antonio. In addition to roasting coffee, she has joined with Texas A&amp;M's AgriLife projects to teach coffee growers around the globe how to grade, roast, and market their coffee beans.    Carly Seidewand is vice president of the Global Sales and Administration of Resin Technology, LLC. Ms. Seidewand took over the global petrochemical trading and compounding company from her father, an entrepreneur chemist.    We will begin with Mr. Ikenson. You have 5 minutes.</t>
   </si>
   <si>
+    <t>Ikenson</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Ikenson. Thank you, sir. Good morning, Chairman Poe, Ranking Member Keating, and members of the subcommittee. I am Dan Ikenson, Director of the Herbert A. Stiefel Center for Trade Policy Studies at the Cato Institute. Thank you for the invitation to share my views with you today concerning trade promotion agencies and the U.S. foreign policy. The views I express are my own and should not be construed as representing any official positions of the Cato Institute. To the extent today's hearing will help clarify some of these issues and prompt a serious effort to reform and retire some of the redundant, distortionary, and frankly, scandal-prone agencies among the panoply of Federal offerings, I am pleased to be of assistance.    U.S. trade promotion agencies are in the business of promoting exports, not trade, in the more inclusive sense. That is worth noting because despite some of the wrong-headed merchantilist assumptions that undergird U.S. trade policy that exports are good and imports are bad, the fact is that the real benefits of trade are transmitted through imports, not through exports.    In January 2010, President Obama set a national goal of doubling U.S. exports in 5 years and prominent net plan was a larger role for government in promoting exports including expanded non-market lending programs to finance export activity and increase in the number of Commerce Department foreign outposts to promote U.S. business and an increase in Federal agency chaperoned marketing trips. But the NEI neglected a broad swath of worthy reforms by ignoring the domestic laws, regulations, taxes, and other policies that handicap U.S. businesses and their competition for sales in the United States and abroad. For example, nearly 60 percent of the value of U.S. imports in 2014 consisted of intermediate goods, capital goods, and other raw materials. Those are the purchases of U.S. businesses, not consumers. Yet many of those imports are subject to Customs duties which raise the cost of production for the U.S.-based companies that need them, making less competitive at home and abroad.    U.S. duties on products like sugar, steel, magnesium, polyvinyl chloride, and other crucial manufacturing inputs have chased companies to foreign shores where those imports are less expensive and they have deterred foreign companies from setting up shop stateside.    Policy makers should stop conflating the interests of exporters with the national interest and commit to policies that reduce frictions throughout the supply chain from product conception to consumption. Why should U.S. taxpayers underwrite and U.S. policymakers promote the interest of exporters anyway when the benefits of those exports accrues primarily to the shareholders the companies enjoin the subsidized marketing or matchmaking? There is no national ownership of private export revenues.    If policymakers seek a more appropriate target for economic policy, it should be to attract and retain direct investment which is the seed of all economic activity including exports. Given the exalted status of exports in Washington's economic policy narrative, it is understandable why agencies would want to portray themselves as indispensable to U.S. export success. But on that metric, none of the subject agencies is scarcely relevant. EXIM supported $27.4 billion in exports in 2014. USTDA supports approximately $2.5 billion per year. And OPIC less than $2 billion. In aggregate, these agencies support less than 2 percent of all U.S. exports.    But the relevant economic question concerns the cost and benefits of these agencies to the U.S. economy. So let me focus a little bit on EXIM. EXIM financing helps two sets of companies, U.S. firms whose exports are subsidized through direct loans or loan guarantees and the foreign firms who purchase those subsidized exports. But those same transactions impose costs on two different sets of companies, competing U.S. firms in the same industry who do not get EXIM banking and U.S. firms in downstream industries whose foreign competition is now benefitting from reduced capital costs courtesy of the U.S. Government.    EXIM financing reduces the cost of doing business for the lucky U.S. exporter and reduces the cost of capital for his foreign customer. But it hurts U.S. competitors of the U.S. exporter, as well as U.S. competitors of his foreign customer, by putting them at relative cost disadvantages. According to the findings by a recent CATO Institute study, the downstream cost alone amount to a tax of approximately $2.8 billion every year and the victims include companies in each of the 21 broad U.S. manufacturing sectors.    The notion that because Beijing, Brasilia, and Brussels subsidize their exporters, Washington must too sweeps under the rug the fact that the United States is a major export credit subsidizer that has been engaged in doling out such largess since 1934 well before the founding of the People's Republic of China.    To say that U.S. exporters need assistance with financing to level the playing fields suggest that they lack advantages among the multitude of considerations that inform the purchasing decision. Moreover, the fact that less than 2 percent of U.S. export value goes through export promotion agencies, suggest this rationale for EXIM is bogus. Congress should allow EXIM to expire at the end of next month and the administration should announce plans to bring cases to the WTO against governments operating their export credit agencies in violation of agreed-upon limits under the Agreement on Subsidies and Countervailing Measures.    The combination of the carrot of U.S. withdrawal from the business of export credit financing and the stick of WTO litigation would likely incent other governments to reduce and possibly eliminate their own subsidy programs. For better or worse, at different times and for different purposes over the years, the U.S. trade policy has been a tool of U.S. foreign policy, trade preference programs, trade agreements, the trade Trans-Pacific Partnership, investment treaties, trade sanctions, infrastructure funding and trade financing of all bid pursuit or deployed for reasons not entirely economic in nature. Pursuing strategic objectives through trade policy has a long history.    The State Department's mission is to shape and sustain a peaceful, prosperous, just, and democratic world and foster conditions for stability and progress for the benefit of the American people and people everywhere. That broad mission may justify one or two export promotion agencies, but according to the CRS, the Congressional Research Service, there are at least 20 such agencies within the U.S. Government with overlapping responsibilities and in some cases working at cross purposes. Thirty seconds.    EXIM's Inspector General----</t>
   </si>
   <si>
@@ -580,10 +652,16 @@
     <t xml:space="preserve">    Mr. Poe. Thank you, General Jones. The Chair recognizes Ms. Jaime.</t>
   </si>
   <si>
+    <t>Jaime</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Jaime. Mr. Chairman and Trade Subcommittee of the House of Representatives, thank you for inviting me to share my perspective on the importance of the EXIM Bank.    I have been working in the coffee industry for more than 18 years, and started my own company, Ferra Coffee International, in 2009 with $50 in the bank and a passion for international trade and soft commodities. From the start, the heart, soul, and goal of my business has always been to help coffee growers worldwide. I learned very quickly that the coffee grower is the last one in the chain of the coffee trade business to get a fair price for their product and the last, if ever, to get training to properly assess the quality of their coffee or effectively negotiate a fair price with international buyers.    To make a lasting difference in the lives of those coffee growers, by paying them fairly and according to the quality of their coffee, to prevent families from being broken apart because parents or young adults must leave their home countries and families to come to the United States to work illegally, my business plan had to change.    If Ferra Coffee sold only to distributors in the State of Texas or any other domestic state, we could only expect to sell one or two pallets of approximately 1200 pounds at a time. In contrast, when we are able to secure an international contract with an international distributor, orders are generally for at least one full container, which is 48,000 pounds average. It is easy to see the advantage.    Behind each bag of Ferra Organic Flavor Coffee, or each bag of Ferra Liquid Coffee, there are seven U.S. small businesses that supply products and services contributing to our finished product, that is labeled USDA organic, roasted, Q graded, and manufactured in San Antonio, Texas.    Ferra Coffee has successfully started offering our roasted specialty coffees internationally, thanks to the support that the EXIM Bank has provided. By their doing due diligence in checking that the distributors with whom we establish relationships and make contracts are legitimate, and that we do not get involved with dubious, unreliable, or criminal groups while conducting international trade, the EXIM Bank has truly ensured our success.    The EXIM Bank also literally insures payment of our shipments, and has given my company the peace of mind of knowing that the value of the product shipped is secure and legally insured. The EXIM Bank also allows me the ability to offer products that have a higher quality for the gourmet market.    Ferra Coffee International, along with the other small companies that are our partners, completely depends for our growth and survival on our ability to sell internationally. Internationally, there is no market saturation, and USA made and USDA organic products have a great deal of value to the consumer.    The EXIM Bank is the one and only entity that we can rely on to help us continue to grow, be competitive in markets that are not available to us in our own country, and to give us the necessary competitive edge in international trade.    My small company, by purchasing coffee directly from the growers is contributing to stopping illegal immigration and the displacement of family units. We also help seven other small U.S. businesses with opportunities to hire more workers and increase their revenue by purchasing more products for international contracts.    Without the EXIM Bank offering their services that allow my company to engage in this type of international trade contracts, I will not be able to grow my business beyond the saturated coffee market that we have in the U.S.A.    The EXIM Bank can also do so much more. It can help me, and other companies like mine which conduct businesses that are usually not funded by the regular bank system because we have contracts in international markets. By not acting as a conventional bank to qualify exporters like me for financial low interest loans. Instead of using only a credit score to qualify a company for funding, EXIM Bank could look at, and assess the overall potential, growth, and increased revenue that can be achieved by additional funding. That is the vision that is needed, and that what we are asking for.    My company is not able to get loans from conventional banks because all of my products are bought in cash. That is the way the majority of specialty coffee and tea companies operate. We do not have a history of loan payments or credit with coffee or tea growers. We need the EXIM Bank's support.    The EXIM Bank is a crucial, vital and important entity that I and many other U.S. exporting companies depend on for survival, growth, and the ability to compete successfully in business. Every U.S.A. company that has the capability to export and do business internationally, whether that company is small or large, contributes to the health of our national economy and our country's leadership in innovation, in the development of more qualified and competitive businesses, and of individuals who see our potential markets as global opportunities for the kind of success that is indeed, the greater good.    Every aspect of the EXIM Bank has the potential to create positive and strong advancement for the good of all of us, and the good of U.S.A.    Thank you for your time, kind attention, and for inviting to share my story on behalf of all exporters in the U.S.A.    [The prepared statement of Ms. Jaime &lt;greek-l&gt;Jones deg.follows:]                              ----------                              </t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Poe. Thank you, Ms. Jaime. Ms. Seidewand.</t>
+  </si>
+  <si>
+    <t>Seidewand</t>
   </si>
   <si>
     <t xml:space="preserve">    Ms. Seidewand. Thank you, Chairman Poe, Ranking Member Keating, and the other subcommittee members for inviting me. I hope that my story can actually point to the interconnection of small- and medium-size businesses across the United States as exporters, some direct, and some indirect.    Resin Technology is a now $100 million global petrochemical trading and compounding company. It has been in operation for close to 20 years. I am second generation of my family business. It was started by my parents and it is still a father-daughter run business today. We sell about 98 percent U.S.-made petrochemicals in Houston, Texas. It is an extremely important area for us. And we export into over 30 countries worldwide, some developing nations, and more mature economies. The majority of our sales go into vinyl construction products worldwide such as water pipe, windows, wire and cable, and even some more sophisticated engineered parts, all dependent on the level of development in those import countries.    Today, our largest export markets are Canada, Europe, very importantly, the Caribbean and Mexico, Latin and South America account for about 50 percent of 2014 sales. It should be noted that we started the business at about 70 percent U.S. sales and with the help of EXIM financing it is now over 70 percent export sales. So it has made a huge difference in sort of where our business has gone.    We have fierce competition from large commodity international trading firms and foreign producers, the largest ones being between Korea, China, and especially Japan where they sell very much on price and very low cost to no cost financing in markets where we have to compete.    Prior to the housing decline, we were solely focused in the U.S. and Canadian markets with over 70 percent sales in the U.S. We started exporting at the end of '06, doubled our sales, year on year for many years. And we didn't really have the idea that the housing boom would persist, so we knew that export needed to be a part of our future growth plan. And obviously, 2008, 2009 proved that point very clearly and we needed to compensate for those lower sales since everything really--the largest portion goes into construction projects.    In 2011, Bank of America suggested using Export-Import Bank to back our export receivables and inventory via a working capital guarantee program where domestic sales remain under their current structure. We had for probably 2 years tried to find other ways to finance our exports with Bank of America by increasing the size of our insurance policies. We looked at inventory appraisals to try and increase the advance rates. We do use an external credit insurance agency which is a big portion of our--what is underwritten. But it never could meet the size that we needed to really compete in the export market on the buy and on the sell side because a very important part of our business is being able to finance the supply side with these major Fortune 500 companies.    What we did was increase our advance rates up to 90 percent of receivables and 75 percent of export inventory, affording us to be able to compete with our Asian counterparts which is the most important part because oftentimes they have not only subsidies on their freight, but their financing seems almost zero to very low in comparison and offer extremely long terms where we normally try to finance 60 to 90 days. Sometimes they will finance 120, 270 days. It is a very different Wild West in certain areas of market. And since our product is a more commodity element, the 75 percent loan rate than inventory really isn't considered excessive and our credit that we do with customers is the Euler-Hermes credit insurance policy or via letters of credit all with Bank of America or with local banks in the United States.    In our view, the Working Capital Guarantee Program with EXIM has been more disciplined. They have audited us more often than even our domestic program has. They have very detailed, down to customer level on sales. We have to provide waiver letters for foreign currency transactions which is very important in our markets. There is tough management on credit overseas and we also have to have comprehensive marine and warehouse insurance policies.    EXIM financing is actually somewhat expensive but where we couldn't find any other options that didn't include factoring or discounting by the bank with letters of credit where none of customers can, there really was no other option for us to really increase to where we needed to be. And really, Bank of America said they just couldn't justify the export receivables because they didn't have the global infrastructure or for inventory if something did go wrong to actually collect on those receivables which is a very important point.    But the other point that I first brought up was how we partner with hundreds of small to medium size U.S. businesses across the United States. We are in the Boston market and obviously we have people there, but also we have a lot of people that are near the ports in Houston and Louisiana that do trucking, toll blending, packaging, warehousing, freight forwarding, ones that don't even realize how much they would be affected if trade by EXIM wasn't financed.    Three such firms that I have mentioned before, Fleur De Lis Worldwide, which is in Chairman Poe's area; TCI, a packaging and trucking firm in New Orleans, Louisiana; and JPI South in Pasadena, Texas, all have doubled and tripled their workforces from our loyalty in working and partnering together.    Now with the new boom that we may see in front of us, petrochemicals, it is even more important for us to capitalize on those. We personally have doubled our workforce from 4 to 12 people and we have actually opened an office in Houston because of the concentration that we need there.</t>
@@ -1094,7 +1172,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H225"/>
+  <dimension ref="A1:I225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1102,7 +1180,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1124,5381 +1202,6292 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
       <c r="H5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
       <c r="H7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G9" t="s">
+        <v>27</v>
+      </c>
       <c r="H9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
       <c r="H10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" t="s"/>
+        <v>33</v>
+      </c>
+      <c r="G11" t="s">
+        <v>34</v>
+      </c>
       <c r="H11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="I11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
       <c r="H12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>27</v>
-      </c>
-      <c r="G13" t="s"/>
+        <v>38</v>
+      </c>
+      <c r="G13" t="s">
+        <v>39</v>
+      </c>
       <c r="H13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="I13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
       <c r="H14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="G15" t="s">
+        <v>44</v>
+      </c>
+      <c r="H15" t="s"/>
+      <c r="I15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
       <c r="H16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>30</v>
-      </c>
-      <c r="G17" t="s"/>
-      <c r="H17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="G17" t="s">
+        <v>47</v>
+      </c>
+      <c r="H17" t="s"/>
+      <c r="I17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
       <c r="H18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>30</v>
-      </c>
-      <c r="G19" t="s"/>
-      <c r="H19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="G19" t="s">
+        <v>50</v>
+      </c>
+      <c r="H19" t="s"/>
+      <c r="I19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
       <c r="H20" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" t="s"/>
-      <c r="H21" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="G21" t="s">
+        <v>50</v>
+      </c>
+      <c r="H21" t="s"/>
+      <c r="I21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
       <c r="H22" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>30</v>
-      </c>
-      <c r="G23" t="s"/>
-      <c r="H23" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="G23" t="s">
+        <v>44</v>
+      </c>
+      <c r="H23" t="s"/>
+      <c r="I23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
       <c r="H24" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I24" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>30</v>
-      </c>
-      <c r="G25" t="s"/>
-      <c r="H25" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="G25" t="s">
+        <v>44</v>
+      </c>
+      <c r="H25" t="s"/>
+      <c r="I25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>19</v>
-      </c>
-      <c r="G26" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G26" t="s">
+        <v>27</v>
+      </c>
       <c r="H26" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I26" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G27" t="s">
+        <v>13</v>
+      </c>
       <c r="H27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>30</v>
-      </c>
-      <c r="G28" t="s"/>
-      <c r="H28" t="s">
+        <v>43</v>
+      </c>
+      <c r="G28" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="H28" t="s"/>
+      <c r="I28" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G29" t="s">
+        <v>13</v>
+      </c>
       <c r="H29" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I29" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>30</v>
-      </c>
-      <c r="G30" t="s"/>
-      <c r="H30" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="G30" t="s">
+        <v>44</v>
+      </c>
+      <c r="H30" t="s"/>
+      <c r="I30" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G31" t="s">
+        <v>13</v>
+      </c>
       <c r="H31" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I31" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>30</v>
-      </c>
-      <c r="G32" t="s"/>
-      <c r="H32" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="G32" t="s">
+        <v>44</v>
+      </c>
+      <c r="H32" t="s"/>
+      <c r="I32" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G33" t="s">
+        <v>13</v>
+      </c>
       <c r="H33" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>30</v>
-      </c>
-      <c r="G34" t="s"/>
-      <c r="H34" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="G34" t="s">
+        <v>44</v>
+      </c>
+      <c r="H34" t="s"/>
+      <c r="I34" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>11</v>
-      </c>
-      <c r="G35" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G35" t="s">
+        <v>13</v>
+      </c>
       <c r="H35" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I35" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>30</v>
-      </c>
-      <c r="G36" t="s"/>
-      <c r="H36" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="G36" t="s">
+        <v>44</v>
+      </c>
+      <c r="H36" t="s"/>
+      <c r="I36" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>11</v>
-      </c>
-      <c r="G37" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G37" t="s">
+        <v>13</v>
+      </c>
       <c r="H37" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I37" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>30</v>
-      </c>
-      <c r="G38" t="s"/>
-      <c r="H38" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="G38" t="s">
+        <v>44</v>
+      </c>
+      <c r="H38" t="s"/>
+      <c r="I38" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>11</v>
-      </c>
-      <c r="G39" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G39" t="s">
+        <v>13</v>
+      </c>
       <c r="H39" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I39" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>30</v>
-      </c>
-      <c r="G40" t="s"/>
-      <c r="H40" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="G40" t="s">
+        <v>44</v>
+      </c>
+      <c r="H40" t="s"/>
+      <c r="I40" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>11</v>
-      </c>
-      <c r="G41" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G41" t="s">
+        <v>13</v>
+      </c>
       <c r="H41" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I41" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>30</v>
-      </c>
-      <c r="G42" t="s"/>
-      <c r="H42" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="G42" t="s">
+        <v>44</v>
+      </c>
+      <c r="H42" t="s"/>
+      <c r="I42" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>11</v>
-      </c>
-      <c r="G43" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G43" t="s">
+        <v>13</v>
+      </c>
       <c r="H43" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I43" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>13</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G44" t="s">
+        <v>17</v>
+      </c>
       <c r="H44" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I44" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>30</v>
-      </c>
-      <c r="G45" t="s"/>
-      <c r="H45" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="G45" t="s">
+        <v>44</v>
+      </c>
+      <c r="H45" t="s"/>
+      <c r="I45" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>13</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G46" t="s">
+        <v>17</v>
+      </c>
       <c r="H46" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I46" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>30</v>
-      </c>
-      <c r="G47" t="s"/>
-      <c r="H47" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="G47" t="s">
+        <v>47</v>
+      </c>
+      <c r="H47" t="s"/>
+      <c r="I47" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>13</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G48" t="s">
+        <v>17</v>
+      </c>
       <c r="H48" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I48" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>11</v>
-      </c>
-      <c r="G49" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G49" t="s">
+        <v>13</v>
+      </c>
       <c r="H49" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I49" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>24</v>
-      </c>
-      <c r="G50" t="s"/>
+        <v>33</v>
+      </c>
+      <c r="G50" t="s">
+        <v>34</v>
+      </c>
       <c r="H50" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="I50" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>30</v>
-      </c>
-      <c r="G51" t="s"/>
-      <c r="H51" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="G51" t="s">
+        <v>44</v>
+      </c>
+      <c r="H51" t="s"/>
+      <c r="I51" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>24</v>
-      </c>
-      <c r="G52" t="s"/>
+        <v>33</v>
+      </c>
+      <c r="G52" t="s">
+        <v>34</v>
+      </c>
       <c r="H52" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="I52" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>30</v>
-      </c>
-      <c r="G53" t="s"/>
-      <c r="H53" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="G53" t="s">
+        <v>44</v>
+      </c>
+      <c r="H53" t="s"/>
+      <c r="I53" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>24</v>
-      </c>
-      <c r="G54" t="s"/>
+        <v>33</v>
+      </c>
+      <c r="G54" t="s">
+        <v>34</v>
+      </c>
       <c r="H54" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="I54" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>30</v>
-      </c>
-      <c r="G55" t="s"/>
-      <c r="H55" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="G55" t="s">
+        <v>44</v>
+      </c>
+      <c r="H55" t="s"/>
+      <c r="I55" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>24</v>
-      </c>
-      <c r="G56" t="s"/>
+        <v>33</v>
+      </c>
+      <c r="G56" t="s">
+        <v>34</v>
+      </c>
       <c r="H56" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="I56" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>30</v>
-      </c>
-      <c r="G57" t="s"/>
-      <c r="H57" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="G57" t="s">
+        <v>44</v>
+      </c>
+      <c r="H57" t="s"/>
+      <c r="I57" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>24</v>
-      </c>
-      <c r="G58" t="s"/>
+        <v>33</v>
+      </c>
+      <c r="G58" t="s">
+        <v>34</v>
+      </c>
       <c r="H58" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="I58" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>30</v>
-      </c>
-      <c r="G59" t="s"/>
-      <c r="H59" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="G59" t="s">
+        <v>44</v>
+      </c>
+      <c r="H59" t="s"/>
+      <c r="I59" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>24</v>
-      </c>
-      <c r="G60" t="s"/>
+        <v>33</v>
+      </c>
+      <c r="G60" t="s">
+        <v>34</v>
+      </c>
       <c r="H60" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="I60" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>30</v>
-      </c>
-      <c r="G61" t="s"/>
-      <c r="H61" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="G61" t="s">
+        <v>44</v>
+      </c>
+      <c r="H61" t="s"/>
+      <c r="I61" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>24</v>
-      </c>
-      <c r="G62" t="s"/>
+        <v>33</v>
+      </c>
+      <c r="G62" t="s">
+        <v>34</v>
+      </c>
       <c r="H62" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="I62" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>30</v>
-      </c>
-      <c r="G63" t="s"/>
-      <c r="H63" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="G63" t="s">
+        <v>44</v>
+      </c>
+      <c r="H63" t="s"/>
+      <c r="I63" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>24</v>
-      </c>
-      <c r="G64" t="s"/>
+        <v>33</v>
+      </c>
+      <c r="G64" t="s">
+        <v>34</v>
+      </c>
       <c r="H64" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="I64" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>30</v>
-      </c>
-      <c r="G65" t="s"/>
-      <c r="H65" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="G65" t="s">
+        <v>44</v>
+      </c>
+      <c r="H65" t="s"/>
+      <c r="I65" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>24</v>
-      </c>
-      <c r="G66" t="s"/>
+        <v>33</v>
+      </c>
+      <c r="G66" t="s">
+        <v>34</v>
+      </c>
       <c r="H66" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="I66" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>30</v>
-      </c>
-      <c r="G67" t="s"/>
-      <c r="H67" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="G67" t="s">
+        <v>44</v>
+      </c>
+      <c r="H67" t="s"/>
+      <c r="I67" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>24</v>
-      </c>
-      <c r="G68" t="s"/>
+        <v>33</v>
+      </c>
+      <c r="G68" t="s">
+        <v>34</v>
+      </c>
       <c r="H68" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="I68" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>30</v>
-      </c>
-      <c r="G69" t="s"/>
-      <c r="H69" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="G69" t="s">
+        <v>44</v>
+      </c>
+      <c r="H69" t="s"/>
+      <c r="I69" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>24</v>
-      </c>
-      <c r="G70" t="s"/>
+        <v>33</v>
+      </c>
+      <c r="G70" t="s">
+        <v>34</v>
+      </c>
       <c r="H70" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="I70" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>30</v>
-      </c>
-      <c r="G71" t="s"/>
-      <c r="H71" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="G71" t="s">
+        <v>44</v>
+      </c>
+      <c r="H71" t="s"/>
+      <c r="I71" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>24</v>
-      </c>
-      <c r="G72" t="s"/>
+        <v>33</v>
+      </c>
+      <c r="G72" t="s">
+        <v>34</v>
+      </c>
       <c r="H72" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="I72" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>30</v>
-      </c>
-      <c r="G73" t="s"/>
-      <c r="H73" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="G73" t="s">
+        <v>44</v>
+      </c>
+      <c r="H73" t="s"/>
+      <c r="I73" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>24</v>
-      </c>
-      <c r="G74" t="s"/>
+        <v>33</v>
+      </c>
+      <c r="G74" t="s">
+        <v>34</v>
+      </c>
       <c r="H74" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="I74" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>30</v>
-      </c>
-      <c r="G75" t="s"/>
-      <c r="H75" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="G75" t="s">
+        <v>44</v>
+      </c>
+      <c r="H75" t="s"/>
+      <c r="I75" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>24</v>
-      </c>
-      <c r="G76" t="s"/>
+        <v>33</v>
+      </c>
+      <c r="G76" t="s">
+        <v>34</v>
+      </c>
       <c r="H76" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="I76" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>11</v>
-      </c>
-      <c r="G77" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G77" t="s">
+        <v>13</v>
+      </c>
       <c r="H77" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I77" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>19</v>
-      </c>
-      <c r="G78" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G78" t="s">
+        <v>27</v>
+      </c>
       <c r="H78" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I78" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>30</v>
-      </c>
-      <c r="G79" t="s"/>
-      <c r="H79" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="G79" t="s">
+        <v>44</v>
+      </c>
+      <c r="H79" t="s"/>
+      <c r="I79" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>19</v>
-      </c>
-      <c r="G80" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G80" t="s">
+        <v>27</v>
+      </c>
       <c r="H80" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I80" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>30</v>
-      </c>
-      <c r="G81" t="s"/>
-      <c r="H81" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="G81" t="s">
+        <v>50</v>
+      </c>
+      <c r="H81" t="s"/>
+      <c r="I81" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>19</v>
-      </c>
-      <c r="G82" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G82" t="s">
+        <v>27</v>
+      </c>
       <c r="H82" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I82" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>30</v>
-      </c>
-      <c r="G83" t="s"/>
-      <c r="H83" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="G83" t="s">
+        <v>44</v>
+      </c>
+      <c r="H83" t="s"/>
+      <c r="I83" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>19</v>
-      </c>
-      <c r="G84" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G84" t="s">
+        <v>27</v>
+      </c>
       <c r="H84" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I84" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>30</v>
-      </c>
-      <c r="G85" t="s"/>
-      <c r="H85" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="G85" t="s">
+        <v>44</v>
+      </c>
+      <c r="H85" t="s"/>
+      <c r="I85" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>19</v>
-      </c>
-      <c r="G86" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G86" t="s">
+        <v>27</v>
+      </c>
       <c r="H86" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I86" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>30</v>
-      </c>
-      <c r="G87" t="s"/>
-      <c r="H87" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="G87" t="s">
+        <v>44</v>
+      </c>
+      <c r="H87" t="s"/>
+      <c r="I87" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>19</v>
-      </c>
-      <c r="G88" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G88" t="s">
+        <v>27</v>
+      </c>
       <c r="H88" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I88" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>11</v>
-      </c>
-      <c r="G89" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G89" t="s">
+        <v>13</v>
+      </c>
       <c r="H89" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I89" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>16</v>
-      </c>
-      <c r="G90" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G90" t="s">
+        <v>22</v>
+      </c>
       <c r="H90" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I90" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>30</v>
-      </c>
-      <c r="G91" t="s"/>
-      <c r="H91" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="G91" t="s">
+        <v>47</v>
+      </c>
+      <c r="H91" t="s"/>
+      <c r="I91" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>16</v>
-      </c>
-      <c r="G92" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G92" t="s">
+        <v>22</v>
+      </c>
       <c r="H92" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I92" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>30</v>
-      </c>
-      <c r="G93" t="s"/>
-      <c r="H93" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="G93" t="s">
+        <v>47</v>
+      </c>
+      <c r="H93" t="s"/>
+      <c r="I93" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>16</v>
-      </c>
-      <c r="G94" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G94" t="s">
+        <v>22</v>
+      </c>
       <c r="H94" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I94" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>30</v>
-      </c>
-      <c r="G95" t="s"/>
-      <c r="H95" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="G95" t="s">
+        <v>47</v>
+      </c>
+      <c r="H95" t="s"/>
+      <c r="I95" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>16</v>
-      </c>
-      <c r="G96" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G96" t="s">
+        <v>22</v>
+      </c>
       <c r="H96" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I96" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>30</v>
-      </c>
-      <c r="G97" t="s"/>
-      <c r="H97" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="G97" t="s">
+        <v>47</v>
+      </c>
+      <c r="H97" t="s"/>
+      <c r="I97" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>16</v>
-      </c>
-      <c r="G98" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G98" t="s">
+        <v>22</v>
+      </c>
       <c r="H98" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I98" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>30</v>
-      </c>
-      <c r="G99" t="s"/>
-      <c r="H99" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="G99" t="s">
+        <v>44</v>
+      </c>
+      <c r="H99" t="s"/>
+      <c r="I99" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>16</v>
-      </c>
-      <c r="G100" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G100" t="s">
+        <v>22</v>
+      </c>
       <c r="H100" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I100" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>30</v>
-      </c>
-      <c r="G101" t="s"/>
-      <c r="H101" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="G101" t="s">
+        <v>44</v>
+      </c>
+      <c r="H101" t="s"/>
+      <c r="I101" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>16</v>
-      </c>
-      <c r="G102" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G102" t="s">
+        <v>22</v>
+      </c>
       <c r="H102" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I102" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>30</v>
-      </c>
-      <c r="G103" t="s"/>
-      <c r="H103" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="G103" t="s">
+        <v>50</v>
+      </c>
+      <c r="H103" t="s"/>
+      <c r="I103" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>16</v>
-      </c>
-      <c r="G104" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G104" t="s">
+        <v>22</v>
+      </c>
       <c r="H104" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I104" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>30</v>
-      </c>
-      <c r="G105" t="s"/>
-      <c r="H105" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="G105" t="s">
+        <v>44</v>
+      </c>
+      <c r="H105" t="s"/>
+      <c r="I105" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>16</v>
-      </c>
-      <c r="G106" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G106" t="s">
+        <v>22</v>
+      </c>
       <c r="H106" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I106" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>11</v>
-      </c>
-      <c r="G107" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G107" t="s">
+        <v>13</v>
+      </c>
       <c r="H107" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I107" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>124</v>
-      </c>
-      <c r="G108" t="s"/>
+        <v>140</v>
+      </c>
+      <c r="G108" t="s">
+        <v>141</v>
+      </c>
       <c r="H108" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>142</v>
+      </c>
+      <c r="I108" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>30</v>
-      </c>
-      <c r="G109" t="s"/>
-      <c r="H109" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="G109" t="s">
+        <v>44</v>
+      </c>
+      <c r="H109" t="s"/>
+      <c r="I109" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>124</v>
-      </c>
-      <c r="G110" t="s"/>
+        <v>140</v>
+      </c>
+      <c r="G110" t="s">
+        <v>141</v>
+      </c>
       <c r="H110" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>142</v>
+      </c>
+      <c r="I110" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>30</v>
-      </c>
-      <c r="G111" t="s"/>
-      <c r="H111" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="G111" t="s">
+        <v>44</v>
+      </c>
+      <c r="H111" t="s"/>
+      <c r="I111" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>124</v>
-      </c>
-      <c r="G112" t="s"/>
+        <v>140</v>
+      </c>
+      <c r="G112" t="s">
+        <v>141</v>
+      </c>
       <c r="H112" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>142</v>
+      </c>
+      <c r="I112" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>30</v>
-      </c>
-      <c r="G113" t="s"/>
-      <c r="H113" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="G113" t="s">
+        <v>44</v>
+      </c>
+      <c r="H113" t="s"/>
+      <c r="I113" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>30</v>
-      </c>
-      <c r="G114" t="s"/>
-      <c r="H114" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="G114" t="s">
+        <v>47</v>
+      </c>
+      <c r="H114" t="s"/>
+      <c r="I114" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>30</v>
-      </c>
-      <c r="G115" t="s"/>
-      <c r="H115" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="G115" t="s">
+        <v>50</v>
+      </c>
+      <c r="H115" t="s"/>
+      <c r="I115" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>124</v>
-      </c>
-      <c r="G116" t="s"/>
+        <v>140</v>
+      </c>
+      <c r="G116" t="s">
+        <v>141</v>
+      </c>
       <c r="H116" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>142</v>
+      </c>
+      <c r="I116" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>11</v>
-      </c>
-      <c r="G117" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G117" t="s">
+        <v>13</v>
+      </c>
       <c r="H117" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I117" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>135</v>
-      </c>
-      <c r="G118" t="s"/>
+        <v>153</v>
+      </c>
+      <c r="G118" t="s">
+        <v>154</v>
+      </c>
       <c r="H118" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>155</v>
+      </c>
+      <c r="I118" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>30</v>
-      </c>
-      <c r="G119" t="s"/>
-      <c r="H119" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="G119" t="s">
+        <v>44</v>
+      </c>
+      <c r="H119" t="s"/>
+      <c r="I119" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>135</v>
-      </c>
-      <c r="G120" t="s"/>
+        <v>153</v>
+      </c>
+      <c r="G120" t="s">
+        <v>154</v>
+      </c>
       <c r="H120" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>155</v>
+      </c>
+      <c r="I120" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>30</v>
-      </c>
-      <c r="G121" t="s"/>
-      <c r="H121" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="G121" t="s">
+        <v>44</v>
+      </c>
+      <c r="H121" t="s"/>
+      <c r="I121" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>135</v>
-      </c>
-      <c r="G122" t="s"/>
+        <v>153</v>
+      </c>
+      <c r="G122" t="s">
+        <v>154</v>
+      </c>
       <c r="H122" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>155</v>
+      </c>
+      <c r="I122" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>30</v>
-      </c>
-      <c r="G123" t="s"/>
-      <c r="H123" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="G123" t="s">
+        <v>44</v>
+      </c>
+      <c r="H123" t="s"/>
+      <c r="I123" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>135</v>
-      </c>
-      <c r="G124" t="s"/>
+        <v>153</v>
+      </c>
+      <c r="G124" t="s">
+        <v>154</v>
+      </c>
       <c r="H124" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>155</v>
+      </c>
+      <c r="I124" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>30</v>
-      </c>
-      <c r="G125" t="s"/>
-      <c r="H125" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="G125" t="s">
+        <v>44</v>
+      </c>
+      <c r="H125" t="s"/>
+      <c r="I125" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>135</v>
-      </c>
-      <c r="G126" t="s"/>
+        <v>153</v>
+      </c>
+      <c r="G126" t="s">
+        <v>154</v>
+      </c>
       <c r="H126" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>155</v>
+      </c>
+      <c r="I126" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>30</v>
-      </c>
-      <c r="G127" t="s"/>
-      <c r="H127" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="G127" t="s">
+        <v>44</v>
+      </c>
+      <c r="H127" t="s"/>
+      <c r="I127" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F128" t="s">
-        <v>135</v>
-      </c>
-      <c r="G128" t="s"/>
+        <v>153</v>
+      </c>
+      <c r="G128" t="s">
+        <v>154</v>
+      </c>
       <c r="H128" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>155</v>
+      </c>
+      <c r="I128" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F129" t="s">
-        <v>11</v>
-      </c>
-      <c r="G129" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G129" t="s">
+        <v>13</v>
+      </c>
       <c r="H129" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I129" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F130" t="s">
-        <v>148</v>
-      </c>
-      <c r="G130" t="s"/>
+        <v>168</v>
+      </c>
+      <c r="G130" t="s">
+        <v>169</v>
+      </c>
       <c r="H130" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>170</v>
+      </c>
+      <c r="I130" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F131" t="s">
-        <v>30</v>
-      </c>
-      <c r="G131" t="s"/>
-      <c r="H131" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="G131" t="s">
+        <v>44</v>
+      </c>
+      <c r="H131" t="s"/>
+      <c r="I131" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F132" t="s">
-        <v>148</v>
-      </c>
-      <c r="G132" t="s"/>
+        <v>168</v>
+      </c>
+      <c r="G132" t="s">
+        <v>169</v>
+      </c>
       <c r="H132" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>170</v>
+      </c>
+      <c r="I132" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F133" t="s">
-        <v>30</v>
-      </c>
-      <c r="G133" t="s"/>
-      <c r="H133" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="G133" t="s">
+        <v>47</v>
+      </c>
+      <c r="H133" t="s"/>
+      <c r="I133" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F134" t="s">
-        <v>30</v>
-      </c>
-      <c r="G134" t="s"/>
-      <c r="H134" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="G134" t="s">
+        <v>50</v>
+      </c>
+      <c r="H134" t="s"/>
+      <c r="I134" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F135" t="s">
-        <v>148</v>
-      </c>
-      <c r="G135" t="s"/>
+        <v>168</v>
+      </c>
+      <c r="G135" t="s">
+        <v>169</v>
+      </c>
       <c r="H135" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>170</v>
+      </c>
+      <c r="I135" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F136" t="s">
-        <v>11</v>
-      </c>
-      <c r="G136" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G136" t="s">
+        <v>13</v>
+      </c>
       <c r="H136" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I136" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F137" t="s">
-        <v>30</v>
-      </c>
-      <c r="G137" t="s"/>
-      <c r="H137" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="G137" t="s">
+        <v>178</v>
+      </c>
+      <c r="H137" t="s"/>
+      <c r="I137" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F138" t="s">
-        <v>30</v>
-      </c>
-      <c r="G138" t="s"/>
-      <c r="H138" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="G138" t="s">
+        <v>47</v>
+      </c>
+      <c r="H138" t="s"/>
+      <c r="I138" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F139" t="s">
-        <v>30</v>
-      </c>
-      <c r="G139" t="s"/>
-      <c r="H139" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="G139" t="s">
+        <v>178</v>
+      </c>
+      <c r="H139" t="s"/>
+      <c r="I139" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F140" t="s">
-        <v>30</v>
-      </c>
-      <c r="G140" t="s"/>
-      <c r="H140" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="G140" t="s">
+        <v>47</v>
+      </c>
+      <c r="H140" t="s"/>
+      <c r="I140" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F141" t="s">
-        <v>30</v>
-      </c>
-      <c r="G141" t="s"/>
-      <c r="H141" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="G141" t="s">
+        <v>178</v>
+      </c>
+      <c r="H141" t="s"/>
+      <c r="I141" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F142" t="s">
-        <v>30</v>
-      </c>
-      <c r="G142" t="s"/>
-      <c r="H142" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="G142" t="s">
+        <v>47</v>
+      </c>
+      <c r="H142" t="s"/>
+      <c r="I142" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F143" t="s">
-        <v>30</v>
-      </c>
-      <c r="G143" t="s"/>
-      <c r="H143" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="G143" t="s">
+        <v>178</v>
+      </c>
+      <c r="H143" t="s"/>
+      <c r="I143" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F144" t="s">
-        <v>30</v>
-      </c>
-      <c r="G144" t="s"/>
-      <c r="H144" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="G144" t="s">
+        <v>47</v>
+      </c>
+      <c r="H144" t="s"/>
+      <c r="I144" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F145" t="s">
-        <v>30</v>
-      </c>
-      <c r="G145" t="s"/>
-      <c r="H145" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="G145" t="s">
+        <v>178</v>
+      </c>
+      <c r="H145" t="s"/>
+      <c r="I145" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F146" t="s">
-        <v>30</v>
-      </c>
-      <c r="G146" t="s"/>
-      <c r="H146" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="G146" t="s">
+        <v>47</v>
+      </c>
+      <c r="H146" t="s"/>
+      <c r="I146" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F147" t="s">
-        <v>30</v>
-      </c>
-      <c r="G147" t="s"/>
-      <c r="H147" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="G147" t="s">
+        <v>178</v>
+      </c>
+      <c r="H147" t="s"/>
+      <c r="I147" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F148" t="s">
-        <v>30</v>
-      </c>
-      <c r="G148" t="s"/>
-      <c r="H148" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="G148" t="s">
+        <v>44</v>
+      </c>
+      <c r="H148" t="s"/>
+      <c r="I148" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F149" t="s">
-        <v>30</v>
-      </c>
-      <c r="G149" t="s"/>
-      <c r="H149" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="G149" t="s">
+        <v>178</v>
+      </c>
+      <c r="H149" t="s"/>
+      <c r="I149" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F150" t="s">
-        <v>30</v>
-      </c>
-      <c r="G150" t="s"/>
-      <c r="H150" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="G150" t="s">
+        <v>44</v>
+      </c>
+      <c r="H150" t="s"/>
+      <c r="I150" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F151" t="s">
-        <v>30</v>
-      </c>
-      <c r="G151" t="s"/>
-      <c r="H151" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="G151" t="s">
+        <v>178</v>
+      </c>
+      <c r="H151" t="s"/>
+      <c r="I151" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F152" t="s">
-        <v>30</v>
-      </c>
-      <c r="G152" t="s"/>
-      <c r="H152" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="G152" t="s">
+        <v>44</v>
+      </c>
+      <c r="H152" t="s"/>
+      <c r="I152" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F153" t="s">
-        <v>30</v>
-      </c>
-      <c r="G153" t="s"/>
-      <c r="H153" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="G153" t="s">
+        <v>178</v>
+      </c>
+      <c r="H153" t="s"/>
+      <c r="I153" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F154" t="s">
-        <v>30</v>
-      </c>
-      <c r="G154" t="s"/>
-      <c r="H154" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="G154" t="s">
+        <v>44</v>
+      </c>
+      <c r="H154" t="s"/>
+      <c r="I154" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F155" t="s">
-        <v>30</v>
-      </c>
-      <c r="G155" t="s"/>
-      <c r="H155" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="G155" t="s">
+        <v>178</v>
+      </c>
+      <c r="H155" t="s"/>
+      <c r="I155" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F156" t="s">
-        <v>30</v>
-      </c>
-      <c r="G156" t="s"/>
-      <c r="H156" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="G156" t="s">
+        <v>44</v>
+      </c>
+      <c r="H156" t="s"/>
+      <c r="I156" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F157" t="s">
-        <v>30</v>
-      </c>
-      <c r="G157" t="s"/>
-      <c r="H157" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="G157" t="s">
+        <v>178</v>
+      </c>
+      <c r="H157" t="s"/>
+      <c r="I157" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F158" t="s">
-        <v>30</v>
-      </c>
-      <c r="G158" t="s"/>
-      <c r="H158" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="G158" t="s">
+        <v>44</v>
+      </c>
+      <c r="H158" t="s"/>
+      <c r="I158" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F159" t="s">
-        <v>30</v>
-      </c>
-      <c r="G159" t="s"/>
-      <c r="H159" t="s">
+        <v>43</v>
+      </c>
+      <c r="G159" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="160" spans="1:8">
+      <c r="H159" t="s"/>
+      <c r="I159" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F160" t="s">
-        <v>30</v>
-      </c>
-      <c r="G160" t="s"/>
-      <c r="H160" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="G160" t="s">
+        <v>44</v>
+      </c>
+      <c r="H160" t="s"/>
+      <c r="I160" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F161" t="s">
-        <v>30</v>
-      </c>
-      <c r="G161" t="s"/>
-      <c r="H161" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="G161" t="s">
+        <v>178</v>
+      </c>
+      <c r="H161" t="s"/>
+      <c r="I161" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F162" t="s">
-        <v>11</v>
-      </c>
-      <c r="G162" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G162" t="s">
+        <v>13</v>
+      </c>
       <c r="H162" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I162" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F163" t="s">
-        <v>30</v>
-      </c>
-      <c r="G163" t="s"/>
-      <c r="H163" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="G163" t="s">
+        <v>178</v>
+      </c>
+      <c r="H163" t="s"/>
+      <c r="I163" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F164" t="s">
-        <v>11</v>
-      </c>
-      <c r="G164" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G164" t="s">
+        <v>13</v>
+      </c>
       <c r="H164" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I164" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F165" t="s">
-        <v>30</v>
-      </c>
-      <c r="G165" t="s"/>
-      <c r="H165" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="G165" t="s">
+        <v>206</v>
+      </c>
+      <c r="H165" t="s"/>
+      <c r="I165" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F166" t="s">
-        <v>11</v>
-      </c>
-      <c r="G166" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G166" t="s">
+        <v>13</v>
+      </c>
       <c r="H166" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I166" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F167" t="s">
-        <v>30</v>
-      </c>
-      <c r="G167" t="s"/>
-      <c r="H167" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="G167" t="s">
+        <v>206</v>
+      </c>
+      <c r="H167" t="s"/>
+      <c r="I167" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F168" t="s">
-        <v>11</v>
-      </c>
-      <c r="G168" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G168" t="s">
+        <v>13</v>
+      </c>
       <c r="H168" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I168" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F169" t="s">
-        <v>11</v>
-      </c>
-      <c r="G169" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G169" t="s">
+        <v>13</v>
+      </c>
       <c r="H169" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I169" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F170" t="s">
-        <v>30</v>
-      </c>
-      <c r="G170" t="s"/>
-      <c r="H170" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="G170" t="s">
+        <v>212</v>
+      </c>
+      <c r="H170" t="s"/>
+      <c r="I170" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F171" t="s">
-        <v>11</v>
-      </c>
-      <c r="G171" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G171" t="s">
+        <v>13</v>
+      </c>
       <c r="H171" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I171" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F172" t="s">
-        <v>30</v>
-      </c>
-      <c r="G172" t="s"/>
-      <c r="H172" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="G172" t="s">
+        <v>215</v>
+      </c>
+      <c r="H172" t="s"/>
+      <c r="I172" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F173" t="s">
-        <v>11</v>
-      </c>
-      <c r="G173" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G173" t="s">
+        <v>13</v>
+      </c>
       <c r="H173" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I173" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F174" t="s">
-        <v>30</v>
-      </c>
-      <c r="G174" t="s"/>
-      <c r="H174" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="G174" t="s">
+        <v>215</v>
+      </c>
+      <c r="H174" t="s"/>
+      <c r="I174" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D175" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E175" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F175" t="s">
-        <v>11</v>
-      </c>
-      <c r="G175" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G175" t="s">
+        <v>13</v>
+      </c>
       <c r="H175" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I175" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C176" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D176" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E176" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F176" t="s">
-        <v>30</v>
-      </c>
-      <c r="G176" t="s"/>
-      <c r="H176" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="G176" t="s">
+        <v>215</v>
+      </c>
+      <c r="H176" t="s"/>
+      <c r="I176" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C177" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D177" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E177" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F177" t="s">
-        <v>11</v>
-      </c>
-      <c r="G177" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G177" t="s">
+        <v>13</v>
+      </c>
       <c r="H177" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I177" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C178" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D178" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E178" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F178" t="s">
-        <v>30</v>
-      </c>
-      <c r="G178" t="s"/>
-      <c r="H178" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="G178" t="s">
+        <v>212</v>
+      </c>
+      <c r="H178" t="s"/>
+      <c r="I178" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C179" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D179" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E179" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F179" t="s">
-        <v>11</v>
-      </c>
-      <c r="G179" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G179" t="s">
+        <v>13</v>
+      </c>
       <c r="H179" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I179" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C180" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D180" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E180" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F180" t="s">
-        <v>30</v>
-      </c>
-      <c r="G180" t="s"/>
-      <c r="H180" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="G180" t="s">
+        <v>212</v>
+      </c>
+      <c r="H180" t="s"/>
+      <c r="I180" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C181" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D181" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E181" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F181" t="s">
-        <v>11</v>
-      </c>
-      <c r="G181" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G181" t="s">
+        <v>13</v>
+      </c>
       <c r="H181" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I181" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C182" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D182" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E182" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F182" t="s">
-        <v>30</v>
-      </c>
-      <c r="G182" t="s"/>
-      <c r="H182" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="G182" t="s">
+        <v>212</v>
+      </c>
+      <c r="H182" t="s"/>
+      <c r="I182" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C183" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D183" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E183" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F183" t="s">
-        <v>11</v>
-      </c>
-      <c r="G183" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G183" t="s">
+        <v>13</v>
+      </c>
       <c r="H183" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I183" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C184" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D184" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E184" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F184" t="s">
-        <v>30</v>
-      </c>
-      <c r="G184" t="s"/>
-      <c r="H184" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="G184" t="s">
+        <v>212</v>
+      </c>
+      <c r="H184" t="s"/>
+      <c r="I184" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C185" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D185" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E185" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F185" t="s">
-        <v>11</v>
-      </c>
-      <c r="G185" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G185" t="s">
+        <v>13</v>
+      </c>
       <c r="H185" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I185" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C186" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D186" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E186" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F186" t="s">
-        <v>30</v>
-      </c>
-      <c r="G186" t="s"/>
-      <c r="H186" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="G186" t="s">
+        <v>212</v>
+      </c>
+      <c r="H186" t="s"/>
+      <c r="I186" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C187" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D187" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E187" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F187" t="s">
-        <v>11</v>
-      </c>
-      <c r="G187" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G187" t="s">
+        <v>13</v>
+      </c>
       <c r="H187" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I187" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C188" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D188" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E188" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F188" t="s">
-        <v>30</v>
-      </c>
-      <c r="G188" t="s"/>
-      <c r="H188" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="G188" t="s">
+        <v>212</v>
+      </c>
+      <c r="H188" t="s"/>
+      <c r="I188" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9">
       <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C189" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D189" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E189" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F189" t="s">
-        <v>11</v>
-      </c>
-      <c r="G189" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G189" t="s">
+        <v>13</v>
+      </c>
       <c r="H189" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I189" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C190" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D190" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E190" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F190" t="s">
-        <v>30</v>
-      </c>
-      <c r="G190" t="s"/>
-      <c r="H190" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="G190" t="s">
+        <v>212</v>
+      </c>
+      <c r="H190" t="s"/>
+      <c r="I190" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
       <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C191" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D191" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E191" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F191" t="s">
-        <v>11</v>
-      </c>
-      <c r="G191" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G191" t="s">
+        <v>13</v>
+      </c>
       <c r="H191" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I191" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9">
       <c r="A192" s="1" t="n">
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C192" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D192" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E192" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F192" t="s">
-        <v>30</v>
-      </c>
-      <c r="G192" t="s"/>
-      <c r="H192" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="G192" t="s">
+        <v>215</v>
+      </c>
+      <c r="H192" t="s"/>
+      <c r="I192" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9">
       <c r="A193" s="1" t="n">
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C193" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D193" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E193" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F193" t="s">
-        <v>11</v>
-      </c>
-      <c r="G193" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G193" t="s">
+        <v>13</v>
+      </c>
       <c r="H193" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I193" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9">
       <c r="A194" s="1" t="n">
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C194" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D194" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E194" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F194" t="s">
-        <v>30</v>
-      </c>
-      <c r="G194" t="s"/>
-      <c r="H194" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="G194" t="s">
+        <v>215</v>
+      </c>
+      <c r="H194" t="s"/>
+      <c r="I194" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9">
       <c r="A195" s="1" t="n">
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C195" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D195" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E195" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F195" t="s">
-        <v>11</v>
-      </c>
-      <c r="G195" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G195" t="s">
+        <v>13</v>
+      </c>
       <c r="H195" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I195" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9">
       <c r="A196" s="1" t="n">
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C196" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D196" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E196" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F196" t="s">
-        <v>30</v>
-      </c>
-      <c r="G196" t="s"/>
-      <c r="H196" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="G196" t="s">
+        <v>215</v>
+      </c>
+      <c r="H196" t="s"/>
+      <c r="I196" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9">
       <c r="A197" s="1" t="n">
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C197" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D197" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E197" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F197" t="s">
-        <v>11</v>
-      </c>
-      <c r="G197" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G197" t="s">
+        <v>13</v>
+      </c>
       <c r="H197" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I197" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9">
       <c r="A198" s="1" t="n">
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C198" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D198" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E198" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F198" t="s">
-        <v>30</v>
-      </c>
-      <c r="G198" t="s"/>
-      <c r="H198" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="G198" t="s">
+        <v>215</v>
+      </c>
+      <c r="H198" t="s"/>
+      <c r="I198" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9">
       <c r="A199" s="1" t="n">
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C199" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D199" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E199" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F199" t="s">
-        <v>11</v>
-      </c>
-      <c r="G199" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G199" t="s">
+        <v>13</v>
+      </c>
       <c r="H199" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I199" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9">
       <c r="A200" s="1" t="n">
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C200" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D200" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E200" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F200" t="s">
-        <v>30</v>
-      </c>
-      <c r="G200" t="s"/>
-      <c r="H200" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="G200" t="s">
+        <v>215</v>
+      </c>
+      <c r="H200" t="s"/>
+      <c r="I200" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9">
       <c r="A201" s="1" t="n">
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C201" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D201" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E201" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F201" t="s">
-        <v>11</v>
-      </c>
-      <c r="G201" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G201" t="s">
+        <v>13</v>
+      </c>
       <c r="H201" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I201" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9">
       <c r="A202" s="1" t="n">
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C202" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D202" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E202" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F202" t="s">
-        <v>13</v>
-      </c>
-      <c r="G202" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G202" t="s">
+        <v>17</v>
+      </c>
       <c r="H202" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I202" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9">
       <c r="A203" s="1" t="n">
         <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C203" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D203" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E203" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F203" t="s">
-        <v>30</v>
-      </c>
-      <c r="G203" t="s"/>
-      <c r="H203" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="G203" t="s">
+        <v>215</v>
+      </c>
+      <c r="H203" t="s"/>
+      <c r="I203" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9">
       <c r="A204" s="1" t="n">
         <v>202</v>
       </c>
       <c r="B204" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C204" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D204" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E204" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F204" t="s">
-        <v>13</v>
-      </c>
-      <c r="G204" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G204" t="s">
+        <v>17</v>
+      </c>
       <c r="H204" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I204" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9">
       <c r="A205" s="1" t="n">
         <v>203</v>
       </c>
       <c r="B205" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C205" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D205" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E205" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F205" t="s">
-        <v>30</v>
-      </c>
-      <c r="G205" t="s"/>
-      <c r="H205" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="G205" t="s">
+        <v>215</v>
+      </c>
+      <c r="H205" t="s"/>
+      <c r="I205" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9">
       <c r="A206" s="1" t="n">
         <v>204</v>
       </c>
       <c r="B206" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C206" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D206" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E206" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F206" t="s">
-        <v>13</v>
-      </c>
-      <c r="G206" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G206" t="s">
+        <v>17</v>
+      </c>
       <c r="H206" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I206" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9">
       <c r="A207" s="1" t="n">
         <v>205</v>
       </c>
       <c r="B207" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C207" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D207" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E207" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F207" t="s">
-        <v>13</v>
-      </c>
-      <c r="G207" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G207" t="s">
+        <v>17</v>
+      </c>
       <c r="H207" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I207" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9">
       <c r="A208" s="1" t="n">
         <v>206</v>
       </c>
       <c r="B208" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C208" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D208" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E208" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F208" t="s">
-        <v>13</v>
-      </c>
-      <c r="G208" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G208" t="s">
+        <v>17</v>
+      </c>
       <c r="H208" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I208" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9">
       <c r="A209" s="1" t="n">
         <v>207</v>
       </c>
       <c r="B209" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C209" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D209" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E209" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F209" t="s">
-        <v>13</v>
-      </c>
-      <c r="G209" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G209" t="s">
+        <v>17</v>
+      </c>
       <c r="H209" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I209" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9">
       <c r="A210" s="1" t="n">
         <v>208</v>
       </c>
       <c r="B210" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C210" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D210" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E210" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F210" t="s">
-        <v>13</v>
-      </c>
-      <c r="G210" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G210" t="s">
+        <v>17</v>
+      </c>
       <c r="H210" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I210" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9">
       <c r="A211" s="1" t="n">
         <v>209</v>
       </c>
       <c r="B211" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C211" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D211" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E211" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F211" t="s">
-        <v>13</v>
-      </c>
-      <c r="G211" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G211" t="s">
+        <v>17</v>
+      </c>
       <c r="H211" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I211" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9">
       <c r="A212" s="1" t="n">
         <v>210</v>
       </c>
       <c r="B212" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C212" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D212" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E212" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F212" t="s">
-        <v>11</v>
-      </c>
-      <c r="G212" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G212" t="s">
+        <v>13</v>
+      </c>
       <c r="H212" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I212" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9">
       <c r="A213" s="1" t="n">
         <v>211</v>
       </c>
       <c r="B213" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C213" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D213" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E213" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F213" t="s">
-        <v>30</v>
-      </c>
-      <c r="G213" t="s"/>
-      <c r="H213" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="G213" t="s">
+        <v>206</v>
+      </c>
+      <c r="H213" t="s"/>
+      <c r="I213" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9">
       <c r="A214" s="1" t="n">
         <v>212</v>
       </c>
       <c r="B214" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C214" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D214" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E214" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F214" t="s">
-        <v>11</v>
-      </c>
-      <c r="G214" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G214" t="s">
+        <v>13</v>
+      </c>
       <c r="H214" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I214" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9">
       <c r="A215" s="1" t="n">
         <v>213</v>
       </c>
       <c r="B215" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C215" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D215" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E215" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F215" t="s">
-        <v>30</v>
-      </c>
-      <c r="G215" t="s"/>
-      <c r="H215" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="G215" t="s">
+        <v>206</v>
+      </c>
+      <c r="H215" t="s"/>
+      <c r="I215" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9">
       <c r="A216" s="1" t="n">
         <v>214</v>
       </c>
       <c r="B216" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C216" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D216" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E216" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F216" t="s">
-        <v>11</v>
-      </c>
-      <c r="G216" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G216" t="s">
+        <v>13</v>
+      </c>
       <c r="H216" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I216" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9">
       <c r="A217" s="1" t="n">
         <v>215</v>
       </c>
       <c r="B217" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C217" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D217" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E217" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F217" t="s">
-        <v>30</v>
-      </c>
-      <c r="G217" t="s"/>
-      <c r="H217" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="G217" t="s">
+        <v>206</v>
+      </c>
+      <c r="H217" t="s"/>
+      <c r="I217" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9">
       <c r="A218" s="1" t="n">
         <v>216</v>
       </c>
       <c r="B218" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C218" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D218" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E218" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F218" t="s">
-        <v>11</v>
-      </c>
-      <c r="G218" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G218" t="s">
+        <v>13</v>
+      </c>
       <c r="H218" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I218" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9">
       <c r="A219" s="1" t="n">
         <v>217</v>
       </c>
       <c r="B219" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C219" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D219" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E219" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F219" t="s">
-        <v>30</v>
-      </c>
-      <c r="G219" t="s"/>
-      <c r="H219" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="G219" t="s">
+        <v>206</v>
+      </c>
+      <c r="H219" t="s"/>
+      <c r="I219" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9">
       <c r="A220" s="1" t="n">
         <v>218</v>
       </c>
       <c r="B220" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C220" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D220" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E220" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F220" t="s">
-        <v>11</v>
-      </c>
-      <c r="G220" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G220" t="s">
+        <v>13</v>
+      </c>
       <c r="H220" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="221" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I220" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9">
       <c r="A221" s="1" t="n">
         <v>219</v>
       </c>
       <c r="B221" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C221" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D221" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E221" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F221" t="s">
-        <v>11</v>
-      </c>
-      <c r="G221" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G221" t="s">
+        <v>13</v>
+      </c>
       <c r="H221" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I221" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9">
       <c r="A222" s="1" t="n">
         <v>220</v>
       </c>
       <c r="B222" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C222" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D222" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E222" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F222" t="s">
-        <v>13</v>
-      </c>
-      <c r="G222" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G222" t="s">
+        <v>17</v>
+      </c>
       <c r="H222" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="223" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I222" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9">
       <c r="A223" s="1" t="n">
         <v>221</v>
       </c>
       <c r="B223" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C223" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D223" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E223" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F223" t="s">
-        <v>30</v>
-      </c>
-      <c r="G223" t="s"/>
-      <c r="H223" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="224" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="G223" t="s">
+        <v>212</v>
+      </c>
+      <c r="H223" t="s"/>
+      <c r="I223" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9">
       <c r="A224" s="1" t="n">
         <v>222</v>
       </c>
       <c r="B224" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C224" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D224" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E224" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F224" t="s">
-        <v>13</v>
-      </c>
-      <c r="G224" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G224" t="s">
+        <v>17</v>
+      </c>
       <c r="H224" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="225" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I224" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9">
       <c r="A225" s="1" t="n">
         <v>223</v>
       </c>
       <c r="B225" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C225" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D225" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E225" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F225" t="s">
-        <v>11</v>
-      </c>
-      <c r="G225" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G225" t="s">
+        <v>13</v>
+      </c>
       <c r="H225" t="s">
-        <v>243</v>
+        <v>14</v>
+      </c>
+      <c r="I225" t="s">
+        <v>269</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg94686.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg94686.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="274">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>400652</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Poe</t>
   </si>
   <si>
@@ -67,6 +73,9 @@
     <t>412435</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Keating</t>
   </si>
   <si>
@@ -80,6 +89,9 @@
   </si>
   <si>
     <t>400433</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Wilson</t>
@@ -1172,7 +1184,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I225"/>
+  <dimension ref="A1:J225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1180,7 +1192,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1205,6289 +1217,6752 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H7" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="J7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H9" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="J9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" t="s">
+        <v>39</v>
+      </c>
+      <c r="J11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
         <v>13</v>
       </c>
-      <c r="H10" t="s">
+      <c r="G12" t="s">
         <v>14</v>
       </c>
-      <c r="I10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11" t="s">
-        <v>34</v>
-      </c>
-      <c r="H11" t="s">
-        <v>35</v>
-      </c>
-      <c r="I11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" t="s">
+        <v>43</v>
+      </c>
+      <c r="I13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
         <v>13</v>
       </c>
-      <c r="H12" t="s">
+      <c r="G14" t="s">
         <v>14</v>
       </c>
-      <c r="I12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>38</v>
-      </c>
-      <c r="G13" t="s">
-        <v>39</v>
-      </c>
-      <c r="H13" t="s">
-        <v>40</v>
-      </c>
-      <c r="I13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>43</v>
-      </c>
-      <c r="G15" t="s">
-        <v>44</v>
-      </c>
-      <c r="H15" t="s"/>
-      <c r="I15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>47</v>
+      </c>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
+        <v>48</v>
+      </c>
+      <c r="I15" t="s"/>
+      <c r="J15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>43</v>
-      </c>
-      <c r="G17" t="s">
-        <v>47</v>
-      </c>
-      <c r="H17" t="s"/>
-      <c r="I17" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>47</v>
+      </c>
+      <c r="G17" t="s"/>
+      <c r="H17" t="s">
+        <v>51</v>
+      </c>
+      <c r="I17" t="s"/>
+      <c r="J17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I18" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>43</v>
-      </c>
-      <c r="G19" t="s">
-        <v>50</v>
-      </c>
-      <c r="H19" t="s"/>
-      <c r="I19" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>47</v>
+      </c>
+      <c r="G19" t="s"/>
+      <c r="H19" t="s">
+        <v>54</v>
+      </c>
+      <c r="I19" t="s"/>
+      <c r="J19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I20" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>43</v>
-      </c>
-      <c r="G21" t="s">
-        <v>50</v>
-      </c>
-      <c r="H21" t="s"/>
-      <c r="I21" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>47</v>
+      </c>
+      <c r="G21" t="s"/>
+      <c r="H21" t="s">
+        <v>54</v>
+      </c>
+      <c r="I21" t="s"/>
+      <c r="J21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I22" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>43</v>
-      </c>
-      <c r="G23" t="s">
-        <v>44</v>
-      </c>
-      <c r="H23" t="s"/>
-      <c r="I23" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>47</v>
+      </c>
+      <c r="G23" t="s"/>
+      <c r="H23" t="s">
+        <v>48</v>
+      </c>
+      <c r="I23" t="s"/>
+      <c r="J23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I24" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J24" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>43</v>
-      </c>
-      <c r="G25" t="s">
-        <v>44</v>
-      </c>
-      <c r="H25" t="s"/>
-      <c r="I25" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>47</v>
+      </c>
+      <c r="G25" t="s"/>
+      <c r="H25" t="s">
+        <v>48</v>
+      </c>
+      <c r="I25" t="s"/>
+      <c r="J25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G26" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H26" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I26" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="J26" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H27" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I27" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J27" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>43</v>
-      </c>
-      <c r="G28" t="s">
-        <v>44</v>
-      </c>
-      <c r="H28" t="s"/>
-      <c r="I28" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>47</v>
+      </c>
+      <c r="G28" t="s"/>
+      <c r="H28" t="s">
+        <v>48</v>
+      </c>
+      <c r="I28" t="s"/>
+      <c r="J28" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I29" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J29" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>43</v>
-      </c>
-      <c r="G30" t="s">
-        <v>44</v>
-      </c>
-      <c r="H30" t="s"/>
-      <c r="I30" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>47</v>
+      </c>
+      <c r="G30" t="s"/>
+      <c r="H30" t="s">
+        <v>48</v>
+      </c>
+      <c r="I30" t="s"/>
+      <c r="J30" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G31" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H31" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I31" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J31" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>43</v>
-      </c>
-      <c r="G32" t="s">
-        <v>44</v>
-      </c>
-      <c r="H32" t="s"/>
-      <c r="I32" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>47</v>
+      </c>
+      <c r="G32" t="s"/>
+      <c r="H32" t="s">
+        <v>48</v>
+      </c>
+      <c r="I32" t="s"/>
+      <c r="J32" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G33" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H33" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I33" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J33" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>43</v>
-      </c>
-      <c r="G34" t="s">
-        <v>44</v>
-      </c>
-      <c r="H34" t="s"/>
-      <c r="I34" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>47</v>
+      </c>
+      <c r="G34" t="s"/>
+      <c r="H34" t="s">
+        <v>48</v>
+      </c>
+      <c r="I34" t="s"/>
+      <c r="J34" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G35" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H35" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I35" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J35" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>43</v>
-      </c>
-      <c r="G36" t="s">
-        <v>44</v>
-      </c>
-      <c r="H36" t="s"/>
-      <c r="I36" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>47</v>
+      </c>
+      <c r="G36" t="s"/>
+      <c r="H36" t="s">
+        <v>48</v>
+      </c>
+      <c r="I36" t="s"/>
+      <c r="J36" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G37" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H37" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I37" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J37" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>43</v>
-      </c>
-      <c r="G38" t="s">
-        <v>44</v>
-      </c>
-      <c r="H38" t="s"/>
-      <c r="I38" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>47</v>
+      </c>
+      <c r="G38" t="s"/>
+      <c r="H38" t="s">
+        <v>48</v>
+      </c>
+      <c r="I38" t="s"/>
+      <c r="J38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G39" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H39" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I39" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J39" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>43</v>
-      </c>
-      <c r="G40" t="s">
-        <v>44</v>
-      </c>
-      <c r="H40" t="s"/>
-      <c r="I40" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>47</v>
+      </c>
+      <c r="G40" t="s"/>
+      <c r="H40" t="s">
+        <v>48</v>
+      </c>
+      <c r="I40" t="s"/>
+      <c r="J40" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G41" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H41" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I41" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J41" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>43</v>
-      </c>
-      <c r="G42" t="s">
-        <v>44</v>
-      </c>
-      <c r="H42" t="s"/>
-      <c r="I42" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>47</v>
+      </c>
+      <c r="G42" t="s"/>
+      <c r="H42" t="s">
+        <v>48</v>
+      </c>
+      <c r="I42" t="s"/>
+      <c r="J42" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G43" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H43" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I43" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J43" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G44" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H44" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I44" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J44" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>43</v>
-      </c>
-      <c r="G45" t="s">
-        <v>44</v>
-      </c>
-      <c r="H45" t="s"/>
-      <c r="I45" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>47</v>
+      </c>
+      <c r="G45" t="s"/>
+      <c r="H45" t="s">
+        <v>48</v>
+      </c>
+      <c r="I45" t="s"/>
+      <c r="J45" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G46" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H46" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I46" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J46" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>43</v>
-      </c>
-      <c r="G47" t="s">
-        <v>47</v>
-      </c>
-      <c r="H47" t="s"/>
-      <c r="I47" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>47</v>
+      </c>
+      <c r="G47" t="s"/>
+      <c r="H47" t="s">
+        <v>51</v>
+      </c>
+      <c r="I47" t="s"/>
+      <c r="J47" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
+        <v>18</v>
+      </c>
+      <c r="G48" t="s">
+        <v>19</v>
+      </c>
+      <c r="H48" t="s">
+        <v>20</v>
+      </c>
+      <c r="I48" t="s">
+        <v>21</v>
+      </c>
+      <c r="J48" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" t="s">
+        <v>10</v>
+      </c>
+      <c r="D49" t="s">
+        <v>11</v>
+      </c>
+      <c r="E49" t="s">
+        <v>12</v>
+      </c>
+      <c r="F49" t="s">
+        <v>13</v>
+      </c>
+      <c r="G49" t="s">
+        <v>14</v>
+      </c>
+      <c r="H49" t="s">
+        <v>15</v>
+      </c>
+      <c r="I49" t="s">
         <v>16</v>
       </c>
-      <c r="G48" t="s">
-        <v>17</v>
-      </c>
-      <c r="H48" t="s">
-        <v>18</v>
-      </c>
-      <c r="I48" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="s">
-        <v>8</v>
-      </c>
-      <c r="C49" t="s">
-        <v>9</v>
-      </c>
-      <c r="D49" t="s">
-        <v>10</v>
-      </c>
-      <c r="E49" t="s">
-        <v>11</v>
-      </c>
-      <c r="F49" t="s">
-        <v>12</v>
-      </c>
-      <c r="G49" t="s">
-        <v>13</v>
-      </c>
-      <c r="H49" t="s">
-        <v>14</v>
-      </c>
-      <c r="I49" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+      <c r="J49" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G50" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="H50" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I50" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="J50" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>43</v>
-      </c>
-      <c r="G51" t="s">
-        <v>44</v>
-      </c>
-      <c r="H51" t="s"/>
-      <c r="I51" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>47</v>
+      </c>
+      <c r="G51" t="s"/>
+      <c r="H51" t="s">
+        <v>48</v>
+      </c>
+      <c r="I51" t="s"/>
+      <c r="J51" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G52" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="H52" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I52" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="J52" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>43</v>
-      </c>
-      <c r="G53" t="s">
-        <v>44</v>
-      </c>
-      <c r="H53" t="s"/>
-      <c r="I53" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>47</v>
+      </c>
+      <c r="G53" t="s"/>
+      <c r="H53" t="s">
+        <v>48</v>
+      </c>
+      <c r="I53" t="s"/>
+      <c r="J53" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G54" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="H54" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I54" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="J54" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>43</v>
-      </c>
-      <c r="G55" t="s">
-        <v>44</v>
-      </c>
-      <c r="H55" t="s"/>
-      <c r="I55" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>47</v>
+      </c>
+      <c r="G55" t="s"/>
+      <c r="H55" t="s">
+        <v>48</v>
+      </c>
+      <c r="I55" t="s"/>
+      <c r="J55" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G56" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="H56" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I56" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="J56" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>43</v>
-      </c>
-      <c r="G57" t="s">
-        <v>44</v>
-      </c>
-      <c r="H57" t="s"/>
-      <c r="I57" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>47</v>
+      </c>
+      <c r="G57" t="s"/>
+      <c r="H57" t="s">
+        <v>48</v>
+      </c>
+      <c r="I57" t="s"/>
+      <c r="J57" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G58" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="H58" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I58" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="J58" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>43</v>
-      </c>
-      <c r="G59" t="s">
-        <v>44</v>
-      </c>
-      <c r="H59" t="s"/>
-      <c r="I59" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>47</v>
+      </c>
+      <c r="G59" t="s"/>
+      <c r="H59" t="s">
+        <v>48</v>
+      </c>
+      <c r="I59" t="s"/>
+      <c r="J59" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G60" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="H60" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I60" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="J60" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>43</v>
-      </c>
-      <c r="G61" t="s">
-        <v>44</v>
-      </c>
-      <c r="H61" t="s"/>
-      <c r="I61" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>47</v>
+      </c>
+      <c r="G61" t="s"/>
+      <c r="H61" t="s">
+        <v>48</v>
+      </c>
+      <c r="I61" t="s"/>
+      <c r="J61" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G62" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="H62" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I62" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="J62" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>43</v>
-      </c>
-      <c r="G63" t="s">
-        <v>44</v>
-      </c>
-      <c r="H63" t="s"/>
-      <c r="I63" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>47</v>
+      </c>
+      <c r="G63" t="s"/>
+      <c r="H63" t="s">
+        <v>48</v>
+      </c>
+      <c r="I63" t="s"/>
+      <c r="J63" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G64" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="H64" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I64" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="J64" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>43</v>
-      </c>
-      <c r="G65" t="s">
-        <v>44</v>
-      </c>
-      <c r="H65" t="s"/>
-      <c r="I65" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>47</v>
+      </c>
+      <c r="G65" t="s"/>
+      <c r="H65" t="s">
+        <v>48</v>
+      </c>
+      <c r="I65" t="s"/>
+      <c r="J65" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G66" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="H66" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I66" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="J66" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>43</v>
-      </c>
-      <c r="G67" t="s">
-        <v>44</v>
-      </c>
-      <c r="H67" t="s"/>
-      <c r="I67" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>47</v>
+      </c>
+      <c r="G67" t="s"/>
+      <c r="H67" t="s">
+        <v>48</v>
+      </c>
+      <c r="I67" t="s"/>
+      <c r="J67" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G68" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="H68" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I68" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="J68" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>43</v>
-      </c>
-      <c r="G69" t="s">
-        <v>44</v>
-      </c>
-      <c r="H69" t="s"/>
-      <c r="I69" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>47</v>
+      </c>
+      <c r="G69" t="s"/>
+      <c r="H69" t="s">
+        <v>48</v>
+      </c>
+      <c r="I69" t="s"/>
+      <c r="J69" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G70" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="H70" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I70" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="J70" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>43</v>
-      </c>
-      <c r="G71" t="s">
-        <v>44</v>
-      </c>
-      <c r="H71" t="s"/>
-      <c r="I71" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>47</v>
+      </c>
+      <c r="G71" t="s"/>
+      <c r="H71" t="s">
+        <v>48</v>
+      </c>
+      <c r="I71" t="s"/>
+      <c r="J71" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G72" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="H72" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I72" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="J72" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>43</v>
-      </c>
-      <c r="G73" t="s">
-        <v>44</v>
-      </c>
-      <c r="H73" t="s"/>
-      <c r="I73" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>47</v>
+      </c>
+      <c r="G73" t="s"/>
+      <c r="H73" t="s">
+        <v>48</v>
+      </c>
+      <c r="I73" t="s"/>
+      <c r="J73" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G74" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="H74" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I74" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="J74" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>43</v>
-      </c>
-      <c r="G75" t="s">
-        <v>44</v>
-      </c>
-      <c r="H75" t="s"/>
-      <c r="I75" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>47</v>
+      </c>
+      <c r="G75" t="s"/>
+      <c r="H75" t="s">
+        <v>48</v>
+      </c>
+      <c r="I75" t="s"/>
+      <c r="J75" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G76" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="H76" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I76" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="J76" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G77" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H77" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I77" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J77" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G78" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H78" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I78" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="J78" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>43</v>
-      </c>
-      <c r="G79" t="s">
-        <v>44</v>
-      </c>
-      <c r="H79" t="s"/>
-      <c r="I79" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>47</v>
+      </c>
+      <c r="G79" t="s"/>
+      <c r="H79" t="s">
+        <v>48</v>
+      </c>
+      <c r="I79" t="s"/>
+      <c r="J79" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G80" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H80" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I80" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="J80" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>43</v>
-      </c>
-      <c r="G81" t="s">
-        <v>50</v>
-      </c>
-      <c r="H81" t="s"/>
-      <c r="I81" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>47</v>
+      </c>
+      <c r="G81" t="s"/>
+      <c r="H81" t="s">
+        <v>54</v>
+      </c>
+      <c r="I81" t="s"/>
+      <c r="J81" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G82" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H82" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I82" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="J82" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>43</v>
-      </c>
-      <c r="G83" t="s">
-        <v>44</v>
-      </c>
-      <c r="H83" t="s"/>
-      <c r="I83" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>47</v>
+      </c>
+      <c r="G83" t="s"/>
+      <c r="H83" t="s">
+        <v>48</v>
+      </c>
+      <c r="I83" t="s"/>
+      <c r="J83" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G84" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H84" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I84" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="J84" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>43</v>
-      </c>
-      <c r="G85" t="s">
-        <v>44</v>
-      </c>
-      <c r="H85" t="s"/>
-      <c r="I85" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>47</v>
+      </c>
+      <c r="G85" t="s"/>
+      <c r="H85" t="s">
+        <v>48</v>
+      </c>
+      <c r="I85" t="s"/>
+      <c r="J85" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G86" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H86" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I86" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="J86" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>43</v>
-      </c>
-      <c r="G87" t="s">
-        <v>44</v>
-      </c>
-      <c r="H87" t="s"/>
-      <c r="I87" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>47</v>
+      </c>
+      <c r="G87" t="s"/>
+      <c r="H87" t="s">
+        <v>48</v>
+      </c>
+      <c r="I87" t="s"/>
+      <c r="J87" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G88" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H88" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I88" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="J88" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G89" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H89" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I89" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J89" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G90" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H90" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I90" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J90" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>43</v>
-      </c>
-      <c r="G91" t="s">
-        <v>47</v>
-      </c>
-      <c r="H91" t="s"/>
-      <c r="I91" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>47</v>
+      </c>
+      <c r="G91" t="s"/>
+      <c r="H91" t="s">
+        <v>51</v>
+      </c>
+      <c r="I91" t="s"/>
+      <c r="J91" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G92" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H92" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I92" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J92" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>43</v>
-      </c>
-      <c r="G93" t="s">
-        <v>47</v>
-      </c>
-      <c r="H93" t="s"/>
-      <c r="I93" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>47</v>
+      </c>
+      <c r="G93" t="s"/>
+      <c r="H93" t="s">
+        <v>51</v>
+      </c>
+      <c r="I93" t="s"/>
+      <c r="J93" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G94" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H94" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I94" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J94" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>43</v>
-      </c>
-      <c r="G95" t="s">
-        <v>47</v>
-      </c>
-      <c r="H95" t="s"/>
-      <c r="I95" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>47</v>
+      </c>
+      <c r="G95" t="s"/>
+      <c r="H95" t="s">
+        <v>51</v>
+      </c>
+      <c r="I95" t="s"/>
+      <c r="J95" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G96" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H96" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I96" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J96" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>43</v>
-      </c>
-      <c r="G97" t="s">
-        <v>47</v>
-      </c>
-      <c r="H97" t="s"/>
-      <c r="I97" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>47</v>
+      </c>
+      <c r="G97" t="s"/>
+      <c r="H97" t="s">
+        <v>51</v>
+      </c>
+      <c r="I97" t="s"/>
+      <c r="J97" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G98" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H98" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I98" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J98" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>43</v>
-      </c>
-      <c r="G99" t="s">
-        <v>44</v>
-      </c>
-      <c r="H99" t="s"/>
-      <c r="I99" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>47</v>
+      </c>
+      <c r="G99" t="s"/>
+      <c r="H99" t="s">
+        <v>48</v>
+      </c>
+      <c r="I99" t="s"/>
+      <c r="J99" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G100" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H100" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I100" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J100" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>43</v>
-      </c>
-      <c r="G101" t="s">
-        <v>44</v>
-      </c>
-      <c r="H101" t="s"/>
-      <c r="I101" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>47</v>
+      </c>
+      <c r="G101" t="s"/>
+      <c r="H101" t="s">
+        <v>48</v>
+      </c>
+      <c r="I101" t="s"/>
+      <c r="J101" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G102" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H102" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I102" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J102" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>43</v>
-      </c>
-      <c r="G103" t="s">
-        <v>50</v>
-      </c>
-      <c r="H103" t="s"/>
-      <c r="I103" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>47</v>
+      </c>
+      <c r="G103" t="s"/>
+      <c r="H103" t="s">
+        <v>54</v>
+      </c>
+      <c r="I103" t="s"/>
+      <c r="J103" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G104" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H104" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I104" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J104" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>43</v>
-      </c>
-      <c r="G105" t="s">
-        <v>44</v>
-      </c>
-      <c r="H105" t="s"/>
-      <c r="I105" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>47</v>
+      </c>
+      <c r="G105" t="s"/>
+      <c r="H105" t="s">
+        <v>48</v>
+      </c>
+      <c r="I105" t="s"/>
+      <c r="J105" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G106" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H106" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I106" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J106" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G107" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H107" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I107" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J107" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="G108" t="s">
-        <v>141</v>
+        <v>25</v>
       </c>
       <c r="H108" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="I108" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>146</v>
+      </c>
+      <c r="J108" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>43</v>
-      </c>
-      <c r="G109" t="s">
-        <v>44</v>
-      </c>
-      <c r="H109" t="s"/>
-      <c r="I109" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>47</v>
+      </c>
+      <c r="G109" t="s"/>
+      <c r="H109" t="s">
+        <v>48</v>
+      </c>
+      <c r="I109" t="s"/>
+      <c r="J109" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="G110" t="s">
-        <v>141</v>
+        <v>25</v>
       </c>
       <c r="H110" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="I110" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>146</v>
+      </c>
+      <c r="J110" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>43</v>
-      </c>
-      <c r="G111" t="s">
-        <v>44</v>
-      </c>
-      <c r="H111" t="s"/>
-      <c r="I111" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>47</v>
+      </c>
+      <c r="G111" t="s"/>
+      <c r="H111" t="s">
+        <v>48</v>
+      </c>
+      <c r="I111" t="s"/>
+      <c r="J111" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="G112" t="s">
-        <v>141</v>
+        <v>25</v>
       </c>
       <c r="H112" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="I112" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>146</v>
+      </c>
+      <c r="J112" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>43</v>
-      </c>
-      <c r="G113" t="s">
-        <v>44</v>
-      </c>
-      <c r="H113" t="s"/>
-      <c r="I113" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>47</v>
+      </c>
+      <c r="G113" t="s"/>
+      <c r="H113" t="s">
+        <v>48</v>
+      </c>
+      <c r="I113" t="s"/>
+      <c r="J113" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>43</v>
-      </c>
-      <c r="G114" t="s">
-        <v>47</v>
-      </c>
-      <c r="H114" t="s"/>
-      <c r="I114" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>47</v>
+      </c>
+      <c r="G114" t="s"/>
+      <c r="H114" t="s">
+        <v>51</v>
+      </c>
+      <c r="I114" t="s"/>
+      <c r="J114" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>43</v>
-      </c>
-      <c r="G115" t="s">
-        <v>50</v>
-      </c>
-      <c r="H115" t="s"/>
-      <c r="I115" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>47</v>
+      </c>
+      <c r="G115" t="s"/>
+      <c r="H115" t="s">
+        <v>54</v>
+      </c>
+      <c r="I115" t="s"/>
+      <c r="J115" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="G116" t="s">
-        <v>141</v>
+        <v>25</v>
       </c>
       <c r="H116" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="I116" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>146</v>
+      </c>
+      <c r="J116" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G117" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H117" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I117" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J117" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="G118" t="s">
-        <v>154</v>
+        <v>25</v>
       </c>
       <c r="H118" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="I118" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>159</v>
+      </c>
+      <c r="J118" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>43</v>
-      </c>
-      <c r="G119" t="s">
-        <v>44</v>
-      </c>
-      <c r="H119" t="s"/>
-      <c r="I119" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>47</v>
+      </c>
+      <c r="G119" t="s"/>
+      <c r="H119" t="s">
+        <v>48</v>
+      </c>
+      <c r="I119" t="s"/>
+      <c r="J119" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F120" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="G120" t="s">
-        <v>154</v>
+        <v>25</v>
       </c>
       <c r="H120" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="I120" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>159</v>
+      </c>
+      <c r="J120" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F121" t="s">
-        <v>43</v>
-      </c>
-      <c r="G121" t="s">
-        <v>44</v>
-      </c>
-      <c r="H121" t="s"/>
-      <c r="I121" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>47</v>
+      </c>
+      <c r="G121" t="s"/>
+      <c r="H121" t="s">
+        <v>48</v>
+      </c>
+      <c r="I121" t="s"/>
+      <c r="J121" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F122" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="G122" t="s">
-        <v>154</v>
+        <v>25</v>
       </c>
       <c r="H122" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="I122" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>159</v>
+      </c>
+      <c r="J122" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F123" t="s">
-        <v>43</v>
-      </c>
-      <c r="G123" t="s">
-        <v>44</v>
-      </c>
-      <c r="H123" t="s"/>
-      <c r="I123" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>47</v>
+      </c>
+      <c r="G123" t="s"/>
+      <c r="H123" t="s">
+        <v>48</v>
+      </c>
+      <c r="I123" t="s"/>
+      <c r="J123" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F124" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="G124" t="s">
-        <v>154</v>
+        <v>25</v>
       </c>
       <c r="H124" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="I124" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>159</v>
+      </c>
+      <c r="J124" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E125" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F125" t="s">
-        <v>43</v>
-      </c>
-      <c r="G125" t="s">
-        <v>44</v>
-      </c>
-      <c r="H125" t="s"/>
-      <c r="I125" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>47</v>
+      </c>
+      <c r="G125" t="s"/>
+      <c r="H125" t="s">
+        <v>48</v>
+      </c>
+      <c r="I125" t="s"/>
+      <c r="J125" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E126" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F126" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="G126" t="s">
-        <v>154</v>
+        <v>25</v>
       </c>
       <c r="H126" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="I126" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>159</v>
+      </c>
+      <c r="J126" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E127" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F127" t="s">
-        <v>43</v>
-      </c>
-      <c r="G127" t="s">
-        <v>44</v>
-      </c>
-      <c r="H127" t="s"/>
-      <c r="I127" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>47</v>
+      </c>
+      <c r="G127" t="s"/>
+      <c r="H127" t="s">
+        <v>48</v>
+      </c>
+      <c r="I127" t="s"/>
+      <c r="J127" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E128" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F128" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="G128" t="s">
-        <v>154</v>
+        <v>25</v>
       </c>
       <c r="H128" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="I128" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>159</v>
+      </c>
+      <c r="J128" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E129" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F129" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G129" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H129" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I129" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J129" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E130" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F130" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G130" t="s">
-        <v>169</v>
+        <v>25</v>
       </c>
       <c r="H130" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="I130" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>174</v>
+      </c>
+      <c r="J130" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E131" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F131" t="s">
-        <v>43</v>
-      </c>
-      <c r="G131" t="s">
-        <v>44</v>
-      </c>
-      <c r="H131" t="s"/>
-      <c r="I131" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>47</v>
+      </c>
+      <c r="G131" t="s"/>
+      <c r="H131" t="s">
+        <v>48</v>
+      </c>
+      <c r="I131" t="s"/>
+      <c r="J131" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E132" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F132" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G132" t="s">
-        <v>169</v>
+        <v>25</v>
       </c>
       <c r="H132" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="I132" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>174</v>
+      </c>
+      <c r="J132" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E133" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F133" t="s">
-        <v>43</v>
-      </c>
-      <c r="G133" t="s">
-        <v>47</v>
-      </c>
-      <c r="H133" t="s"/>
-      <c r="I133" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>47</v>
+      </c>
+      <c r="G133" t="s"/>
+      <c r="H133" t="s">
+        <v>51</v>
+      </c>
+      <c r="I133" t="s"/>
+      <c r="J133" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E134" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F134" t="s">
-        <v>43</v>
-      </c>
-      <c r="G134" t="s">
-        <v>50</v>
-      </c>
-      <c r="H134" t="s"/>
-      <c r="I134" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <v>47</v>
+      </c>
+      <c r="G134" t="s"/>
+      <c r="H134" t="s">
+        <v>54</v>
+      </c>
+      <c r="I134" t="s"/>
+      <c r="J134" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E135" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F135" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G135" t="s">
-        <v>169</v>
+        <v>25</v>
       </c>
       <c r="H135" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="I135" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>174</v>
+      </c>
+      <c r="J135" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E136" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F136" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G136" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H136" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I136" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J136" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E137" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F137" t="s">
-        <v>43</v>
-      </c>
-      <c r="G137" t="s">
-        <v>178</v>
-      </c>
-      <c r="H137" t="s"/>
-      <c r="I137" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+        <v>47</v>
+      </c>
+      <c r="G137" t="s"/>
+      <c r="H137" t="s">
+        <v>182</v>
+      </c>
+      <c r="I137" t="s"/>
+      <c r="J137" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E138" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F138" t="s">
-        <v>43</v>
-      </c>
-      <c r="G138" t="s">
-        <v>47</v>
-      </c>
-      <c r="H138" t="s"/>
-      <c r="I138" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+        <v>47</v>
+      </c>
+      <c r="G138" t="s"/>
+      <c r="H138" t="s">
+        <v>51</v>
+      </c>
+      <c r="I138" t="s"/>
+      <c r="J138" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E139" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F139" t="s">
-        <v>43</v>
-      </c>
-      <c r="G139" t="s">
-        <v>178</v>
-      </c>
-      <c r="H139" t="s"/>
-      <c r="I139" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
+        <v>47</v>
+      </c>
+      <c r="G139" t="s"/>
+      <c r="H139" t="s">
+        <v>182</v>
+      </c>
+      <c r="I139" t="s"/>
+      <c r="J139" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E140" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F140" t="s">
-        <v>43</v>
-      </c>
-      <c r="G140" t="s">
-        <v>47</v>
-      </c>
-      <c r="H140" t="s"/>
-      <c r="I140" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
+        <v>47</v>
+      </c>
+      <c r="G140" t="s"/>
+      <c r="H140" t="s">
+        <v>51</v>
+      </c>
+      <c r="I140" t="s"/>
+      <c r="J140" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E141" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F141" t="s">
-        <v>43</v>
-      </c>
-      <c r="G141" t="s">
-        <v>178</v>
-      </c>
-      <c r="H141" t="s"/>
-      <c r="I141" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
+        <v>47</v>
+      </c>
+      <c r="G141" t="s"/>
+      <c r="H141" t="s">
+        <v>182</v>
+      </c>
+      <c r="I141" t="s"/>
+      <c r="J141" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E142" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F142" t="s">
-        <v>43</v>
-      </c>
-      <c r="G142" t="s">
-        <v>47</v>
-      </c>
-      <c r="H142" t="s"/>
-      <c r="I142" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
+        <v>47</v>
+      </c>
+      <c r="G142" t="s"/>
+      <c r="H142" t="s">
+        <v>51</v>
+      </c>
+      <c r="I142" t="s"/>
+      <c r="J142" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E143" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F143" t="s">
-        <v>43</v>
-      </c>
-      <c r="G143" t="s">
-        <v>178</v>
-      </c>
-      <c r="H143" t="s"/>
-      <c r="I143" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
+        <v>47</v>
+      </c>
+      <c r="G143" t="s"/>
+      <c r="H143" t="s">
+        <v>182</v>
+      </c>
+      <c r="I143" t="s"/>
+      <c r="J143" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E144" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F144" t="s">
-        <v>43</v>
-      </c>
-      <c r="G144" t="s">
-        <v>47</v>
-      </c>
-      <c r="H144" t="s"/>
-      <c r="I144" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
+        <v>47</v>
+      </c>
+      <c r="G144" t="s"/>
+      <c r="H144" t="s">
+        <v>51</v>
+      </c>
+      <c r="I144" t="s"/>
+      <c r="J144" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E145" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F145" t="s">
-        <v>43</v>
-      </c>
-      <c r="G145" t="s">
-        <v>178</v>
-      </c>
-      <c r="H145" t="s"/>
-      <c r="I145" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
+        <v>47</v>
+      </c>
+      <c r="G145" t="s"/>
+      <c r="H145" t="s">
+        <v>182</v>
+      </c>
+      <c r="I145" t="s"/>
+      <c r="J145" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E146" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F146" t="s">
-        <v>43</v>
-      </c>
-      <c r="G146" t="s">
-        <v>47</v>
-      </c>
-      <c r="H146" t="s"/>
-      <c r="I146" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
+        <v>47</v>
+      </c>
+      <c r="G146" t="s"/>
+      <c r="H146" t="s">
+        <v>51</v>
+      </c>
+      <c r="I146" t="s"/>
+      <c r="J146" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E147" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F147" t="s">
-        <v>43</v>
-      </c>
-      <c r="G147" t="s">
-        <v>178</v>
-      </c>
-      <c r="H147" t="s"/>
-      <c r="I147" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
+        <v>47</v>
+      </c>
+      <c r="G147" t="s"/>
+      <c r="H147" t="s">
+        <v>182</v>
+      </c>
+      <c r="I147" t="s"/>
+      <c r="J147" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E148" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F148" t="s">
-        <v>43</v>
-      </c>
-      <c r="G148" t="s">
-        <v>44</v>
-      </c>
-      <c r="H148" t="s"/>
-      <c r="I148" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9">
+        <v>47</v>
+      </c>
+      <c r="G148" t="s"/>
+      <c r="H148" t="s">
+        <v>48</v>
+      </c>
+      <c r="I148" t="s"/>
+      <c r="J148" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E149" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F149" t="s">
-        <v>43</v>
-      </c>
-      <c r="G149" t="s">
-        <v>178</v>
-      </c>
-      <c r="H149" t="s"/>
-      <c r="I149" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9">
+        <v>47</v>
+      </c>
+      <c r="G149" t="s"/>
+      <c r="H149" t="s">
+        <v>182</v>
+      </c>
+      <c r="I149" t="s"/>
+      <c r="J149" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E150" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F150" t="s">
-        <v>43</v>
-      </c>
-      <c r="G150" t="s">
-        <v>44</v>
-      </c>
-      <c r="H150" t="s"/>
-      <c r="I150" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9">
+        <v>47</v>
+      </c>
+      <c r="G150" t="s"/>
+      <c r="H150" t="s">
+        <v>48</v>
+      </c>
+      <c r="I150" t="s"/>
+      <c r="J150" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E151" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F151" t="s">
-        <v>43</v>
-      </c>
-      <c r="G151" t="s">
-        <v>178</v>
-      </c>
-      <c r="H151" t="s"/>
-      <c r="I151" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9">
+        <v>47</v>
+      </c>
+      <c r="G151" t="s"/>
+      <c r="H151" t="s">
+        <v>182</v>
+      </c>
+      <c r="I151" t="s"/>
+      <c r="J151" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E152" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F152" t="s">
-        <v>43</v>
-      </c>
-      <c r="G152" t="s">
-        <v>44</v>
-      </c>
-      <c r="H152" t="s"/>
-      <c r="I152" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9">
+        <v>47</v>
+      </c>
+      <c r="G152" t="s"/>
+      <c r="H152" t="s">
+        <v>48</v>
+      </c>
+      <c r="I152" t="s"/>
+      <c r="J152" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E153" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F153" t="s">
-        <v>43</v>
-      </c>
-      <c r="G153" t="s">
-        <v>178</v>
-      </c>
-      <c r="H153" t="s"/>
-      <c r="I153" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9">
+        <v>47</v>
+      </c>
+      <c r="G153" t="s"/>
+      <c r="H153" t="s">
+        <v>182</v>
+      </c>
+      <c r="I153" t="s"/>
+      <c r="J153" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E154" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F154" t="s">
-        <v>43</v>
-      </c>
-      <c r="G154" t="s">
-        <v>44</v>
-      </c>
-      <c r="H154" t="s"/>
-      <c r="I154" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9">
+        <v>47</v>
+      </c>
+      <c r="G154" t="s"/>
+      <c r="H154" t="s">
+        <v>48</v>
+      </c>
+      <c r="I154" t="s"/>
+      <c r="J154" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E155" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F155" t="s">
-        <v>43</v>
-      </c>
-      <c r="G155" t="s">
-        <v>178</v>
-      </c>
-      <c r="H155" t="s"/>
-      <c r="I155" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9">
+        <v>47</v>
+      </c>
+      <c r="G155" t="s"/>
+      <c r="H155" t="s">
+        <v>182</v>
+      </c>
+      <c r="I155" t="s"/>
+      <c r="J155" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E156" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F156" t="s">
-        <v>43</v>
-      </c>
-      <c r="G156" t="s">
-        <v>44</v>
-      </c>
-      <c r="H156" t="s"/>
-      <c r="I156" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9">
+        <v>47</v>
+      </c>
+      <c r="G156" t="s"/>
+      <c r="H156" t="s">
+        <v>48</v>
+      </c>
+      <c r="I156" t="s"/>
+      <c r="J156" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E157" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F157" t="s">
-        <v>43</v>
-      </c>
-      <c r="G157" t="s">
-        <v>178</v>
-      </c>
-      <c r="H157" t="s"/>
-      <c r="I157" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9">
+        <v>47</v>
+      </c>
+      <c r="G157" t="s"/>
+      <c r="H157" t="s">
+        <v>182</v>
+      </c>
+      <c r="I157" t="s"/>
+      <c r="J157" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E158" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F158" t="s">
-        <v>43</v>
-      </c>
-      <c r="G158" t="s">
-        <v>44</v>
-      </c>
-      <c r="H158" t="s"/>
-      <c r="I158" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9">
+        <v>47</v>
+      </c>
+      <c r="G158" t="s"/>
+      <c r="H158" t="s">
+        <v>48</v>
+      </c>
+      <c r="I158" t="s"/>
+      <c r="J158" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E159" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F159" t="s">
-        <v>43</v>
-      </c>
-      <c r="G159" t="s">
-        <v>178</v>
-      </c>
-      <c r="H159" t="s"/>
-      <c r="I159" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9">
+        <v>47</v>
+      </c>
+      <c r="G159" t="s"/>
+      <c r="H159" t="s">
+        <v>182</v>
+      </c>
+      <c r="I159" t="s"/>
+      <c r="J159" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E160" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F160" t="s">
-        <v>43</v>
-      </c>
-      <c r="G160" t="s">
-        <v>44</v>
-      </c>
-      <c r="H160" t="s"/>
-      <c r="I160" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9">
+        <v>47</v>
+      </c>
+      <c r="G160" t="s"/>
+      <c r="H160" t="s">
+        <v>48</v>
+      </c>
+      <c r="I160" t="s"/>
+      <c r="J160" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E161" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F161" t="s">
-        <v>43</v>
-      </c>
-      <c r="G161" t="s">
-        <v>178</v>
-      </c>
-      <c r="H161" t="s"/>
-      <c r="I161" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9">
+        <v>47</v>
+      </c>
+      <c r="G161" t="s"/>
+      <c r="H161" t="s">
+        <v>182</v>
+      </c>
+      <c r="I161" t="s"/>
+      <c r="J161" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E162" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F162" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G162" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H162" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I162" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J162" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E163" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F163" t="s">
-        <v>43</v>
-      </c>
-      <c r="G163" t="s">
-        <v>178</v>
-      </c>
-      <c r="H163" t="s"/>
-      <c r="I163" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9">
+        <v>47</v>
+      </c>
+      <c r="G163" t="s"/>
+      <c r="H163" t="s">
+        <v>182</v>
+      </c>
+      <c r="I163" t="s"/>
+      <c r="J163" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E164" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F164" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G164" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H164" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I164" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J164" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E165" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F165" t="s">
-        <v>43</v>
-      </c>
-      <c r="G165" t="s">
-        <v>206</v>
-      </c>
-      <c r="H165" t="s"/>
-      <c r="I165" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9">
+        <v>47</v>
+      </c>
+      <c r="G165" t="s"/>
+      <c r="H165" t="s">
+        <v>210</v>
+      </c>
+      <c r="I165" t="s"/>
+      <c r="J165" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E166" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F166" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G166" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H166" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I166" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J166" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E167" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F167" t="s">
-        <v>43</v>
-      </c>
-      <c r="G167" t="s">
-        <v>206</v>
-      </c>
-      <c r="H167" t="s"/>
-      <c r="I167" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9">
+        <v>47</v>
+      </c>
+      <c r="G167" t="s"/>
+      <c r="H167" t="s">
+        <v>210</v>
+      </c>
+      <c r="I167" t="s"/>
+      <c r="J167" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E168" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F168" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G168" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H168" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I168" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J168" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E169" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F169" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G169" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H169" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I169" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J169" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E170" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F170" t="s">
-        <v>43</v>
-      </c>
-      <c r="G170" t="s">
-        <v>212</v>
-      </c>
-      <c r="H170" t="s"/>
-      <c r="I170" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9">
+        <v>47</v>
+      </c>
+      <c r="G170" t="s"/>
+      <c r="H170" t="s">
+        <v>216</v>
+      </c>
+      <c r="I170" t="s"/>
+      <c r="J170" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E171" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F171" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G171" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H171" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I171" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J171" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E172" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F172" t="s">
-        <v>43</v>
-      </c>
-      <c r="G172" t="s">
-        <v>215</v>
-      </c>
-      <c r="H172" t="s"/>
-      <c r="I172" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9">
+        <v>47</v>
+      </c>
+      <c r="G172" t="s"/>
+      <c r="H172" t="s">
+        <v>219</v>
+      </c>
+      <c r="I172" t="s"/>
+      <c r="J172" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E173" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F173" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G173" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H173" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I173" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J173" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E174" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F174" t="s">
-        <v>43</v>
-      </c>
-      <c r="G174" t="s">
-        <v>215</v>
-      </c>
-      <c r="H174" t="s"/>
-      <c r="I174" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9">
+        <v>47</v>
+      </c>
+      <c r="G174" t="s"/>
+      <c r="H174" t="s">
+        <v>219</v>
+      </c>
+      <c r="I174" t="s"/>
+      <c r="J174" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C175" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D175" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E175" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F175" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G175" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H175" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I175" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J175" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C176" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D176" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E176" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F176" t="s">
-        <v>43</v>
-      </c>
-      <c r="G176" t="s">
-        <v>215</v>
-      </c>
-      <c r="H176" t="s"/>
-      <c r="I176" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9">
+        <v>47</v>
+      </c>
+      <c r="G176" t="s"/>
+      <c r="H176" t="s">
+        <v>219</v>
+      </c>
+      <c r="I176" t="s"/>
+      <c r="J176" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C177" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D177" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E177" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F177" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G177" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H177" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I177" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J177" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C178" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D178" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E178" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F178" t="s">
-        <v>43</v>
-      </c>
-      <c r="G178" t="s">
-        <v>212</v>
-      </c>
-      <c r="H178" t="s"/>
-      <c r="I178" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9">
+        <v>47</v>
+      </c>
+      <c r="G178" t="s"/>
+      <c r="H178" t="s">
+        <v>216</v>
+      </c>
+      <c r="I178" t="s"/>
+      <c r="J178" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C179" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D179" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E179" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F179" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G179" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H179" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I179" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J179" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C180" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D180" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E180" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F180" t="s">
-        <v>43</v>
-      </c>
-      <c r="G180" t="s">
-        <v>212</v>
-      </c>
-      <c r="H180" t="s"/>
-      <c r="I180" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9">
+        <v>47</v>
+      </c>
+      <c r="G180" t="s"/>
+      <c r="H180" t="s">
+        <v>216</v>
+      </c>
+      <c r="I180" t="s"/>
+      <c r="J180" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C181" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D181" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E181" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F181" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G181" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H181" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I181" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J181" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C182" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D182" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E182" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F182" t="s">
-        <v>43</v>
-      </c>
-      <c r="G182" t="s">
-        <v>212</v>
-      </c>
-      <c r="H182" t="s"/>
-      <c r="I182" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9">
+        <v>47</v>
+      </c>
+      <c r="G182" t="s"/>
+      <c r="H182" t="s">
+        <v>216</v>
+      </c>
+      <c r="I182" t="s"/>
+      <c r="J182" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C183" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D183" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E183" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F183" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G183" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H183" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I183" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J183" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C184" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D184" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E184" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F184" t="s">
-        <v>43</v>
-      </c>
-      <c r="G184" t="s">
-        <v>212</v>
-      </c>
-      <c r="H184" t="s"/>
-      <c r="I184" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9">
+        <v>47</v>
+      </c>
+      <c r="G184" t="s"/>
+      <c r="H184" t="s">
+        <v>216</v>
+      </c>
+      <c r="I184" t="s"/>
+      <c r="J184" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C185" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D185" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E185" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F185" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G185" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H185" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I185" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J185" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C186" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D186" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E186" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F186" t="s">
-        <v>43</v>
-      </c>
-      <c r="G186" t="s">
-        <v>212</v>
-      </c>
-      <c r="H186" t="s"/>
-      <c r="I186" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9">
+        <v>47</v>
+      </c>
+      <c r="G186" t="s"/>
+      <c r="H186" t="s">
+        <v>216</v>
+      </c>
+      <c r="I186" t="s"/>
+      <c r="J186" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10">
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C187" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D187" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E187" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F187" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G187" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H187" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I187" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J187" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10">
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C188" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D188" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E188" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F188" t="s">
-        <v>43</v>
-      </c>
-      <c r="G188" t="s">
-        <v>212</v>
-      </c>
-      <c r="H188" t="s"/>
-      <c r="I188" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9">
+        <v>47</v>
+      </c>
+      <c r="G188" t="s"/>
+      <c r="H188" t="s">
+        <v>216</v>
+      </c>
+      <c r="I188" t="s"/>
+      <c r="J188" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10">
       <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C189" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D189" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E189" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F189" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G189" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H189" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I189" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J189" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10">
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C190" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D190" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E190" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F190" t="s">
-        <v>43</v>
-      </c>
-      <c r="G190" t="s">
-        <v>212</v>
-      </c>
-      <c r="H190" t="s"/>
-      <c r="I190" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9">
+        <v>47</v>
+      </c>
+      <c r="G190" t="s"/>
+      <c r="H190" t="s">
+        <v>216</v>
+      </c>
+      <c r="I190" t="s"/>
+      <c r="J190" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10">
       <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C191" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D191" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E191" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F191" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G191" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H191" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I191" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J191" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10">
       <c r="A192" s="1" t="n">
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C192" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D192" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E192" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F192" t="s">
-        <v>43</v>
-      </c>
-      <c r="G192" t="s">
-        <v>215</v>
-      </c>
-      <c r="H192" t="s"/>
-      <c r="I192" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9">
+        <v>47</v>
+      </c>
+      <c r="G192" t="s"/>
+      <c r="H192" t="s">
+        <v>219</v>
+      </c>
+      <c r="I192" t="s"/>
+      <c r="J192" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10">
       <c r="A193" s="1" t="n">
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C193" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D193" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E193" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F193" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G193" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H193" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I193" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J193" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10">
       <c r="A194" s="1" t="n">
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C194" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D194" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E194" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F194" t="s">
-        <v>43</v>
-      </c>
-      <c r="G194" t="s">
-        <v>215</v>
-      </c>
-      <c r="H194" t="s"/>
-      <c r="I194" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9">
+        <v>47</v>
+      </c>
+      <c r="G194" t="s"/>
+      <c r="H194" t="s">
+        <v>219</v>
+      </c>
+      <c r="I194" t="s"/>
+      <c r="J194" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10">
       <c r="A195" s="1" t="n">
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C195" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D195" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E195" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F195" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G195" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H195" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I195" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J195" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10">
       <c r="A196" s="1" t="n">
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C196" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D196" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E196" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F196" t="s">
-        <v>43</v>
-      </c>
-      <c r="G196" t="s">
-        <v>215</v>
-      </c>
-      <c r="H196" t="s"/>
-      <c r="I196" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9">
+        <v>47</v>
+      </c>
+      <c r="G196" t="s"/>
+      <c r="H196" t="s">
+        <v>219</v>
+      </c>
+      <c r="I196" t="s"/>
+      <c r="J196" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10">
       <c r="A197" s="1" t="n">
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C197" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D197" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E197" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F197" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G197" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H197" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I197" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J197" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10">
       <c r="A198" s="1" t="n">
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C198" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D198" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E198" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F198" t="s">
-        <v>43</v>
-      </c>
-      <c r="G198" t="s">
-        <v>215</v>
-      </c>
-      <c r="H198" t="s"/>
-      <c r="I198" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9">
+        <v>47</v>
+      </c>
+      <c r="G198" t="s"/>
+      <c r="H198" t="s">
+        <v>219</v>
+      </c>
+      <c r="I198" t="s"/>
+      <c r="J198" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10">
       <c r="A199" s="1" t="n">
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C199" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D199" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E199" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F199" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G199" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H199" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I199" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J199" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10">
       <c r="A200" s="1" t="n">
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C200" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D200" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E200" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F200" t="s">
-        <v>43</v>
-      </c>
-      <c r="G200" t="s">
-        <v>215</v>
-      </c>
-      <c r="H200" t="s"/>
-      <c r="I200" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9">
+        <v>47</v>
+      </c>
+      <c r="G200" t="s"/>
+      <c r="H200" t="s">
+        <v>219</v>
+      </c>
+      <c r="I200" t="s"/>
+      <c r="J200" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10">
       <c r="A201" s="1" t="n">
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C201" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D201" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E201" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F201" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G201" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H201" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I201" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J201" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10">
       <c r="A202" s="1" t="n">
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C202" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D202" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E202" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F202" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G202" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H202" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I202" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="203" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J202" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10">
       <c r="A203" s="1" t="n">
         <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C203" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D203" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E203" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F203" t="s">
-        <v>43</v>
-      </c>
-      <c r="G203" t="s">
-        <v>215</v>
-      </c>
-      <c r="H203" t="s"/>
-      <c r="I203" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9">
+        <v>47</v>
+      </c>
+      <c r="G203" t="s"/>
+      <c r="H203" t="s">
+        <v>219</v>
+      </c>
+      <c r="I203" t="s"/>
+      <c r="J203" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10">
       <c r="A204" s="1" t="n">
         <v>202</v>
       </c>
       <c r="B204" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C204" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D204" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E204" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F204" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G204" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H204" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I204" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="205" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J204" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10">
       <c r="A205" s="1" t="n">
         <v>203</v>
       </c>
       <c r="B205" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C205" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D205" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E205" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F205" t="s">
-        <v>43</v>
-      </c>
-      <c r="G205" t="s">
-        <v>215</v>
-      </c>
-      <c r="H205" t="s"/>
-      <c r="I205" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="206" spans="1:9">
+        <v>47</v>
+      </c>
+      <c r="G205" t="s"/>
+      <c r="H205" t="s">
+        <v>219</v>
+      </c>
+      <c r="I205" t="s"/>
+      <c r="J205" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10">
       <c r="A206" s="1" t="n">
         <v>204</v>
       </c>
       <c r="B206" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C206" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D206" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E206" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F206" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G206" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H206" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I206" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="207" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J206" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10">
       <c r="A207" s="1" t="n">
         <v>205</v>
       </c>
       <c r="B207" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C207" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D207" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E207" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F207" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G207" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H207" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I207" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="208" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J207" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10">
       <c r="A208" s="1" t="n">
         <v>206</v>
       </c>
       <c r="B208" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C208" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D208" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E208" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F208" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G208" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H208" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I208" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="209" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J208" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10">
       <c r="A209" s="1" t="n">
         <v>207</v>
       </c>
       <c r="B209" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C209" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D209" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E209" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F209" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G209" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H209" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I209" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="210" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J209" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10">
       <c r="A210" s="1" t="n">
         <v>208</v>
       </c>
       <c r="B210" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C210" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D210" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E210" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F210" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G210" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H210" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I210" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="211" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J210" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10">
       <c r="A211" s="1" t="n">
         <v>209</v>
       </c>
       <c r="B211" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C211" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D211" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E211" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F211" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G211" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H211" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I211" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="212" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J211" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10">
       <c r="A212" s="1" t="n">
         <v>210</v>
       </c>
       <c r="B212" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C212" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D212" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E212" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F212" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G212" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H212" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I212" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="213" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J212" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10">
       <c r="A213" s="1" t="n">
         <v>211</v>
       </c>
       <c r="B213" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C213" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D213" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E213" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F213" t="s">
-        <v>43</v>
-      </c>
-      <c r="G213" t="s">
-        <v>206</v>
-      </c>
-      <c r="H213" t="s"/>
-      <c r="I213" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="214" spans="1:9">
+        <v>47</v>
+      </c>
+      <c r="G213" t="s"/>
+      <c r="H213" t="s">
+        <v>210</v>
+      </c>
+      <c r="I213" t="s"/>
+      <c r="J213" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10">
       <c r="A214" s="1" t="n">
         <v>212</v>
       </c>
       <c r="B214" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C214" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D214" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E214" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F214" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G214" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H214" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I214" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="215" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J214" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10">
       <c r="A215" s="1" t="n">
         <v>213</v>
       </c>
       <c r="B215" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C215" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D215" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E215" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F215" t="s">
-        <v>43</v>
-      </c>
-      <c r="G215" t="s">
-        <v>206</v>
-      </c>
-      <c r="H215" t="s"/>
-      <c r="I215" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="216" spans="1:9">
+        <v>47</v>
+      </c>
+      <c r="G215" t="s"/>
+      <c r="H215" t="s">
+        <v>210</v>
+      </c>
+      <c r="I215" t="s"/>
+      <c r="J215" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10">
       <c r="A216" s="1" t="n">
         <v>214</v>
       </c>
       <c r="B216" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C216" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D216" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E216" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F216" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G216" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H216" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I216" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="217" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J216" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10">
       <c r="A217" s="1" t="n">
         <v>215</v>
       </c>
       <c r="B217" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C217" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D217" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E217" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F217" t="s">
-        <v>43</v>
-      </c>
-      <c r="G217" t="s">
-        <v>206</v>
-      </c>
-      <c r="H217" t="s"/>
-      <c r="I217" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="218" spans="1:9">
+        <v>47</v>
+      </c>
+      <c r="G217" t="s"/>
+      <c r="H217" t="s">
+        <v>210</v>
+      </c>
+      <c r="I217" t="s"/>
+      <c r="J217" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10">
       <c r="A218" s="1" t="n">
         <v>216</v>
       </c>
       <c r="B218" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C218" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D218" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E218" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F218" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G218" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H218" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I218" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="219" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J218" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10">
       <c r="A219" s="1" t="n">
         <v>217</v>
       </c>
       <c r="B219" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C219" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D219" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E219" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F219" t="s">
-        <v>43</v>
-      </c>
-      <c r="G219" t="s">
-        <v>206</v>
-      </c>
-      <c r="H219" t="s"/>
-      <c r="I219" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="220" spans="1:9">
+        <v>47</v>
+      </c>
+      <c r="G219" t="s"/>
+      <c r="H219" t="s">
+        <v>210</v>
+      </c>
+      <c r="I219" t="s"/>
+      <c r="J219" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10">
       <c r="A220" s="1" t="n">
         <v>218</v>
       </c>
       <c r="B220" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C220" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D220" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E220" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F220" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G220" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H220" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I220" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="221" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J220" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10">
       <c r="A221" s="1" t="n">
         <v>219</v>
       </c>
       <c r="B221" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C221" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D221" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E221" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F221" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G221" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H221" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I221" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="222" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J221" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10">
       <c r="A222" s="1" t="n">
         <v>220</v>
       </c>
       <c r="B222" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C222" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D222" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E222" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F222" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G222" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H222" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I222" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="223" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J222" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10">
       <c r="A223" s="1" t="n">
         <v>221</v>
       </c>
       <c r="B223" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C223" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D223" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E223" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F223" t="s">
-        <v>43</v>
-      </c>
-      <c r="G223" t="s">
-        <v>212</v>
-      </c>
-      <c r="H223" t="s"/>
-      <c r="I223" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="224" spans="1:9">
+        <v>47</v>
+      </c>
+      <c r="G223" t="s"/>
+      <c r="H223" t="s">
+        <v>216</v>
+      </c>
+      <c r="I223" t="s"/>
+      <c r="J223" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10">
       <c r="A224" s="1" t="n">
         <v>222</v>
       </c>
       <c r="B224" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C224" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D224" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E224" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F224" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G224" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H224" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I224" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="225" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J224" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10">
       <c r="A225" s="1" t="n">
         <v>223</v>
       </c>
       <c r="B225" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C225" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D225" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E225" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F225" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G225" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H225" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I225" t="s">
-        <v>269</v>
+        <v>16</v>
+      </c>
+      <c r="J225" t="s">
+        <v>273</v>
       </c>
     </row>
   </sheetData>
